--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofe\Desktop\plans\plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\git\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18403" windowHeight="8923" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>看精算师报名时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习git</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1007,31 +1011,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.23046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.765625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.4609375" style="8" customWidth="1"/>
-    <col min="6" max="7" width="24.61328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A1" s="36"/>
       <c r="B1" s="37"/>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1043,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="9">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42764</v>
+        <v>42770</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>8</v>
@@ -1060,7 +1064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -1068,11 +1072,11 @@
       <c r="C3" s="41"/>
       <c r="D3" s="10">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93572951389069203</v>
+        <v>0.57951550925645279</v>
       </c>
       <c r="E3" s="18">
         <f ca="1">E4-$D$2</f>
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -1080,20 +1084,20 @@
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E4" s="17">
         <v>43581</v>
       </c>
       <c r="F4" s="16">
         <f ca="1">$D$2+F3</f>
-        <v>44316.039215686273</v>
+        <v>44322.039215686273</v>
       </c>
       <c r="G4" s="17">
         <v>42762</v>
@@ -1102,7 +1106,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>42759</v>
       </c>
@@ -1139,7 +1143,7 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>42760</v>
       </c>
@@ -1153,7 +1157,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>42761</v>
       </c>
@@ -1167,7 +1171,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>42762</v>
       </c>
@@ -1181,7 +1185,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>42763</v>
       </c>
@@ -1197,7 +1201,7 @@
       <c r="E14" s="12"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>42764</v>
       </c>
@@ -1212,7 +1216,7 @@
       <c r="E15" s="12"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>42765</v>
       </c>
@@ -1228,7 +1232,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>42766</v>
       </c>
@@ -1245,7 +1249,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>42767</v>
       </c>
@@ -1260,7 +1264,7 @@
       <c r="E18" s="12"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>42768</v>
       </c>
@@ -1274,7 +1278,7 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>42769</v>
       </c>
@@ -1291,7 +1295,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42770</v>
       </c>
@@ -1304,9 +1308,11 @@
         <v>星期六</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>42771</v>
       </c>
@@ -1320,7 +1326,7 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>42772</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>42773</v>
       </c>
@@ -1350,7 +1356,7 @@
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>42774</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>42775</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42776</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>42777</v>
       </c>
@@ -1403,7 +1409,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>42778</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>42779</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>42780</v>
       </c>
@@ -1443,7 +1449,7 @@
       </c>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>42781</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>42782</v>
       </c>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>42783</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>42784</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42785</v>
       </c>
@@ -1512,7 +1518,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>42786</v>
       </c>
@@ -1526,7 +1532,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42787</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>42788</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>42789</v>
       </c>
@@ -1597,20 +1603,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="13.61328125" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" customWidth="1"/>
-    <col min="6" max="6" width="18.4609375" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>57</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>17</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>18</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>21</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <v>27</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>29</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>31</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>34</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>8.0392156862745097</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>35</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>37</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>38</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>39</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>42</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>44</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>46</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>47</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>48</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>49</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>50</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>52</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>53</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>55</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>56</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>58</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>59</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>61</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>62</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>63</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>64</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>65</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>66</v>
       </c>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
     <sheet name="学习任务" sheetId="11" r:id="rId2"/>
+    <sheet name="列表" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>日期</t>
   </si>
@@ -196,12 +197,6 @@
     <t xml:space="preserve">         逻辑写作</t>
   </si>
   <si>
-    <t>读书</t>
-  </si>
-  <si>
-    <t>MOOC</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -263,6 +258,51 @@
   </si>
   <si>
     <t>学习git</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05页习题集</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止，暂时够用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习统计学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计预测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -270,12 +310,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +363,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -513,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,13 +638,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -619,19 +650,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +685,16 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -720,6 +764,1937 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>剩余工期</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>列表!$A$2:$A$328</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="327"/>
+                <c:pt idx="0">
+                  <c:v>42770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42784</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42791</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42792</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42806</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42812</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42819</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42820</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42827</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42833</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42834</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42841</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42847</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42848</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42854</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42862</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42868</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42876</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42882</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42883</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42889</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42890</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42897</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42903</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42905</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42910</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42911</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42922</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42923</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42927</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42929</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42931</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42932</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42933</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42934</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42946</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42949</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42950</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42951</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42953</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42954</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42955</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42957</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42959</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42960</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42963</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42964</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42965</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42966</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42968</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42969</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42970</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42971</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42972</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42973</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42974</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42975</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42977</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42980</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42981</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42982</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42983</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42984</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42985</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42986</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42987</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42988</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42989</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42990</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42991</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42992</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42994</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42995</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42996</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42998</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43002</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43003</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43004</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43005</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43006</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43007</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43010</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>43011</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43012</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>43013</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>43014</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>43015</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>43016</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>43017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>43018</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>43019</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>43020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>43021</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>43022</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>43023</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>43024</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>43025</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43026</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43027</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43028</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43029</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>43030</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>43031</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>43033</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>43034</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>43036</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>43037</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>43038</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>43041</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>43043</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>43044</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>43046</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>43050</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>43051</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>43052</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>43056</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>43057</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>43058</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>43060</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>43061</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>43064</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>43065</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>43066</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>43071</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>43072</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>43082</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>43083</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>43085</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>43086</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>43087</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>43088</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>43089</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>43090</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>43091</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>43092</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>43093</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>43094</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>43095</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>43096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>列表!$B$2:$B$328</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="327"/>
+                <c:pt idx="0">
+                  <c:v>44315.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44376.682448589192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B36E-481C-98DA-0F726D294D19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788783727"/>
+        <c:axId val="788784559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788783727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788784559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="788784559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788783727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,11 +2986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,13 +3018,13 @@
       <c r="C2" s="41"/>
       <c r="D2" s="9">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42770</v>
+        <v>42771</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>9</v>
@@ -1072,23 +3047,23 @@
       <c r="C3" s="41"/>
       <c r="D3" s="10">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.57951550925645279</v>
+        <v>0.85923287036712281</v>
       </c>
       <c r="E3" s="18">
         <f ca="1">E4-$D$2</f>
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1552.0392156862745</v>
+        <v>1605.6824485891918</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1097,7 +3072,7 @@
       </c>
       <c r="F4" s="16">
         <f ca="1">$D$2+F3</f>
-        <v>44322.039215686273</v>
+        <v>44376.682448589192</v>
       </c>
       <c r="G4" s="17">
         <v>42762</v>
@@ -1290,8 +3265,8 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>70</v>
+      <c r="D20" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -1309,7 +3284,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="F21" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1325,6 +3300,9 @@
         <v>星期日</v>
       </c>
       <c r="D22" s="13"/>
+      <c r="F22" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -1338,8 +3316,8 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>71</v>
+      <c r="D23" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1563,7 +3541,7 @@
         <v>42789</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +3582,8 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,8 +3595,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>57</v>
+      <c r="A1" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>13</v>
@@ -1626,14 +3604,14 @@
       <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>64</v>
+      <c r="D1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1653,8 +3631,8 @@
         <f>C2*(1-D2)</f>
         <v>20</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>66</v>
+      <c r="F2" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1671,11 +3649,11 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E48" si="0">C3*(1-D3)</f>
+        <f t="shared" ref="E3:E49" si="0">C3*(1-D3)</f>
         <v>25</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>66</v>
+      <c r="F3" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1695,8 +3673,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>66</v>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1716,8 +3694,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>66</v>
+      <c r="F5" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1773,8 +3751,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>65</v>
+      <c r="F8" s="28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1800,7 +3778,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="26">
         <v>15</v>
@@ -1818,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="26">
         <v>15</v>
@@ -1836,7 +3814,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="26">
         <v>15</v>
@@ -1921,7 +3899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1939,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1957,27 +3935,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="33">
+    <row r="19" spans="1:6" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32">
         <v>27</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="34">
+      <c r="B19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="33">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1995,7 +3973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>29</v>
       </c>
@@ -2013,7 +3991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2031,7 +4009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>31</v>
       </c>
@@ -2049,7 +4027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2067,7 +4045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>34</v>
       </c>
@@ -2077,16 +4055,19 @@
       <c r="C25" s="26">
         <v>10</v>
       </c>
-      <c r="D25" s="29">
-        <f>50/255</f>
-        <v>0.19607843137254902</v>
+      <c r="D25" s="28">
+        <f>130/255</f>
+        <v>0.50980392156862742</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>8.0392156862745097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>35</v>
       </c>
@@ -2104,7 +4085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>37</v>
       </c>
@@ -2122,7 +4103,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>38</v>
       </c>
@@ -2140,7 +4121,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>39</v>
       </c>
@@ -2158,25 +4139,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>42</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="26">
         <v>20</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <f>33/205</f>
+        <v>0.16097560975609757</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>16.780487804878049</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43</v>
       </c>
@@ -2194,7 +4179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>44</v>
       </c>
@@ -2447,62 +4432,2030 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>63</v>
-      </c>
       <c r="B46" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C46" s="26">
+        <v>20</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>64</v>
-      </c>
       <c r="B47" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C47" s="26">
+        <v>20</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="B48" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="26">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>65</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="31">
+      <c r="B49" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="30">
         <v>60</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>0.6</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L392"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="43" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="35">
+        <f ca="1">NOW()</f>
+        <v>42771.859232870367</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="35">
+        <v>42770</v>
+      </c>
+      <c r="B2" s="43">
+        <v>44315.682448589192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="35">
+        <v>42771</v>
+      </c>
+      <c r="B3" s="44">
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>42772</v>
+      </c>
+      <c r="B4" s="43">
+        <f>B3</f>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="35">
+        <v>42773</v>
+      </c>
+      <c r="B5" s="43">
+        <f t="shared" ref="B5:B26" si="0">B4</f>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="35">
+        <v>42774</v>
+      </c>
+      <c r="B6" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="35">
+        <v>42775</v>
+      </c>
+      <c r="B7" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="35">
+        <v>42776</v>
+      </c>
+      <c r="B8" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
+        <v>42777</v>
+      </c>
+      <c r="B9" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="35">
+        <v>42778</v>
+      </c>
+      <c r="B10" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="35">
+        <v>42779</v>
+      </c>
+      <c r="B11" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="35">
+        <v>42780</v>
+      </c>
+      <c r="B12" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="35">
+        <v>42781</v>
+      </c>
+      <c r="B13" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="35">
+        <v>42782</v>
+      </c>
+      <c r="B14" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="35">
+        <v>42783</v>
+      </c>
+      <c r="B15" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="35">
+        <v>42784</v>
+      </c>
+      <c r="B16" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="35">
+        <v>42785</v>
+      </c>
+      <c r="B17" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="35">
+        <v>42786</v>
+      </c>
+      <c r="B18" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="35">
+        <v>42787</v>
+      </c>
+      <c r="B19" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="35">
+        <v>42788</v>
+      </c>
+      <c r="B20" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="35">
+        <v>42789</v>
+      </c>
+      <c r="B21" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="35">
+        <v>42790</v>
+      </c>
+      <c r="B22" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="35">
+        <v>42791</v>
+      </c>
+      <c r="B23" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="35">
+        <v>42792</v>
+      </c>
+      <c r="B24" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
+        <v>42793</v>
+      </c>
+      <c r="B25" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
+        <v>42794</v>
+      </c>
+      <c r="B26" s="43">
+        <f t="shared" si="0"/>
+        <v>44376.682448589192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="35">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="35">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="35">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="35">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="35">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35">
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="35">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="35">
+        <v>42805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="35">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="35">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="35">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="35">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="35">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="35">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="35">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="35">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="35">
+        <v>42815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="35">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="35">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="35">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="35">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="35">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="35">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="35">
+        <v>42822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="35">
+        <v>42823</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="35">
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="35">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="35">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="35">
+        <v>42827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="35">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="35">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="35">
+        <v>42830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="35">
+        <v>42831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="35">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="35">
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="35">
+        <v>42834</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="35">
+        <v>42835</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="35">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="35">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="35">
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="35">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="35">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="35">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="35">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="35">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="35">
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="35">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="35">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="35">
+        <v>42847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="35">
+        <v>42848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="35">
+        <v>42849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="35">
+        <v>42850</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="35">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="35">
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="35">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="35">
+        <v>42854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="35">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="35">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="35">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="35">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="35">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="35">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="35">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="35">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="35">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="35">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="35">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="35">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="35">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="35">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="35">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="35">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="35">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="35">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="35">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="35">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="35">
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="35">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="35">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="35">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="35">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="35">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="35">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="35">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="35">
+        <v>42883</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="35">
+        <v>42884</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="35">
+        <v>42885</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="35">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="35">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="35">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="35">
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="35">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="35">
+        <v>42891</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="35">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="35">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="35">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="35">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="35">
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="35">
+        <v>42897</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="35">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="35">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="35">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="35">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="35">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="35">
+        <v>42903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="35">
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="35">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="35">
+        <v>42906</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="35">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="35">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="35">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="35">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="35">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="35">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="35">
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="35">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="35">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="35">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="35">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="35">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="35">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="35">
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="35">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="35">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="35">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="35">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="35">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="35">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="35">
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="35">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="35">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="35">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="35">
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="35">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="35">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="35">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="35">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="35">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="35">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="35">
+        <v>42938</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="35">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="35">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="35">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="35">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="35">
+        <v>42943</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="35">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="35">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="35">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="35">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="35">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="35">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="35">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="35">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="35">
+        <v>42952</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="35">
+        <v>42953</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="35">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="35">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="35">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="35">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="35">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="35">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="35">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="35">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="35">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="35">
+        <v>42963</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="35">
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="35">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="35">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="35">
+        <v>42967</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="35">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="35">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="35">
+        <v>42970</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="35">
+        <v>42971</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="35">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="35">
+        <v>42973</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="35">
+        <v>42974</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="35">
+        <v>42975</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="35">
+        <v>42976</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="35">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="35">
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="35">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="35">
+        <v>42980</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="35">
+        <v>42981</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="35">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="35">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="35">
+        <v>42984</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="35">
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="35">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="35">
+        <v>42987</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="35">
+        <v>42988</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="35">
+        <v>42989</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="35">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="35">
+        <v>42991</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="35">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="35">
+        <v>42993</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="35">
+        <v>42994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="35">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" s="35">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" s="35">
+        <v>42997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" s="35">
+        <v>42998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" s="35">
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="35">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="35">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="35">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" s="35">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" s="35">
+        <v>43004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="35">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="35">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" s="35">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" s="35">
+        <v>43008</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="35">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="35">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="35">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="35">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="35">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="35">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="35">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="35">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="35">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="35">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="35">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="35">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="35">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="35">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="35">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="35">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="35">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="35">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="35">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="35">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="35">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="35">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="35">
+        <v>43031</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="35">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="35">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="35">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="35">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="35">
+        <v>43036</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="35">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="35">
+        <v>43038</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="35">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="35">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="35">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="35">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="35">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="35">
+        <v>43044</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="35">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="35">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="35">
+        <v>43047</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="35">
+        <v>43048</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="35">
+        <v>43049</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="35">
+        <v>43050</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="35">
+        <v>43051</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="35">
+        <v>43052</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="35">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="35">
+        <v>43054</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="35">
+        <v>43055</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="35">
+        <v>43056</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="35">
+        <v>43057</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="35">
+        <v>43058</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="35">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="35">
+        <v>43060</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="35">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="35">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="35">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="35">
+        <v>43064</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="35">
+        <v>43065</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="35">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="35">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="35">
+        <v>43068</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="35">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="35">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="35">
+        <v>43071</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="35">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="35">
+        <v>43073</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="35">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="35">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="35">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="35">
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="35">
+        <v>43078</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="35">
+        <v>43079</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="35">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="35">
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="35">
+        <v>43082</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="35">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="35">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="35">
+        <v>43085</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="35">
+        <v>43086</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="35">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="35">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="35">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="35">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="35">
+        <v>43091</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="35">
+        <v>43092</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="35">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="35">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="35">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="35">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="35"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="35"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="35"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="35"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="35"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="35"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="35"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="35"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="35"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="35"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="35"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="35"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="35"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="35"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="35"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="35"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="35"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="35"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="35"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" s="35"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="35"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" s="35"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" s="35"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" s="35"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" s="35"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" s="35"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" s="35"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" s="35"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" s="35"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" s="35"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" s="35"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" s="35"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" s="35"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" s="35"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" s="35"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" s="35"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" s="35"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" s="35"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" s="35"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" s="35"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" s="35"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" s="35"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" s="35"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" s="35"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" s="35"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" s="35"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" s="35"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" s="35"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" s="35"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" s="35"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" s="35"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" s="35"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" s="35"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" s="35"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" s="35"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" s="35"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" s="35"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" s="35"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" s="35"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" s="35"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" s="35"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" s="35"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" s="35"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -17,11 +17,12 @@
     <sheet name="列表" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>日期</t>
   </si>
@@ -303,6 +304,30 @@
   </si>
   <si>
     <t>统计预测</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午写文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午开会，下午写文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午开会，下午写数据需求文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理百度云中的照片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人网站上线连接成功！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -579,9 +604,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +690,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,22 +721,128 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF00"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1839,7 +1980,7 @@
             <c:numRef>
               <c:f>列表!$B$2:$B$328</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="327"/>
                 <c:pt idx="0">
                   <c:v>44315.682448589192</c:v>
@@ -1854,67 +1995,10 @@
                   <c:v>44376.682448589192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44376.682448589192</c:v>
+                  <c:v>44379.682448589192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44376.682448589192</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44376.682448589192</c:v>
+                  <c:v>44380.682448589192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +2104,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3006,78 +3090,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="9">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42771</v>
-      </c>
-      <c r="E2" s="19" t="s">
+        <v>42775</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="10">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.85923287036712281</v>
-      </c>
-      <c r="E3" s="18">
+        <v>0.86111655092827277</v>
+      </c>
+      <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
         <v>1605.6824485891918</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-9</v>
-      </c>
-      <c r="H3" s="18">
+        <v>-13</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>43581</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44376.682448589192</v>
-      </c>
-      <c r="G4" s="17">
+        <v>44380.682448589192</v>
+      </c>
+      <c r="G4" s="16">
         <v>42762</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>43006</v>
       </c>
     </row>
@@ -3091,10 +3175,10 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -3116,7 +3200,7 @@
         <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
         <v>星期二</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -3130,7 +3214,7 @@
         <f t="shared" si="2"/>
         <v>星期三</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -3172,8 +3256,8 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -3188,7 +3272,7 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -3203,9 +3287,9 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -3219,10 +3303,10 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -3236,8 +3320,8 @@
         <f t="shared" si="2"/>
         <v>星期三</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="G18" s="20"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -3251,7 +3335,7 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -3265,7 +3349,7 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="6"/>
@@ -3282,8 +3366,8 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="12"/>
+      <c r="F21" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3299,7 +3383,7 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
       <c r="F22" s="6" t="s">
         <v>75</v>
       </c>
@@ -3316,8 +3400,11 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>69</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -3332,7 +3419,10 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="F24" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -3346,6 +3436,12 @@
         <f t="shared" si="2"/>
         <v>星期三</v>
       </c>
+      <c r="E25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -3359,6 +3455,12 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
+      <c r="E26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -3385,7 +3487,7 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
@@ -3425,7 +3527,7 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -3452,7 +3554,7 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -3492,8 +3594,8 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -3508,7 +3610,7 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
@@ -3540,7 +3642,7 @@
       <c r="A40" s="2">
         <v>42789</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3552,23 +3654,23 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:G42">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$A5&lt;$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C42">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>($A5&lt;$D$2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>($A5=$D$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E42">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>($A5&lt;$D$2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>($A$5=$D$2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3583,7 +3685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3595,22 +3697,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3618,10 +3720,10 @@
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>20</v>
       </c>
       <c r="D2">
@@ -3631,7 +3733,7 @@
         <f>C2*(1-D2)</f>
         <v>20</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3639,10 +3741,10 @@
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>25</v>
       </c>
       <c r="D3">
@@ -3652,7 +3754,7 @@
         <f t="shared" ref="E3:E49" si="0">C3*(1-D3)</f>
         <v>25</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3660,10 +3762,10 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>25</v>
       </c>
       <c r="D4">
@@ -3673,7 +3775,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3681,10 +3783,10 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>25</v>
       </c>
       <c r="D5">
@@ -3694,7 +3796,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3702,10 +3804,10 @@
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>10</v>
       </c>
       <c r="D6">
@@ -3720,10 +3822,10 @@
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>30</v>
       </c>
       <c r="D7">
@@ -3738,10 +3840,10 @@
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>10</v>
       </c>
       <c r="D8">
@@ -3751,7 +3853,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3759,10 +3861,10 @@
       <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>10</v>
       </c>
       <c r="D9">
@@ -3777,10 +3879,10 @@
       <c r="A10">
         <v>16</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>15</v>
       </c>
       <c r="D10">
@@ -3795,10 +3897,10 @@
       <c r="A11">
         <v>17</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>15</v>
       </c>
       <c r="D11">
@@ -3813,10 +3915,10 @@
       <c r="A12">
         <v>18</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>15</v>
       </c>
       <c r="D12">
@@ -3831,10 +3933,10 @@
       <c r="A13">
         <v>20</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>3</v>
       </c>
       <c r="D13">
@@ -3849,10 +3951,10 @@
       <c r="A14">
         <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>3</v>
       </c>
       <c r="D14">
@@ -3867,10 +3969,10 @@
       <c r="A15">
         <v>22</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>7</v>
       </c>
       <c r="D15">
@@ -3885,10 +3987,10 @@
       <c r="A16">
         <v>23</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>10</v>
       </c>
       <c r="D16">
@@ -3903,10 +4005,10 @@
       <c r="A17">
         <v>24</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>10</v>
       </c>
       <c r="D17">
@@ -3921,10 +4023,10 @@
       <c r="A18">
         <v>25</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>10</v>
       </c>
       <c r="D18">
@@ -3935,22 +4037,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+    <row r="19" spans="1:6" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="31">
         <v>27</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -3959,10 +4061,10 @@
       <c r="A20">
         <v>28</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>15</v>
       </c>
       <c r="D20">
@@ -3977,10 +4079,10 @@
       <c r="A21">
         <v>29</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>10</v>
       </c>
       <c r="D21">
@@ -3995,10 +4097,10 @@
       <c r="A22">
         <v>30</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>10</v>
       </c>
       <c r="D22">
@@ -4013,10 +4115,10 @@
       <c r="A23">
         <v>31</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>15</v>
       </c>
       <c r="D23">
@@ -4031,10 +4133,10 @@
       <c r="A24">
         <v>32</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>15</v>
       </c>
       <c r="D24">
@@ -4049,13 +4151,13 @@
       <c r="A25">
         <v>34</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>10</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <f>130/255</f>
         <v>0.50980392156862742</v>
       </c>
@@ -4063,7 +4165,7 @@
         <f t="shared" si="0"/>
         <v>4.9019607843137258</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4071,10 +4173,10 @@
       <c r="A26">
         <v>35</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>15</v>
       </c>
       <c r="D26">
@@ -4089,10 +4191,10 @@
       <c r="A27">
         <v>37</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>215</v>
       </c>
       <c r="D27">
@@ -4107,10 +4209,10 @@
       <c r="A28">
         <v>38</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>300</v>
       </c>
       <c r="D28">
@@ -4125,10 +4227,10 @@
       <c r="A29">
         <v>39</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>200</v>
       </c>
       <c r="D29">
@@ -4143,10 +4245,10 @@
       <c r="A30">
         <v>42</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>20</v>
       </c>
       <c r="D30">
@@ -4157,7 +4259,7 @@
         <f t="shared" si="0"/>
         <v>16.780487804878049</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4165,10 +4267,10 @@
       <c r="A31">
         <v>43</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>20</v>
       </c>
       <c r="D31">
@@ -4183,10 +4285,10 @@
       <c r="A32">
         <v>44</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>10</v>
       </c>
       <c r="D32">
@@ -4201,10 +4303,10 @@
       <c r="A33">
         <v>46</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>30</v>
       </c>
       <c r="D33">
@@ -4219,10 +4321,10 @@
       <c r="A34">
         <v>47</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>30</v>
       </c>
       <c r="D34">
@@ -4237,10 +4339,10 @@
       <c r="A35">
         <v>48</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>26</v>
       </c>
       <c r="D35">
@@ -4255,10 +4357,10 @@
       <c r="A36">
         <v>49</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>30</v>
       </c>
       <c r="D36">
@@ -4273,10 +4375,10 @@
       <c r="A37">
         <v>50</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>30</v>
       </c>
       <c r="D37">
@@ -4291,10 +4393,10 @@
       <c r="A38">
         <v>52</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>30</v>
       </c>
       <c r="D38">
@@ -4309,10 +4411,10 @@
       <c r="A39">
         <v>53</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <v>30</v>
       </c>
       <c r="D39">
@@ -4327,10 +4429,10 @@
       <c r="A40">
         <v>55</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <v>30</v>
       </c>
       <c r="D40">
@@ -4345,10 +4447,10 @@
       <c r="A41">
         <v>56</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="25">
         <v>30</v>
       </c>
       <c r="D41">
@@ -4363,10 +4465,10 @@
       <c r="A42">
         <v>58</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="25">
         <v>30</v>
       </c>
       <c r="D42">
@@ -4381,10 +4483,10 @@
       <c r="A43">
         <v>59</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="25">
         <v>30</v>
       </c>
       <c r="D43">
@@ -4399,10 +4501,10 @@
       <c r="A44">
         <v>61</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="25">
         <v>10</v>
       </c>
       <c r="D44">
@@ -4417,10 +4519,10 @@
       <c r="A45">
         <v>62</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <v>20</v>
       </c>
       <c r="D45">
@@ -4432,10 +4534,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="25">
         <v>20</v>
       </c>
       <c r="E46">
@@ -4444,10 +4546,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="25">
         <v>20</v>
       </c>
       <c r="E47">
@@ -4456,10 +4558,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="25">
         <v>20</v>
       </c>
       <c r="E48">
@@ -4471,10 +4573,10 @@
       <c r="A49">
         <v>65</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="29">
         <v>60</v>
       </c>
       <c r="D49">
@@ -4496,1964 +4598,1894 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="43" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="36" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="35">
-        <f ca="1">NOW()</f>
-        <v>42771.859232870367</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="C1" s="34">
+        <f ca="1">ROUNDDOWN(NOW(),0)</f>
+        <v>42775</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="35">
+      <c r="A2" s="34">
         <v>42770</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="36">
         <v>44315.682448589192</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="35">
+      <c r="A3" s="34">
         <v>42771</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="37">
         <v>44376.682448589192</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <v>42772</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="36">
         <f>B3</f>
         <v>44376.682448589192</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>42773</v>
       </c>
-      <c r="B5" s="43">
-        <f t="shared" ref="B5:B26" si="0">B4</f>
+      <c r="B5" s="36">
+        <f t="shared" ref="B5" si="0">B4</f>
         <v>44376.682448589192</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>42774</v>
       </c>
-      <c r="B6" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
+      <c r="B6" s="36">
+        <v>44379.682448589192</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="35">
+      <c r="A7" s="34">
         <v>42775</v>
       </c>
-      <c r="B7" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
+      <c r="B7" s="36">
+        <v>44380.682448589192</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>42776</v>
       </c>
-      <c r="B8" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="35">
+      <c r="A9" s="34">
         <v>42777</v>
       </c>
-      <c r="B9" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>42778</v>
       </c>
-      <c r="B10" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="35">
+      <c r="A11" s="34">
         <v>42779</v>
       </c>
-      <c r="B11" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>42780</v>
       </c>
-      <c r="B12" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>42781</v>
       </c>
-      <c r="B13" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>42782</v>
       </c>
-      <c r="B14" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>42783</v>
       </c>
-      <c r="B15" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>42784</v>
       </c>
-      <c r="B16" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="35">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
         <v>42785</v>
       </c>
-      <c r="B17" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="35">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34">
         <v>42786</v>
       </c>
-      <c r="B18" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="35">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34">
         <v>42787</v>
       </c>
-      <c r="B19" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="35">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34">
         <v>42788</v>
       </c>
-      <c r="B20" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="35">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="34">
         <v>42789</v>
       </c>
-      <c r="B21" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="35">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34">
         <v>42790</v>
       </c>
-      <c r="B22" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="35">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34">
         <v>42791</v>
       </c>
-      <c r="B23" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="35">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34">
         <v>42792</v>
       </c>
-      <c r="B24" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="35">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34">
         <v>42793</v>
       </c>
-      <c r="B25" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="35">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="34">
         <v>42794</v>
       </c>
-      <c r="B26" s="43">
-        <f t="shared" si="0"/>
-        <v>44376.682448589192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="35">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34">
         <v>42795</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34">
         <v>42796</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34">
         <v>42797</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="34">
         <v>42798</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34">
         <v>42799</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34">
         <v>42800</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35">
+      <c r="A33" s="34">
         <v>42801</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="35">
+      <c r="A34" s="34">
         <v>42802</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35">
+      <c r="A35" s="34">
         <v>42803</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35">
+      <c r="A36" s="34">
         <v>42804</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="35">
+      <c r="A37" s="34">
         <v>42805</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35">
+      <c r="A38" s="34">
         <v>42806</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="35">
+      <c r="A39" s="34">
         <v>42807</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="35">
+      <c r="A40" s="34">
         <v>42808</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="35">
+      <c r="A41" s="34">
         <v>42809</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="35">
+      <c r="A42" s="34">
         <v>42810</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="35">
+      <c r="A43" s="34">
         <v>42811</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="35">
+      <c r="A44" s="34">
         <v>42812</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="35">
+      <c r="A45" s="34">
         <v>42813</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="35">
+      <c r="A46" s="34">
         <v>42814</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="35">
+      <c r="A47" s="34">
         <v>42815</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35">
+      <c r="A48" s="34">
         <v>42816</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35">
+      <c r="A49" s="34">
         <v>42817</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>42818</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35">
+      <c r="A51" s="34">
         <v>42819</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="35">
+      <c r="A52" s="34">
         <v>42820</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="35">
+      <c r="A53" s="34">
         <v>42821</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="35">
+      <c r="A54" s="34">
         <v>42822</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="35">
+      <c r="A55" s="34">
         <v>42823</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="35">
+      <c r="A56" s="34">
         <v>42824</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="35">
+      <c r="A57" s="34">
         <v>42825</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="35">
+      <c r="A58" s="34">
         <v>42826</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35">
+      <c r="A59" s="34">
         <v>42827</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="35">
+      <c r="A60" s="34">
         <v>42828</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="35">
+      <c r="A61" s="34">
         <v>42829</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="35">
+      <c r="A62" s="34">
         <v>42830</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="35">
+      <c r="A63" s="34">
         <v>42831</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35">
+      <c r="A64" s="34">
         <v>42832</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="35">
+      <c r="A65" s="34">
         <v>42833</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="35">
+      <c r="A66" s="34">
         <v>42834</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="35">
+      <c r="A67" s="34">
         <v>42835</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="35">
+      <c r="A68" s="34">
         <v>42836</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="35">
+      <c r="A69" s="34">
         <v>42837</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="35">
+      <c r="A70" s="34">
         <v>42838</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="35">
+      <c r="A71" s="34">
         <v>42839</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="35">
+      <c r="A72" s="34">
         <v>42840</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="35">
+      <c r="A73" s="34">
         <v>42841</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="35">
+      <c r="A74" s="34">
         <v>42842</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="35">
+      <c r="A75" s="34">
         <v>42843</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="35">
+      <c r="A76" s="34">
         <v>42844</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="35">
+      <c r="A77" s="34">
         <v>42845</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="35">
+      <c r="A78" s="34">
         <v>42846</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="35">
+      <c r="A79" s="34">
         <v>42847</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="35">
+      <c r="A80" s="34">
         <v>42848</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="35">
+      <c r="A81" s="34">
         <v>42849</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="35">
+      <c r="A82" s="34">
         <v>42850</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="35">
+      <c r="A83" s="34">
         <v>42851</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="35">
+      <c r="A84" s="34">
         <v>42852</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="35">
+      <c r="A85" s="34">
         <v>42853</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="35">
+      <c r="A86" s="34">
         <v>42854</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="35">
+      <c r="A87" s="34">
         <v>42855</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="35">
+      <c r="A88" s="34">
         <v>42856</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="35">
+      <c r="A89" s="34">
         <v>42857</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="35">
+      <c r="A90" s="34">
         <v>42858</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="35">
+      <c r="A91" s="34">
         <v>42859</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="35">
+      <c r="A92" s="34">
         <v>42860</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="35">
+      <c r="A93" s="34">
         <v>42861</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="35">
+      <c r="A94" s="34">
         <v>42862</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="35">
+      <c r="A95" s="34">
         <v>42863</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="35">
+      <c r="A96" s="34">
         <v>42864</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="35">
+      <c r="A97" s="34">
         <v>42865</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="35">
+      <c r="A98" s="34">
         <v>42866</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="35">
+      <c r="A99" s="34">
         <v>42867</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="35">
+      <c r="A100" s="34">
         <v>42868</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="35">
+      <c r="A101" s="34">
         <v>42869</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="35">
+      <c r="A102" s="34">
         <v>42870</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="35">
+      <c r="A103" s="34">
         <v>42871</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="35">
+      <c r="A104" s="34">
         <v>42872</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="35">
+      <c r="A105" s="34">
         <v>42873</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="35">
+      <c r="A106" s="34">
         <v>42874</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="35">
+      <c r="A107" s="34">
         <v>42875</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="35">
+      <c r="A108" s="34">
         <v>42876</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="35">
+      <c r="A109" s="34">
         <v>42877</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="35">
+      <c r="A110" s="34">
         <v>42878</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="35">
+      <c r="A111" s="34">
         <v>42879</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="35">
+      <c r="A112" s="34">
         <v>42880</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="35">
+      <c r="A113" s="34">
         <v>42881</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="35">
+      <c r="A114" s="34">
         <v>42882</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="35">
+      <c r="A115" s="34">
         <v>42883</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="35">
+      <c r="A116" s="34">
         <v>42884</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="35">
+      <c r="A117" s="34">
         <v>42885</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="35">
+      <c r="A118" s="34">
         <v>42886</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="35">
+      <c r="A119" s="34">
         <v>42887</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="35">
+      <c r="A120" s="34">
         <v>42888</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="35">
+      <c r="A121" s="34">
         <v>42889</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="35">
+      <c r="A122" s="34">
         <v>42890</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="35">
+      <c r="A123" s="34">
         <v>42891</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="35">
+      <c r="A124" s="34">
         <v>42892</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="35">
+      <c r="A125" s="34">
         <v>42893</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="35">
+      <c r="A126" s="34">
         <v>42894</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="35">
+      <c r="A127" s="34">
         <v>42895</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="35">
+      <c r="A128" s="34">
         <v>42896</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="35">
+      <c r="A129" s="34">
         <v>42897</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="35">
+      <c r="A130" s="34">
         <v>42898</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="35">
+      <c r="A131" s="34">
         <v>42899</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="35">
+      <c r="A132" s="34">
         <v>42900</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="35">
+      <c r="A133" s="34">
         <v>42901</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="35">
+      <c r="A134" s="34">
         <v>42902</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="35">
+      <c r="A135" s="34">
         <v>42903</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="35">
+      <c r="A136" s="34">
         <v>42904</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="35">
+      <c r="A137" s="34">
         <v>42905</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="35">
+      <c r="A138" s="34">
         <v>42906</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="35">
+      <c r="A139" s="34">
         <v>42907</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="35">
+      <c r="A140" s="34">
         <v>42908</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="35">
+      <c r="A141" s="34">
         <v>42909</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="35">
+      <c r="A142" s="34">
         <v>42910</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="35">
+      <c r="A143" s="34">
         <v>42911</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="35">
+      <c r="A144" s="34">
         <v>42912</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="35">
+      <c r="A145" s="34">
         <v>42913</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="35">
+      <c r="A146" s="34">
         <v>42914</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="35">
+      <c r="A147" s="34">
         <v>42915</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="35">
+      <c r="A148" s="34">
         <v>42916</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="35">
+      <c r="A149" s="34">
         <v>42917</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="35">
+      <c r="A150" s="34">
         <v>42918</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="35">
+      <c r="A151" s="34">
         <v>42919</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="35">
+      <c r="A152" s="34">
         <v>42920</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="35">
+      <c r="A153" s="34">
         <v>42921</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="35">
+      <c r="A154" s="34">
         <v>42922</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="35">
+      <c r="A155" s="34">
         <v>42923</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="35">
+      <c r="A156" s="34">
         <v>42924</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="35">
+      <c r="A157" s="34">
         <v>42925</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="35">
+      <c r="A158" s="34">
         <v>42926</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="35">
+      <c r="A159" s="34">
         <v>42927</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="35">
+      <c r="A160" s="34">
         <v>42928</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="35">
+      <c r="A161" s="34">
         <v>42929</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="35">
+      <c r="A162" s="34">
         <v>42930</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="35">
+      <c r="A163" s="34">
         <v>42931</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="35">
+      <c r="A164" s="34">
         <v>42932</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="35">
+      <c r="A165" s="34">
         <v>42933</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="35">
+      <c r="A166" s="34">
         <v>42934</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="35">
+      <c r="A167" s="34">
         <v>42935</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="35">
+      <c r="A168" s="34">
         <v>42936</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="35">
+      <c r="A169" s="34">
         <v>42937</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="35">
+      <c r="A170" s="34">
         <v>42938</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="35">
+      <c r="A171" s="34">
         <v>42939</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="35">
+      <c r="A172" s="34">
         <v>42940</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="35">
+      <c r="A173" s="34">
         <v>42941</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="35">
+      <c r="A174" s="34">
         <v>42942</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="35">
+      <c r="A175" s="34">
         <v>42943</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="35">
+      <c r="A176" s="34">
         <v>42944</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="35">
+      <c r="A177" s="34">
         <v>42945</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="35">
+      <c r="A178" s="34">
         <v>42946</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="35">
+      <c r="A179" s="34">
         <v>42947</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="35">
+      <c r="A180" s="34">
         <v>42948</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="35">
+      <c r="A181" s="34">
         <v>42949</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="35">
+      <c r="A182" s="34">
         <v>42950</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="35">
+      <c r="A183" s="34">
         <v>42951</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="35">
+      <c r="A184" s="34">
         <v>42952</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="35">
+      <c r="A185" s="34">
         <v>42953</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="35">
+      <c r="A186" s="34">
         <v>42954</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="35">
+      <c r="A187" s="34">
         <v>42955</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="35">
+      <c r="A188" s="34">
         <v>42956</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="35">
+      <c r="A189" s="34">
         <v>42957</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="35">
+      <c r="A190" s="34">
         <v>42958</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="35">
+      <c r="A191" s="34">
         <v>42959</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="35">
+      <c r="A192" s="34">
         <v>42960</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="35">
+      <c r="A193" s="34">
         <v>42961</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="35">
+      <c r="A194" s="34">
         <v>42962</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="35">
+      <c r="A195" s="34">
         <v>42963</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="35">
+      <c r="A196" s="34">
         <v>42964</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="35">
+      <c r="A197" s="34">
         <v>42965</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="35">
+      <c r="A198" s="34">
         <v>42966</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="35">
+      <c r="A199" s="34">
         <v>42967</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="35">
+      <c r="A200" s="34">
         <v>42968</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="35">
+      <c r="A201" s="34">
         <v>42969</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="35">
+      <c r="A202" s="34">
         <v>42970</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="35">
+      <c r="A203" s="34">
         <v>42971</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="35">
+      <c r="A204" s="34">
         <v>42972</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" s="35">
+      <c r="A205" s="34">
         <v>42973</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" s="35">
+      <c r="A206" s="34">
         <v>42974</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" s="35">
+      <c r="A207" s="34">
         <v>42975</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" s="35">
+      <c r="A208" s="34">
         <v>42976</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" s="35">
+      <c r="A209" s="34">
         <v>42977</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" s="35">
+      <c r="A210" s="34">
         <v>42978</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" s="35">
+      <c r="A211" s="34">
         <v>42979</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" s="35">
+      <c r="A212" s="34">
         <v>42980</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" s="35">
+      <c r="A213" s="34">
         <v>42981</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" s="35">
+      <c r="A214" s="34">
         <v>42982</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" s="35">
+      <c r="A215" s="34">
         <v>42983</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" s="35">
+      <c r="A216" s="34">
         <v>42984</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" s="35">
+      <c r="A217" s="34">
         <v>42985</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" s="35">
+      <c r="A218" s="34">
         <v>42986</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" s="35">
+      <c r="A219" s="34">
         <v>42987</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" s="35">
+      <c r="A220" s="34">
         <v>42988</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" s="35">
+      <c r="A221" s="34">
         <v>42989</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" s="35">
+      <c r="A222" s="34">
         <v>42990</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" s="35">
+      <c r="A223" s="34">
         <v>42991</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" s="35">
+      <c r="A224" s="34">
         <v>42992</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" s="35">
+      <c r="A225" s="34">
         <v>42993</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" s="35">
+      <c r="A226" s="34">
         <v>42994</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" s="35">
+      <c r="A227" s="34">
         <v>42995</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" s="35">
+      <c r="A228" s="34">
         <v>42996</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" s="35">
+      <c r="A229" s="34">
         <v>42997</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" s="35">
+      <c r="A230" s="34">
         <v>42998</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" s="35">
+      <c r="A231" s="34">
         <v>42999</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" s="35">
+      <c r="A232" s="34">
         <v>43000</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" s="35">
+      <c r="A233" s="34">
         <v>43001</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" s="35">
+      <c r="A234" s="34">
         <v>43002</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" s="35">
+      <c r="A235" s="34">
         <v>43003</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" s="35">
+      <c r="A236" s="34">
         <v>43004</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" s="35">
+      <c r="A237" s="34">
         <v>43005</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" s="35">
+      <c r="A238" s="34">
         <v>43006</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" s="35">
+      <c r="A239" s="34">
         <v>43007</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" s="35">
+      <c r="A240" s="34">
         <v>43008</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" s="35">
+      <c r="A241" s="34">
         <v>43009</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" s="35">
+      <c r="A242" s="34">
         <v>43010</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" s="35">
+      <c r="A243" s="34">
         <v>43011</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" s="35">
+      <c r="A244" s="34">
         <v>43012</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" s="35">
+      <c r="A245" s="34">
         <v>43013</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" s="35">
+      <c r="A246" s="34">
         <v>43014</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" s="35">
+      <c r="A247" s="34">
         <v>43015</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" s="35">
+      <c r="A248" s="34">
         <v>43016</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" s="35">
+      <c r="A249" s="34">
         <v>43017</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" s="35">
+      <c r="A250" s="34">
         <v>43018</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" s="35">
+      <c r="A251" s="34">
         <v>43019</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" s="35">
+      <c r="A252" s="34">
         <v>43020</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" s="35">
+      <c r="A253" s="34">
         <v>43021</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" s="35">
+      <c r="A254" s="34">
         <v>43022</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" s="35">
+      <c r="A255" s="34">
         <v>43023</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" s="35">
+      <c r="A256" s="34">
         <v>43024</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" s="35">
+      <c r="A257" s="34">
         <v>43025</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" s="35">
+      <c r="A258" s="34">
         <v>43026</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" s="35">
+      <c r="A259" s="34">
         <v>43027</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" s="35">
+      <c r="A260" s="34">
         <v>43028</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" s="35">
+      <c r="A261" s="34">
         <v>43029</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" s="35">
+      <c r="A262" s="34">
         <v>43030</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" s="35">
+      <c r="A263" s="34">
         <v>43031</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" s="35">
+      <c r="A264" s="34">
         <v>43032</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" s="35">
+      <c r="A265" s="34">
         <v>43033</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" s="35">
+      <c r="A266" s="34">
         <v>43034</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" s="35">
+      <c r="A267" s="34">
         <v>43035</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" s="35">
+      <c r="A268" s="34">
         <v>43036</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" s="35">
+      <c r="A269" s="34">
         <v>43037</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" s="35">
+      <c r="A270" s="34">
         <v>43038</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" s="35">
+      <c r="A271" s="34">
         <v>43039</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" s="35">
+      <c r="A272" s="34">
         <v>43040</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" s="35">
+      <c r="A273" s="34">
         <v>43041</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" s="35">
+      <c r="A274" s="34">
         <v>43042</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" s="35">
+      <c r="A275" s="34">
         <v>43043</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" s="35">
+      <c r="A276" s="34">
         <v>43044</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" s="35">
+      <c r="A277" s="34">
         <v>43045</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" s="35">
+      <c r="A278" s="34">
         <v>43046</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" s="35">
+      <c r="A279" s="34">
         <v>43047</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" s="35">
+      <c r="A280" s="34">
         <v>43048</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" s="35">
+      <c r="A281" s="34">
         <v>43049</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" s="35">
+      <c r="A282" s="34">
         <v>43050</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" s="35">
+      <c r="A283" s="34">
         <v>43051</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" s="35">
+      <c r="A284" s="34">
         <v>43052</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" s="35">
+      <c r="A285" s="34">
         <v>43053</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" s="35">
+      <c r="A286" s="34">
         <v>43054</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" s="35">
+      <c r="A287" s="34">
         <v>43055</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" s="35">
+      <c r="A288" s="34">
         <v>43056</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" s="35">
+      <c r="A289" s="34">
         <v>43057</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" s="35">
+      <c r="A290" s="34">
         <v>43058</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="35">
+      <c r="A291" s="34">
         <v>43059</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="35">
+      <c r="A292" s="34">
         <v>43060</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="35">
+      <c r="A293" s="34">
         <v>43061</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="35">
+      <c r="A294" s="34">
         <v>43062</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="35">
+      <c r="A295" s="34">
         <v>43063</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="35">
+      <c r="A296" s="34">
         <v>43064</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="35">
+      <c r="A297" s="34">
         <v>43065</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="35">
+      <c r="A298" s="34">
         <v>43066</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="35">
+      <c r="A299" s="34">
         <v>43067</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="35">
+      <c r="A300" s="34">
         <v>43068</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A301" s="35">
+      <c r="A301" s="34">
         <v>43069</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A302" s="35">
+      <c r="A302" s="34">
         <v>43070</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A303" s="35">
+      <c r="A303" s="34">
         <v>43071</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" s="35">
+      <c r="A304" s="34">
         <v>43072</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" s="35">
+      <c r="A305" s="34">
         <v>43073</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A306" s="35">
+      <c r="A306" s="34">
         <v>43074</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" s="35">
+      <c r="A307" s="34">
         <v>43075</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A308" s="35">
+      <c r="A308" s="34">
         <v>43076</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A309" s="35">
+      <c r="A309" s="34">
         <v>43077</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A310" s="35">
+      <c r="A310" s="34">
         <v>43078</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A311" s="35">
+      <c r="A311" s="34">
         <v>43079</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A312" s="35">
+      <c r="A312" s="34">
         <v>43080</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A313" s="35">
+      <c r="A313" s="34">
         <v>43081</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A314" s="35">
+      <c r="A314" s="34">
         <v>43082</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A315" s="35">
+      <c r="A315" s="34">
         <v>43083</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A316" s="35">
+      <c r="A316" s="34">
         <v>43084</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A317" s="35">
+      <c r="A317" s="34">
         <v>43085</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A318" s="35">
+      <c r="A318" s="34">
         <v>43086</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A319" s="35">
+      <c r="A319" s="34">
         <v>43087</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" s="35">
+      <c r="A320" s="34">
         <v>43088</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A321" s="35">
+      <c r="A321" s="34">
         <v>43089</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A322" s="35">
+      <c r="A322" s="34">
         <v>43090</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A323" s="35">
+      <c r="A323" s="34">
         <v>43091</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A324" s="35">
+      <c r="A324" s="34">
         <v>43092</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" s="35">
+      <c r="A325" s="34">
         <v>43093</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A326" s="35">
+      <c r="A326" s="34">
         <v>43094</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A327" s="35">
+      <c r="A327" s="34">
         <v>43095</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A328" s="35">
+      <c r="A328" s="34">
         <v>43096</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A329" s="35"/>
+      <c r="A329" s="34"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A330" s="35"/>
+      <c r="A330" s="34"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A331" s="35"/>
+      <c r="A331" s="34"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A332" s="35"/>
+      <c r="A332" s="34"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A333" s="35"/>
+      <c r="A333" s="34"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A334" s="35"/>
+      <c r="A334" s="34"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A335" s="35"/>
+      <c r="A335" s="34"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A336" s="35"/>
+      <c r="A336" s="34"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A337" s="35"/>
+      <c r="A337" s="34"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A338" s="35"/>
+      <c r="A338" s="34"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A339" s="35"/>
+      <c r="A339" s="34"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A340" s="35"/>
+      <c r="A340" s="34"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A341" s="35"/>
+      <c r="A341" s="34"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A342" s="35"/>
+      <c r="A342" s="34"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A343" s="35"/>
+      <c r="A343" s="34"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A344" s="35"/>
+      <c r="A344" s="34"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A345" s="35"/>
+      <c r="A345" s="34"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A346" s="35"/>
+      <c r="A346" s="34"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A347" s="35"/>
+      <c r="A347" s="34"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A348" s="35"/>
+      <c r="A348" s="34"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A349" s="35"/>
+      <c r="A349" s="34"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A350" s="35"/>
+      <c r="A350" s="34"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A351" s="35"/>
+      <c r="A351" s="34"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A352" s="35"/>
+      <c r="A352" s="34"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A353" s="35"/>
+      <c r="A353" s="34"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" s="35"/>
+      <c r="A354" s="34"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A355" s="35"/>
+      <c r="A355" s="34"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A356" s="35"/>
+      <c r="A356" s="34"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A357" s="35"/>
+      <c r="A357" s="34"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A358" s="35"/>
+      <c r="A358" s="34"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A359" s="35"/>
+      <c r="A359" s="34"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A360" s="35"/>
+      <c r="A360" s="34"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A361" s="35"/>
+      <c r="A361" s="34"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A362" s="35"/>
+      <c r="A362" s="34"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A363" s="35"/>
+      <c r="A363" s="34"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A364" s="35"/>
+      <c r="A364" s="34"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A365" s="35"/>
+      <c r="A365" s="34"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A366" s="35"/>
+      <c r="A366" s="34"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A367" s="35"/>
+      <c r="A367" s="34"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A368" s="35"/>
+      <c r="A368" s="34"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A369" s="35"/>
+      <c r="A369" s="34"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" s="35"/>
+      <c r="A370" s="34"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A371" s="35"/>
+      <c r="A371" s="34"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A372" s="35"/>
+      <c r="A372" s="34"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A373" s="35"/>
+      <c r="A373" s="34"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A374" s="35"/>
+      <c r="A374" s="34"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A375" s="35"/>
+      <c r="A375" s="34"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A376" s="35"/>
+      <c r="A376" s="34"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A377" s="35"/>
+      <c r="A377" s="34"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A378" s="35"/>
+      <c r="A378" s="34"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A379" s="35"/>
+      <c r="A379" s="34"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A380" s="35"/>
+      <c r="A380" s="34"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A381" s="35"/>
+      <c r="A381" s="34"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A382" s="35"/>
+      <c r="A382" s="34"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A383" s="35"/>
+      <c r="A383" s="34"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" s="35"/>
+      <c r="A384" s="34"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A385" s="35"/>
+      <c r="A385" s="34"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A386" s="35"/>
+      <c r="A386" s="34"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A387" s="35"/>
+      <c r="A387" s="34"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A388" s="35"/>
+      <c r="A388" s="34"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A389" s="35"/>
+      <c r="A389" s="34"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A390" s="35"/>
+      <c r="A390" s="34"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A391" s="35"/>
+      <c r="A391" s="34"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A392" s="35"/>
+      <c r="A392" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A300">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>($A1&lt;$C$1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$A1=$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -17,7 +17,6 @@
     <sheet name="列表" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -726,7 +725,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="7">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -747,98 +746,6 @@
           </stop>
           <stop position="1">
             <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
           </stop>
         </gradientFill>
       </fill>
@@ -1999,6 +1906,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44380.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44383.682448589192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3071,7 +2981,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
@@ -3102,7 +3012,7 @@
       <c r="C2" s="44"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42775</v>
+        <v>42778</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3131,11 +3041,11 @@
       <c r="C3" s="44"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.86111655092827277</v>
+        <v>0.73757789351657266</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3143,11 +3053,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3156,7 +3066,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44380.682448589192</v>
+        <v>44383.682448589192</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -3654,23 +3564,23 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F5:G42">
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$A5&lt;$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C42">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>($A5&lt;$D$2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>($A5=$D$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E42">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>($A5&lt;$D$2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>($A$5=$D$2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4598,7 +4508,7 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4617,7 +4527,7 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42775</v>
+        <v>42778</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -4693,6 +4603,9 @@
       <c r="A10" s="34">
         <v>42778</v>
       </c>
+      <c r="B10" s="36">
+        <v>44383.682448589192</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="34">
@@ -6479,10 +6392,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A300">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>($A1&lt;$C$1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1=$C$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>日期</t>
   </si>
@@ -327,6 +327,23 @@
   </si>
   <si>
     <t>个人网站上线连接成功！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> how to learn：week2</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1909,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44383.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44388.682448589192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2981,7 +3001,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
@@ -3012,7 +3032,7 @@
       <c r="C2" s="44"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42778</v>
+        <v>42783</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3041,11 +3061,11 @@
       <c r="C3" s="44"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.73757789351657266</v>
+        <v>0.62461087963311002</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3053,11 +3073,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3066,7 +3086,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44383.682448589192</v>
+        <v>44388.682448589192</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -3465,6 +3485,9 @@
         <v>星期四</v>
       </c>
       <c r="D33" s="10"/>
+      <c r="F33" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -3594,7 +3617,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -4508,7 +4531,7 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4527,7 +4550,7 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42778</v>
+        <v>42783</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -4630,6 +4653,9 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="34">
         <v>42783</v>
+      </c>
+      <c r="B15" s="36">
+        <v>44388.682448589192</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">         分析</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         代数</t>
   </si>
   <si>
     <t xml:space="preserve">         几何</t>
@@ -344,6 +341,10 @@
       </rPr>
       <t xml:space="preserve"> how to learn：week2</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         代数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3038,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -3061,7 +3062,7 @@
       <c r="C3" s="44"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.62461087963311002</v>
+        <v>0.89194780092657311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3280,7 +3281,7 @@
         <v>星期五</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -3298,7 +3299,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="F21" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3315,7 +3316,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="F22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -3331,10 +3332,10 @@
         <v>星期一</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -3351,7 +3352,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="F24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -3367,10 +3368,10 @@
         <v>星期三</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -3386,10 +3387,10 @@
         <v>星期四</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -3486,7 +3487,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -3576,7 +3577,7 @@
         <v>42789</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3616,9 +3617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3631,7 +3632,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>13</v>
@@ -3640,13 +3641,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3667,7 +3668,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3688,7 +3689,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3709,7 +3710,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3730,7 +3731,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3787,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -3813,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="25">
         <v>15</v>
@@ -3831,7 +3832,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="25">
         <v>15</v>
@@ -3849,7 +3850,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="25">
         <v>15</v>
@@ -3975,7 +3976,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="32">
         <f>16*7</f>
@@ -4099,7 +4100,7 @@
         <v>4.9019607843137258</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4193,7 +4194,7 @@
         <v>16.780487804878049</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4201,7 +4202,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C31" s="25">
         <v>20</v>
@@ -4219,7 +4220,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="25">
         <v>10</v>
@@ -4237,7 +4238,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="25">
         <v>30</v>
@@ -4255,7 +4256,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="25">
         <v>30</v>
@@ -4273,7 +4274,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="25">
         <v>26</v>
@@ -4291,7 +4292,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="25">
         <v>30</v>
@@ -4309,7 +4310,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="25">
         <v>30</v>
@@ -4327,7 +4328,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="25">
         <v>30</v>
@@ -4345,7 +4346,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="25">
         <v>30</v>
@@ -4363,7 +4364,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="25">
         <v>30</v>
@@ -4381,7 +4382,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="25">
         <v>30</v>
@@ -4399,7 +4400,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="25">
         <v>30</v>
@@ -4417,7 +4418,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="25">
         <v>30</v>
@@ -4435,7 +4436,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="25">
         <v>10</v>
@@ -4453,7 +4454,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="25">
         <v>20</v>
@@ -4468,7 +4469,7 @@
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="25">
         <v>20</v>
@@ -4480,7 +4481,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25">
         <v>20</v>
@@ -4492,7 +4493,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="25">
         <v>20</v>
@@ -4507,7 +4508,7 @@
         <v>65</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="29">
         <v>60</v>
@@ -4530,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4543,10 +4544,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -1930,6 +1930,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44388.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44389.682448589192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3036,7 @@
       <c r="C2" s="44"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42783</v>
+        <v>42784</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3062,11 +3065,11 @@
       <c r="C3" s="44"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.89194780092657311</v>
+        <v>0.81293645833648043</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3087,7 +3090,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44388.682448589192</v>
+        <v>44389.682448589192</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -3617,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
@@ -4531,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4551,7 +4554,7 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42783</v>
+        <v>42784</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -4662,6 +4665,9 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
         <v>42784</v>
+      </c>
+      <c r="B16" s="36">
+        <v>44389.682448589192</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -589,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +720,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,7 +850,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1933,6 +1935,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44389.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44390.682448589192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,19 +3029,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42784</v>
+        <v>42785</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3058,18 +3063,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.81293645833648043</v>
+        <v>0.58097708333662013</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3077,11 +3082,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3090,7 +3095,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44389.682448589192</v>
+        <v>44390.682448589192</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4534,15 +4539,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="36" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -4554,9 +4560,11 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42784</v>
-      </c>
-      <c r="D1" s="34"/>
+        <v>42785</v>
+      </c>
+      <c r="D1" s="39">
+        <v>17</v>
+      </c>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -4573,6 +4581,7 @@
       <c r="B2" s="36">
         <v>44315.682448589192</v>
       </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
@@ -4581,6 +4590,7 @@
       <c r="B3" s="37">
         <v>44376.682448589192</v>
       </c>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
@@ -4590,6 +4600,7 @@
         <f>B3</f>
         <v>44376.682448589192</v>
       </c>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
@@ -4599,6 +4610,7 @@
         <f t="shared" ref="B5" si="0">B4</f>
         <v>44376.682448589192</v>
       </c>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -4607,6 +4619,7 @@
       <c r="B6" s="36">
         <v>44379.682448589192</v>
       </c>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
@@ -4615,16 +4628,19 @@
       <c r="B7" s="36">
         <v>44380.682448589192</v>
       </c>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
         <v>42776</v>
       </c>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
         <v>42777</v>
       </c>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="34">
@@ -4633,26 +4649,31 @@
       <c r="B10" s="36">
         <v>44383.682448589192</v>
       </c>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="34">
         <v>42779</v>
       </c>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="34">
         <v>42780</v>
       </c>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="34">
         <v>42781</v>
       </c>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="34">
         <v>42782</v>
       </c>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="34">
@@ -4661,6 +4682,7 @@
       <c r="B15" s="36">
         <v>44388.682448589192</v>
       </c>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
@@ -4669,83 +4691,93 @@
       <c r="B16" s="36">
         <v>44389.682448589192</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C16" s="39"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="34">
         <v>42785</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="36">
+        <v>44390.682448589192</v>
+      </c>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="34">
         <v>42786</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C18" s="39"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="34">
         <v>42787</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="34">
         <v>42788</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C20" s="39"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="34">
         <v>42789</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C21" s="39"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="34">
         <v>42790</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C22" s="39"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="34">
         <v>42791</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="34">
         <v>42792</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="34">
         <v>42793</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="34">
         <v>42794</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="34">
         <v>42795</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="34">
         <v>42796</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="34">
         <v>42797</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="34">
         <v>42798</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="34">
         <v>42799</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="34">
         <v>42800</v>
       </c>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -3070,7 +3070,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.58097708333662013</v>
+        <v>0.58478171296155779</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -3070,7 +3070,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.58478171296155779</v>
+        <v>0.58552222222351702</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -3070,7 +3070,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.58552222222351702</v>
+        <v>0.59045532407617429</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>日期</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t xml:space="preserve">         代数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">learning how to learn:week4(全部完成)
+整理笔记：数学
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3009,11 +3015,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3070,7 +3076,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.59045532407617429</v>
+        <v>0.91668182870489545</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3524,7 +3530,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>42785</v>
       </c>
@@ -3538,7 +3544,9 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
@@ -4539,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -1943,6 +1943,9 @@
                   <c:v>44389.682448589192</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>44390.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>44390.682448589192</c:v>
                 </c:pt>
               </c:numCache>
@@ -3047,7 +3050,7 @@
       <c r="C2" s="45"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42785</v>
+        <v>42786</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3076,11 +3079,11 @@
       <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668182870489545</v>
+        <v>0.91668472222227138</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3088,11 +3091,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3101,7 +3104,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44390.682448589192</v>
+        <v>44391.682448589192</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4568,7 +4571,7 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42785</v>
+        <v>42786</v>
       </c>
       <c r="D1" s="39">
         <v>17</v>
@@ -4713,6 +4716,9 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="34">
         <v>42786</v>
+      </c>
+      <c r="B18" s="36">
+        <v>44390.682448589192</v>
       </c>
       <c r="C18" s="39"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -13,15 +13,20 @@
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
-    <sheet name="学习任务" sheetId="11" r:id="rId2"/>
-    <sheet name="列表" sheetId="14" r:id="rId3"/>
+    <sheet name="3月" sheetId="15" r:id="rId2"/>
+    <sheet name="4月" sheetId="16" r:id="rId3"/>
+    <sheet name="5月 " sheetId="19" r:id="rId4"/>
+    <sheet name="6月" sheetId="20" r:id="rId5"/>
+    <sheet name="7月" sheetId="21" r:id="rId6"/>
+    <sheet name="学习任务" sheetId="11" r:id="rId7"/>
+    <sheet name="列表" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -242,10 +247,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最后一天班</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第一天班</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -351,6 +352,22 @@
     <t xml:space="preserve">learning how to learn:week4(全部完成)
 整理笔记：数学
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>井冈山</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印准考证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +769,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="32">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -775,6 +792,236 @@
             <color theme="4"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="135">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="135">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="135">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="135">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="135">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF00B050"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1947,6 +2194,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44390.682448589192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44391.706838833095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,10 +3269,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3050,7 +3300,7 @@
       <c r="C2" s="45"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42786</v>
+        <v>42787</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3079,23 +3329,23 @@
       <c r="C3" s="45"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668472222227138</v>
+        <v>0.44393530092929723</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1605.6824485891918</v>
+        <v>1604.7068388330943</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-24</v>
+        <v>53</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3104,10 +3354,10 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.682448589192</v>
+        <v>44391.706838833095</v>
       </c>
       <c r="G4" s="16">
-        <v>42762</v>
+        <v>42840</v>
       </c>
       <c r="H4" s="16">
         <v>43006</v>
@@ -3298,7 +3548,7 @@
         <v>星期五</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -3316,7 +3566,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="F21" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3333,7 +3583,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="F22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -3349,10 +3599,10 @@
         <v>星期一</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -3369,7 +3619,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="F24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -3385,10 +3635,10 @@
         <v>星期三</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -3404,10 +3654,10 @@
         <v>星期四</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -3504,7 +3754,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -3548,7 +3798,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -3595,9 +3845,3114 @@
       <c r="A40" s="2">
         <v>42789</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="D40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G42">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
+      <formula>$A5&lt;$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C42">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
+      <formula>($A5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E42">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="2">
+      <formula>($A$5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="38">
+        <f ca="1">ROUNDDOWN(NOW(),0)</f>
+        <v>42787</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="9">
+        <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
+        <v>0.44393530092929723</v>
+      </c>
+      <c r="E3" s="17">
+        <f ca="1">E4-$D$2</f>
+        <v>794</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(学习任务!E:E)</f>
+        <v>1604.7068388330943</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
+        <v>-25</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <v>43581</v>
+      </c>
+      <c r="F4" s="15">
+        <f ca="1">$D$2+F3</f>
+        <v>44391.706838833095</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42762</v>
+      </c>
+      <c r="H4" s="16">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42790</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B37" si="1">WEEKNUM(A10)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" ref="C10:C37" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
+        <v>星期五</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42791</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42792</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42793</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>42796</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>42797</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>42798</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>42799</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>42800</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>42801</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>42802</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>42803</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>42804</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>42805</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>42806</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>42807</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>42808</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>42809</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>42810</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>42811</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>42812</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>42813</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>42814</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>42815</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>42816</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>42817</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G42">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+      <formula>$A5&lt;$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C42">
+    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
+      <formula>($A5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E42">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>($A$5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="38">
+        <f ca="1">ROUNDDOWN(NOW(),0)</f>
+        <v>42787</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="9">
+        <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
+        <v>0.44393530092929723</v>
+      </c>
+      <c r="E3" s="17">
+        <f ca="1">E4-$D$2</f>
+        <v>794</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(学习任务!E:E)</f>
+        <v>1604.7068388330943</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
+        <v>-25</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <v>43581</v>
+      </c>
+      <c r="F4" s="15">
+        <f ca="1">$D$2+F3</f>
+        <v>44391.706838833095</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42762</v>
+      </c>
+      <c r="H4" s="16">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42818</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B39" si="1">WEEKNUM(A10)</f>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
+        <v>星期五</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <f>A10+1</f>
+        <v>42819</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <f t="shared" ref="A12:A39" si="3">A11+1</f>
+        <v>42820</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <f t="shared" si="3"/>
+        <v>42821</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <f t="shared" si="3"/>
+        <v>42822</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <f t="shared" si="3"/>
+        <v>42823</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <f t="shared" si="3"/>
+        <v>42824</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <f t="shared" si="3"/>
+        <v>42825</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f t="shared" si="3"/>
+        <v>42826</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <f t="shared" si="3"/>
+        <v>42827</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <f t="shared" si="3"/>
+        <v>42828</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <f t="shared" si="3"/>
+        <v>42829</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <f t="shared" si="3"/>
+        <v>42830</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <f t="shared" si="3"/>
+        <v>42831</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <f t="shared" si="3"/>
+        <v>42832</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <f t="shared" si="3"/>
+        <v>42833</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <f t="shared" si="3"/>
+        <v>42834</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <f t="shared" si="3"/>
+        <v>42835</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <f t="shared" si="3"/>
+        <v>42836</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <f t="shared" si="3"/>
+        <v>42837</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <f t="shared" si="3"/>
+        <v>42838</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>42839</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>42840</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>42841</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>42842</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>42843</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <f t="shared" si="3"/>
+        <v>42844</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>42845</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <f t="shared" si="3"/>
+        <v>42846</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>42847</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <f>A39+1</f>
+        <v>42848</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G42">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+      <formula>$A5&lt;$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C42">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>($A5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E42">
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>($A$5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="38">
+        <f ca="1">ROUNDDOWN(NOW(),0)</f>
+        <v>42787</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="9">
+        <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
+        <v>0.44393530092929723</v>
+      </c>
+      <c r="E3" s="17">
+        <f ca="1">E4-$D$2</f>
+        <v>794</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(学习任务!E:E)</f>
+        <v>1604.7068388330943</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
+        <v>-25</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <v>43581</v>
+      </c>
+      <c r="F4" s="15">
+        <f ca="1">$D$2+F3</f>
+        <v>44391.706838833095</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42762</v>
+      </c>
+      <c r="H4" s="16">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42849</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B39" si="1">WEEKNUM(A10)</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
+        <v>星期一</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <f>A10+1</f>
+        <v>42850</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <f t="shared" ref="A12:A39" si="3">A11+1</f>
+        <v>42851</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <f t="shared" si="3"/>
+        <v>42852</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <f t="shared" si="3"/>
+        <v>42853</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <f t="shared" si="3"/>
+        <v>42854</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <f t="shared" si="3"/>
+        <v>42855</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <f t="shared" si="3"/>
+        <v>42856</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f t="shared" si="3"/>
+        <v>42857</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <f t="shared" si="3"/>
+        <v>42858</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <f t="shared" si="3"/>
+        <v>42859</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <f t="shared" si="3"/>
+        <v>42860</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <f t="shared" si="3"/>
+        <v>42861</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <f t="shared" si="3"/>
+        <v>42862</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <f t="shared" si="3"/>
+        <v>42863</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <f t="shared" si="3"/>
+        <v>42864</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <f t="shared" si="3"/>
+        <v>42865</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <f t="shared" si="3"/>
+        <v>42866</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <f t="shared" si="3"/>
+        <v>42867</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <f t="shared" si="3"/>
+        <v>42868</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <f t="shared" si="3"/>
+        <v>42869</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>42870</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>42871</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>42872</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>42873</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>42874</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <f t="shared" si="3"/>
+        <v>42875</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>42876</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <f t="shared" si="3"/>
+        <v>42877</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>42878</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G42">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+      <formula>$A5&lt;$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C42">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+      <formula>($A5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E42">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>($A$5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="38">
+        <f ca="1">ROUNDDOWN(NOW(),0)</f>
+        <v>42787</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="9">
+        <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
+        <v>0.44393530092929723</v>
+      </c>
+      <c r="E3" s="17">
+        <f ca="1">E4-$D$2</f>
+        <v>794</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(学习任务!E:E)</f>
+        <v>1604.7068388330943</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
+        <v>-25</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <v>43581</v>
+      </c>
+      <c r="F4" s="15">
+        <f ca="1">$D$2+F3</f>
+        <v>44391.706838833095</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42762</v>
+      </c>
+      <c r="H4" s="16">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42879</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B39" si="1">WEEKNUM(A10)</f>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
+        <v>星期三</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <f>A10+1</f>
+        <v>42880</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <f t="shared" ref="A12:A39" si="3">A11+1</f>
+        <v>42881</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <f t="shared" si="3"/>
+        <v>42882</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <f t="shared" si="3"/>
+        <v>42883</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <f t="shared" si="3"/>
+        <v>42884</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <f t="shared" si="3"/>
+        <v>42885</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <f t="shared" si="3"/>
+        <v>42886</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f t="shared" si="3"/>
+        <v>42887</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <f t="shared" si="3"/>
+        <v>42888</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <f t="shared" si="3"/>
+        <v>42889</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <f t="shared" si="3"/>
+        <v>42890</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <f t="shared" si="3"/>
+        <v>42891</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <f t="shared" si="3"/>
+        <v>42892</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <f t="shared" si="3"/>
+        <v>42893</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <f t="shared" si="3"/>
+        <v>42894</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <f t="shared" si="3"/>
+        <v>42895</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <f t="shared" si="3"/>
+        <v>42896</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <f t="shared" si="3"/>
+        <v>42897</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <f t="shared" si="3"/>
+        <v>42898</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <f t="shared" si="3"/>
+        <v>42899</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>42900</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>42901</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>42902</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>42903</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>42904</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <f t="shared" si="3"/>
+        <v>42905</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>42906</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <f t="shared" si="3"/>
+        <v>42907</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>42908</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <f t="shared" ref="A40" si="4">A39+1</f>
+        <v>42909</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" ref="B40" si="5">WEEKNUM(A40)</f>
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" ref="C40" si="6">TEXT(WEEKDAY(A40),"aaaa")</f>
+        <v>星期五</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G42">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>$A5&lt;$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C42">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>($A5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E42">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>($A5&lt;$D$2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>($A$5=$D$2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="38">
+        <f ca="1">ROUNDDOWN(NOW(),0)</f>
+        <v>42787</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="9">
+        <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
+        <v>0.44393530092929723</v>
+      </c>
+      <c r="E3" s="17">
+        <f ca="1">E4-$D$2</f>
+        <v>794</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(学习任务!E:E)</f>
+        <v>1604.7068388330943</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
+        <v>-25</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <v>43581</v>
+      </c>
+      <c r="F4" s="15">
+        <f ca="1">$D$2+F3</f>
+        <v>44391.706838833095</v>
+      </c>
+      <c r="G4" s="16">
+        <v>42762</v>
+      </c>
+      <c r="H4" s="16">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42910</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B39" si="1">WEEKNUM(A10)</f>
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
+        <v>星期六</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <f>A10+1</f>
+        <v>42911</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <f t="shared" ref="A12:A39" si="3">A11+1</f>
+        <v>42912</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <f t="shared" si="3"/>
+        <v>42913</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <f t="shared" si="3"/>
+        <v>42914</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <f t="shared" si="3"/>
+        <v>42915</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <f t="shared" si="3"/>
+        <v>42916</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <f t="shared" si="3"/>
+        <v>42917</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <f t="shared" si="3"/>
+        <v>42918</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <f t="shared" si="3"/>
+        <v>42919</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <f t="shared" si="3"/>
+        <v>42920</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <f t="shared" si="3"/>
+        <v>42921</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <f t="shared" si="3"/>
+        <v>42922</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <f t="shared" si="3"/>
+        <v>42923</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <f t="shared" si="3"/>
+        <v>42924</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <f t="shared" si="3"/>
+        <v>42925</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <f t="shared" si="3"/>
+        <v>42926</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <f t="shared" si="3"/>
+        <v>42927</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <f t="shared" si="3"/>
+        <v>42928</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <f t="shared" si="3"/>
+        <v>42929</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <f t="shared" si="3"/>
+        <v>42930</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <f t="shared" si="3"/>
+        <v>42931</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <f t="shared" si="3"/>
+        <v>42932</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <f t="shared" si="3"/>
+        <v>42933</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期一</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <f t="shared" si="3"/>
+        <v>42934</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <f t="shared" si="3"/>
+        <v>42935</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期三</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <f t="shared" si="3"/>
+        <v>42936</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期四</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <f t="shared" si="3"/>
+        <v>42937</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期五</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <f t="shared" si="3"/>
+        <v>42938</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <f t="shared" si="3"/>
+        <v>42939</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3632,13 +6987,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4119,7 +7474,7 @@
         <v>4.9019607843137258</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4205,15 +7560,15 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <f>33/205</f>
-        <v>0.16097560975609757</v>
+        <f>43/205</f>
+        <v>0.2097560975609756</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>16.780487804878049</v>
+        <v>15.804878048780488</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4221,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="25">
         <v>20</v>
@@ -4488,7 +7843,7 @@
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="25">
         <v>20</v>
@@ -4500,7 +7855,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="25">
         <v>20</v>
@@ -4512,7 +7867,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25">
         <v>20</v>
@@ -4546,12 +7901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4564,14 +7919,14 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>72</v>
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42786</v>
+        <v>42787</v>
       </c>
       <c r="D1" s="39">
         <v>17</v>
@@ -4725,6 +8080,9 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="34">
         <v>42787</v>
+      </c>
+      <c r="B19" s="36">
+        <v>44391.706838833095</v>
       </c>
       <c r="C19" s="39"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>日期</t>
   </si>
@@ -370,6 +370,69 @@
     <t>精算师</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fu FB trading Basic I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD BK trading Basic I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J　 FB trading Basic II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biggie BK trading Basic II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sergio　 FB Team News Collecting and Usage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peter BK trading Basic III</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>　Leon Reading the MKT of FB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>　Frey BK Analysis Reports</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDA II Python</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a1. 数学分析刷了10页
+a2. Coursera之真格创业完成了1.4
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天10页分析
+50道精算师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +444,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +520,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -612,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,6 +836,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2196,7 +2279,7 @@
                   <c:v>44390.682448589192</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44391.706838833095</c:v>
+                  <c:v>44386.023912003824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,11 +3351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3282,22 +3365,23 @@
     <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42787</v>
@@ -3322,14 +3406,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.44393530092929723</v>
+        <v>0.91668611110799247</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3337,7 +3421,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1604.7068388330943</v>
+        <v>1599.0239120038259</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -3354,7 +3438,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -3815,7 +3899,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>42787</v>
       </c>
@@ -3826,6 +3910,9 @@
       <c r="C38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期二</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -3884,11 +3971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3903,17 +3990,19 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42787</v>
@@ -3938,14 +4027,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.44393530092929723</v>
+        <v>0.91668611110799247</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3953,7 +4042,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1604.7068388330943</v>
+        <v>1599.0239120038259</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -3970,7 +4059,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4056,6 +4145,12 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -4117,8 +4212,12 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
@@ -4163,7 +4262,12 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -4223,7 +4327,12 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -4268,6 +4377,12 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
+      <c r="D27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -4321,7 +4436,12 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -4362,6 +4482,12 @@
       <c r="C34" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期一</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -4448,10 +4574,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4467,16 +4593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42787</v>
@@ -4501,14 +4627,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.44393530092929723</v>
+        <v>0.91668611110799247</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4516,7 +4642,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1604.7068388330943</v>
+        <v>1599.0239120038259</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4533,7 +4659,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4576,6 +4702,12 @@
       <c r="C10" s="1" t="str">
         <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
         <v>星期五</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4706,7 +4838,7 @@
         <v>星期六</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
@@ -5145,16 +5277,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42787</v>
@@ -5179,14 +5311,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.44393530092929723</v>
+        <v>0.91668611110799247</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5194,7 +5326,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1604.7068388330943</v>
+        <v>1599.0239120038259</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5211,7 +5343,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5763,16 +5895,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42787</v>
@@ -5797,14 +5929,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.44393530092929723</v>
+        <v>0.91668611110799247</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5812,7 +5944,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1604.7068388330943</v>
+        <v>1599.0239120038259</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5829,7 +5961,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6393,16 +6525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42787</v>
@@ -6427,14 +6559,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.44393530092929723</v>
+        <v>0.91668611110799247</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6442,7 +6574,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1604.7068388330943</v>
+        <v>1599.0239120038259</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6459,7 +6591,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6992,8 +7124,8 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7539,14 +7671,15 @@
         <v>38</v>
       </c>
       <c r="C29" s="25">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <f>2/8</f>
+        <v>0.25</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -7560,12 +7693,12 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <f>43/205</f>
-        <v>0.2097560975609756</v>
+        <f>50/205</f>
+        <v>0.24390243902439024</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>15.804878048780488</v>
+        <v>15.121951219512194</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>69</v>
@@ -7905,7 +8038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -8082,7 +8215,7 @@
         <v>42787</v>
       </c>
       <c r="B19" s="36">
-        <v>44391.706838833095</v>
+        <v>44386.023912003824</v>
       </c>
       <c r="C19" s="39"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -2279,6 +2279,9 @@
                   <c:v>44390.682448589192</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>44386.023912003824</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>44386.023912003824</c:v>
                 </c:pt>
               </c:numCache>
@@ -3384,7 +3387,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3413,11 +3416,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668611110799247</v>
+        <v>0.38610555555351311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3438,7 +3441,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44386.023912003824</v>
+        <v>44387.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4005,7 +4008,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4034,11 +4037,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668611110799247</v>
+        <v>0.38610555555351311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -4059,7 +4062,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44386.023912003824</v>
+        <v>44387.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4605,7 +4608,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4634,11 +4637,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668611110799247</v>
+        <v>0.38610555555351311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -4659,7 +4662,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44386.023912003824</v>
+        <v>44387.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5289,7 +5292,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5318,11 +5321,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668611110799247</v>
+        <v>0.38610555555351311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5330,11 +5333,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -5343,7 +5346,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44386.023912003824</v>
+        <v>44387.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5907,7 +5910,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5936,11 +5939,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668611110799247</v>
+        <v>0.38610555555351311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5948,11 +5951,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -5961,7 +5964,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44386.023912003824</v>
+        <v>44387.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6537,7 +6540,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="38">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6566,11 +6569,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668611110799247</v>
+        <v>0.38610555555351311</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6578,11 +6581,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -6591,7 +6594,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44386.023912003824</v>
+        <v>44387.023912003824</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8059,7 +8062,7 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="D1" s="39">
         <v>17</v>
@@ -8222,6 +8225,9 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="34">
         <v>42788</v>
+      </c>
+      <c r="B20" s="36">
+        <v>44386.023912003824</v>
       </c>
       <c r="C20" s="39"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="6月" sheetId="20" r:id="rId5"/>
     <sheet name="7月" sheetId="21" r:id="rId6"/>
     <sheet name="学习任务" sheetId="11" r:id="rId7"/>
-    <sheet name="列表" sheetId="14" r:id="rId8"/>
+    <sheet name="任务分解" sheetId="22" r:id="rId8"/>
+    <sheet name="列表" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
   <si>
     <t>日期</t>
   </si>
@@ -433,6 +434,63 @@
 50道精算师</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>精算师数学1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师数学2</t>
+  </si>
+  <si>
+    <t>精算师数学3</t>
+  </si>
+  <si>
+    <t>精算师数学4</t>
+  </si>
+  <si>
+    <t>精算师数学5</t>
+  </si>
+  <si>
+    <t>精算师数学6</t>
+  </si>
+  <si>
+    <t>精算师数学7</t>
+  </si>
+  <si>
+    <t>精算师数学8</t>
+  </si>
+  <si>
+    <t>精算师数学9</t>
+  </si>
+  <si>
+    <t>精算师数学10</t>
+  </si>
+  <si>
+    <t>精算师数学11</t>
+  </si>
+  <si>
+    <t>精算师数学12</t>
+  </si>
+  <si>
+    <t>总共</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划20天内完成，每天50题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +502,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,13 +559,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -528,6 +579,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -774,9 +831,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,10 +843,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,6 +874,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,13 +895,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2282,7 +2339,7 @@
                   <c:v>44386.023912003824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44386.023912003824</c:v>
+                  <c:v>44418.771053045755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,7 +3418,7 @@
       <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
@@ -3374,18 +3431,18 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
@@ -3408,7 +3465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
@@ -3416,7 +3473,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38610555555351311</v>
+        <v>0.91668645833124174</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3424,7 +3481,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1599.0239120038259</v>
+        <v>1630.7710530457573</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -3435,13 +3492,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="E4" s="16">
         <v>43581</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44387.023912003824</v>
+        <v>44418.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -3450,7 +3507,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42759</v>
       </c>
@@ -3487,7 +3544,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>42760</v>
       </c>
@@ -3501,7 +3558,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>42761</v>
       </c>
@@ -3515,7 +3572,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>42762</v>
       </c>
@@ -3529,7 +3586,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>42763</v>
       </c>
@@ -3545,7 +3602,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>42764</v>
       </c>
@@ -3560,7 +3617,7 @@
       <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>42765</v>
       </c>
@@ -3576,7 +3633,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>42766</v>
       </c>
@@ -3593,7 +3650,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>42767</v>
       </c>
@@ -3608,7 +3665,7 @@
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>42768</v>
       </c>
@@ -3622,7 +3679,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>42769</v>
       </c>
@@ -3634,12 +3691,12 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>42770</v>
       </c>
@@ -3656,7 +3713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>42771</v>
       </c>
@@ -3673,7 +3730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>42772</v>
       </c>
@@ -3685,14 +3742,14 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>42773</v>
       </c>
@@ -3709,7 +3766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>42774</v>
       </c>
@@ -3728,7 +3785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>42775</v>
       </c>
@@ -3747,7 +3804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>42776</v>
       </c>
@@ -3760,7 +3817,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>42777</v>
       </c>
@@ -3774,7 +3831,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>42778</v>
       </c>
@@ -3787,7 +3844,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>42779</v>
       </c>
@@ -3800,7 +3857,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>42780</v>
       </c>
@@ -3814,7 +3871,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>42781</v>
       </c>
@@ -3827,7 +3884,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>42782</v>
       </c>
@@ -3844,7 +3901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>42783</v>
       </c>
@@ -3857,7 +3914,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>42784</v>
       </c>
@@ -3870,7 +3927,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="54">
       <c r="A36" s="2">
         <v>42785</v>
       </c>
@@ -3888,7 +3945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>42786</v>
       </c>
@@ -3902,7 +3959,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="40.5">
       <c r="A38" s="2">
         <v>42787</v>
       </c>
@@ -3918,7 +3975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>42788</v>
       </c>
@@ -3931,7 +3988,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>42789</v>
       </c>
@@ -3974,14 +4031,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
@@ -3993,20 +4050,20 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="42" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="49"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
@@ -4029,7 +4086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
@@ -4037,7 +4094,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38610555555351311</v>
+        <v>0.91668645833124174</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4045,7 +4102,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1599.0239120038259</v>
+        <v>1630.7710530457573</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4056,13 +4113,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="E4" s="16">
         <v>43581</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44387.023912003824</v>
+        <v>44418.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4071,7 +4128,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -4094,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42790</v>
       </c>
@@ -4108,7 +4165,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>42791</v>
       </c>
@@ -4122,7 +4179,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>42792</v>
       </c>
@@ -4136,7 +4193,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>42793</v>
       </c>
@@ -4156,7 +4213,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>42794</v>
       </c>
@@ -4172,7 +4229,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>42795</v>
       </c>
@@ -4187,7 +4244,7 @@
       <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>42796</v>
       </c>
@@ -4203,7 +4260,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>42797</v>
       </c>
@@ -4224,7 +4281,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>42798</v>
       </c>
@@ -4239,7 +4296,7 @@
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>42799</v>
       </c>
@@ -4253,7 +4310,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>42800</v>
       </c>
@@ -4265,7 +4322,7 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -4273,7 +4330,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>42801</v>
       </c>
@@ -4288,7 +4345,7 @@
       <c r="D21" s="12"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>42802</v>
       </c>
@@ -4303,7 +4360,7 @@
       <c r="D22" s="12"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>42803</v>
       </c>
@@ -4315,10 +4372,10 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>42804</v>
       </c>
@@ -4330,7 +4387,7 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>90</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -4338,7 +4395,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>42805</v>
       </c>
@@ -4353,7 +4410,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>42806</v>
       </c>
@@ -4368,7 +4425,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>42807</v>
       </c>
@@ -4387,7 +4444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>42808</v>
       </c>
@@ -4401,7 +4458,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>42809</v>
       </c>
@@ -4414,7 +4471,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>42810</v>
       </c>
@@ -4427,7 +4484,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>42811</v>
       </c>
@@ -4446,7 +4503,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>42812</v>
       </c>
@@ -4459,7 +4516,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>42813</v>
       </c>
@@ -4474,7 +4531,7 @@
       <c r="D33" s="10"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>42814</v>
       </c>
@@ -4493,7 +4550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>42815</v>
       </c>
@@ -4506,7 +4563,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>42816</v>
       </c>
@@ -4522,7 +4579,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>42817</v>
       </c>
@@ -4536,7 +4593,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="D40" s="10"/>
     </row>
   </sheetData>
@@ -4583,7 +4640,7 @@
       <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
@@ -4595,18 +4652,18 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
@@ -4629,7 +4686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
@@ -4637,7 +4694,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38610555555351311</v>
+        <v>0.91668645833124174</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4645,7 +4702,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1599.0239120038259</v>
+        <v>1630.7710530457573</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4656,13 +4713,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="E4" s="16">
         <v>43581</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44387.023912003824</v>
+        <v>44418.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4671,7 +4728,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -4694,7 +4751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42818</v>
       </c>
@@ -4714,7 +4771,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <f>A10+1</f>
         <v>42819</v>
@@ -4729,7 +4786,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A39" si="3">A11+1</f>
         <v>42820</v>
@@ -4744,7 +4801,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>42821</v>
@@ -4759,7 +4816,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>42822</v>
@@ -4776,7 +4833,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>42823</v>
@@ -4792,7 +4849,7 @@
       <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
         <v>42824</v>
@@ -4809,7 +4866,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>42825</v>
@@ -4827,7 +4884,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>42826</v>
@@ -4846,7 +4903,7 @@
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>42827</v>
@@ -4859,11 +4916,11 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>42828</v>
@@ -4876,10 +4933,10 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="32"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="24" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>42829</v>
@@ -4895,7 +4952,7 @@
       <c r="D21" s="12"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>42830</v>
@@ -4914,7 +4971,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>42831</v>
@@ -4927,10 +4984,10 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>42832</v>
@@ -4946,7 +5003,7 @@
       <c r="D24" s="13"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>42833</v>
@@ -4967,7 +5024,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>42834</v>
@@ -4988,7 +5045,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>42835</v>
@@ -5005,7 +5062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>42836</v>
@@ -5023,7 +5080,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>42837</v>
@@ -5040,7 +5097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>42838</v>
@@ -5057,7 +5114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>42839</v>
@@ -5073,7 +5130,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>42840</v>
@@ -5093,7 +5150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>42841</v>
@@ -5114,7 +5171,7 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>42842</v>
@@ -5131,7 +5188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>42843</v>
@@ -5148,7 +5205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>42844</v>
@@ -5167,7 +5224,7 @@
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>42845</v>
@@ -5185,7 +5242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <f t="shared" si="3"/>
         <v>42846</v>
@@ -5202,7 +5259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <f t="shared" si="3"/>
         <v>42847</v>
@@ -5216,7 +5273,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <f>A39+1</f>
         <v>42848</v>
@@ -5267,7 +5324,7 @@
       <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
@@ -5279,18 +5336,18 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
@@ -5313,7 +5370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5378,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38610555555351311</v>
+        <v>0.91668645833124174</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5329,7 +5386,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1599.0239120038259</v>
+        <v>1630.7710530457573</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5340,13 +5397,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="E4" s="16">
         <v>43581</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44387.023912003824</v>
+        <v>44418.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5355,7 +5412,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42849</v>
       </c>
@@ -5392,7 +5449,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <f>A10+1</f>
         <v>42850</v>
@@ -5407,7 +5464,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A39" si="3">A11+1</f>
         <v>42851</v>
@@ -5422,7 +5479,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>42852</v>
@@ -5437,7 +5494,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>42853</v>
@@ -5454,7 +5511,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>42854</v>
@@ -5470,7 +5527,7 @@
       <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
         <v>42855</v>
@@ -5487,7 +5544,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>42856</v>
@@ -5505,7 +5562,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>42857</v>
@@ -5521,7 +5578,7 @@
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>42858</v>
@@ -5536,7 +5593,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>42859</v>
@@ -5549,10 +5606,10 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="32"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>42860</v>
@@ -5568,7 +5625,7 @@
       <c r="D21" s="12"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>42861</v>
@@ -5584,7 +5641,7 @@
       <c r="D22" s="12"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>42862</v>
@@ -5597,10 +5654,10 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>42863</v>
@@ -5616,7 +5673,7 @@
       <c r="D24" s="13"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>42864</v>
@@ -5632,7 +5689,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>42865</v>
@@ -5648,7 +5705,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>42866</v>
@@ -5662,7 +5719,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>42867</v>
@@ -5677,7 +5734,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>42868</v>
@@ -5691,7 +5748,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>42869</v>
@@ -5705,7 +5762,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>42870</v>
@@ -5720,7 +5777,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>42871</v>
@@ -5734,7 +5791,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>42872</v>
@@ -5750,7 +5807,7 @@
       <c r="D33" s="10"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>42873</v>
@@ -5764,7 +5821,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>42874</v>
@@ -5778,7 +5835,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>42875</v>
@@ -5795,7 +5852,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>42876</v>
@@ -5810,7 +5867,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <f t="shared" si="3"/>
         <v>42877</v>
@@ -5824,7 +5881,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <f t="shared" si="3"/>
         <v>42878</v>
@@ -5838,7 +5895,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="D40" s="10"/>
     </row>
   </sheetData>
@@ -5885,7 +5942,7 @@
       <selection pane="bottomRight" activeCell="A39" sqref="A39:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
@@ -5897,18 +5954,18 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
@@ -5931,7 +5988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
@@ -5939,7 +5996,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38610555555351311</v>
+        <v>0.91668645833124174</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5947,7 +6004,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1599.0239120038259</v>
+        <v>1630.7710530457573</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5958,13 +6015,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="E4" s="16">
         <v>43581</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44387.023912003824</v>
+        <v>44418.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5973,7 +6030,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -5996,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42879</v>
       </c>
@@ -6010,7 +6067,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <f>A10+1</f>
         <v>42880</v>
@@ -6025,7 +6082,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A39" si="3">A11+1</f>
         <v>42881</v>
@@ -6040,7 +6097,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>42882</v>
@@ -6055,7 +6112,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>42883</v>
@@ -6072,7 +6129,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>42884</v>
@@ -6088,7 +6145,7 @@
       <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
         <v>42885</v>
@@ -6105,7 +6162,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>42886</v>
@@ -6123,7 +6180,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>42887</v>
@@ -6139,7 +6196,7 @@
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>42888</v>
@@ -6154,7 +6211,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>42889</v>
@@ -6167,10 +6224,10 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="32"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>42890</v>
@@ -6186,7 +6243,7 @@
       <c r="D21" s="12"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>42891</v>
@@ -6202,7 +6259,7 @@
       <c r="D22" s="12"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>42892</v>
@@ -6215,10 +6272,10 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>42893</v>
@@ -6234,7 +6291,7 @@
       <c r="D24" s="13"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>42894</v>
@@ -6250,7 +6307,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>42895</v>
@@ -6266,7 +6323,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>42896</v>
@@ -6280,7 +6337,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>42897</v>
@@ -6295,7 +6352,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>42898</v>
@@ -6309,7 +6366,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>42899</v>
@@ -6323,7 +6380,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>42900</v>
@@ -6338,7 +6395,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>42901</v>
@@ -6352,7 +6409,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>42902</v>
@@ -6368,7 +6425,7 @@
       <c r="D33" s="10"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>42903</v>
@@ -6382,7 +6439,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>42904</v>
@@ -6396,7 +6453,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>42905</v>
@@ -6413,7 +6470,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>42906</v>
@@ -6428,7 +6485,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <f t="shared" si="3"/>
         <v>42907</v>
@@ -6442,7 +6499,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <f t="shared" si="3"/>
         <v>42908</v>
@@ -6456,7 +6513,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <f t="shared" ref="A40" si="4">A39+1</f>
         <v>42909</v>
@@ -6515,7 +6572,7 @@
       <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
@@ -6527,18 +6584,18 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
@@ -6561,7 +6618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
@@ -6569,7 +6626,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38610555555351311</v>
+        <v>0.91668645833124174</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6577,7 +6634,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1599.0239120038259</v>
+        <v>1630.7710530457573</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6588,13 +6645,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="E4" s="16">
         <v>43581</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44387.023912003824</v>
+        <v>44418.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6603,7 +6660,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42910</v>
       </c>
@@ -6640,7 +6697,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <f>A10+1</f>
         <v>42911</v>
@@ -6655,7 +6712,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A39" si="3">A11+1</f>
         <v>42912</v>
@@ -6670,7 +6727,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>42913</v>
@@ -6685,7 +6742,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>42914</v>
@@ -6702,7 +6759,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>42915</v>
@@ -6718,7 +6775,7 @@
       <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
         <v>42916</v>
@@ -6735,7 +6792,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>42917</v>
@@ -6753,7 +6810,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>42918</v>
@@ -6769,7 +6826,7 @@
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>42919</v>
@@ -6784,7 +6841,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>42920</v>
@@ -6797,10 +6854,10 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="32"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>42921</v>
@@ -6816,7 +6873,7 @@
       <c r="D21" s="12"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>42922</v>
@@ -6832,7 +6889,7 @@
       <c r="D22" s="12"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>42923</v>
@@ -6845,10 +6902,10 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>42924</v>
@@ -6864,7 +6921,7 @@
       <c r="D24" s="13"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>42925</v>
@@ -6880,7 +6937,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>42926</v>
@@ -6896,7 +6953,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>42927</v>
@@ -6910,7 +6967,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>42928</v>
@@ -6925,7 +6982,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>42929</v>
@@ -6939,7 +6996,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>42930</v>
@@ -6953,7 +7010,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>42931</v>
@@ -6968,7 +7025,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>42932</v>
@@ -6982,7 +7039,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>42933</v>
@@ -6998,7 +7055,7 @@
       <c r="D33" s="10"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>42934</v>
@@ -7012,7 +7069,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>42935</v>
@@ -7026,7 +7083,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>42936</v>
@@ -7043,7 +7100,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>42937</v>
@@ -7058,7 +7115,7 @@
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <f t="shared" si="3"/>
         <v>42938</v>
@@ -7072,7 +7129,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <f t="shared" si="3"/>
         <v>42939</v>
@@ -7086,7 +7143,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="D40" s="10"/>
     </row>
   </sheetData>
@@ -7124,14 +7181,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -7139,8 +7196,8 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -7149,17 +7206,17 @@
       <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7176,11 +7233,11 @@
         <f>C2*(1-D2)</f>
         <v>20</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7194,14 +7251,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E49" si="0">C3*(1-D3)</f>
+        <f t="shared" ref="E3:E50" si="0">C3*(1-D3)</f>
         <v>25</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -7218,11 +7275,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -7239,11 +7296,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -7261,7 +7318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -7279,7 +7336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -7296,11 +7353,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -7318,7 +7375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -7336,7 +7393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -7354,7 +7411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -7372,7 +7429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -7390,7 +7447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -7408,7 +7465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -7426,7 +7483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -7444,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="14.25">
       <c r="A17">
         <v>24</v>
       </c>
@@ -7462,7 +7519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -7480,27 +7537,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
+    <row r="19" spans="1:6" s="30" customFormat="1" ht="14.25">
+      <c r="A19" s="30">
         <v>27</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="14.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -7518,7 +7575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="14.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -7536,7 +7593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -7554,7 +7611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -7572,7 +7629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -7590,7 +7647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -7600,7 +7657,7 @@
       <c r="C25" s="25">
         <v>10</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <f>130/255</f>
         <v>0.50980392156862742</v>
       </c>
@@ -7608,11 +7665,11 @@
         <f t="shared" si="0"/>
         <v>4.9019607843137258</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="14.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -7630,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14.25">
       <c r="A27">
         <v>37</v>
       </c>
@@ -7648,7 +7705,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="14.25">
       <c r="A28">
         <v>38</v>
       </c>
@@ -7666,7 +7723,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="14.25">
       <c r="A29">
         <v>39</v>
       </c>
@@ -7674,99 +7731,97 @@
         <v>38</v>
       </c>
       <c r="C29" s="25">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D29">
-        <f>2/8</f>
-        <v>0.25</v>
+        <f>1/8</f>
+        <v>0.125</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>42</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>39</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25">
+      <c r="B30" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="C30" s="25">
         <v>20</v>
       </c>
       <c r="D30">
+        <f>任务分解!D14</f>
+        <v>0.16264294790343076</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>16.747141041931386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25">
+      <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="25">
+        <v>20</v>
+      </c>
+      <c r="D31">
         <f>50/205</f>
         <v>0.24390243902439024</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>15.121951219512194</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="32" spans="1:6" ht="14.25">
+      <c r="A32">
         <v>43</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C32" s="25">
         <v>20</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>0.1</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="33" spans="1:5" ht="14.25">
+      <c r="A33">
         <v>44</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C33" s="25">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="34" spans="1:5" ht="14.25">
+      <c r="A34">
         <v>46</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="40" t="s">
         <v>41</v>
-      </c>
-      <c r="C33" s="25">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>47</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="C34" s="25">
         <v>30</v>
@@ -7779,48 +7834,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="14.25">
       <c r="A35">
-        <v>48</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="25">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25">
+      <c r="A36">
+        <v>48</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="25">
         <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>49</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="25">
-        <v>30</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25">
       <c r="A37">
-        <v>50</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="C37" s="25">
         <v>30</v>
@@ -7833,12 +7888,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="14.25">
       <c r="A38">
-        <v>52</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="C38" s="25">
         <v>30</v>
@@ -7851,12 +7906,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="14.25">
       <c r="A39">
-        <v>53</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="C39" s="25">
         <v>30</v>
@@ -7869,12 +7924,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="14.25">
       <c r="A40">
-        <v>55</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="C40" s="25">
         <v>30</v>
@@ -7887,12 +7942,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="14.25">
       <c r="A41">
-        <v>56</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="25">
         <v>30</v>
@@ -7905,12 +7960,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="14.25">
       <c r="A42">
-        <v>58</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="25">
         <v>30</v>
@@ -7923,12 +7978,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14.25">
       <c r="A43">
-        <v>59</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="25">
         <v>30</v>
@@ -7941,57 +7996,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="14.25">
       <c r="A44">
-        <v>61</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25">
+      <c r="A45">
+        <v>61</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="25">
         <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>62</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="25">
-        <v>20</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25">
+      <c r="A46">
+        <v>62</v>
+      </c>
       <c r="B46" s="25" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C46" s="25">
         <v>20</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="14.25">
       <c r="B47" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="25">
         <v>20</v>
@@ -8001,9 +8062,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B48" s="29" t="s">
-        <v>76</v>
+    <row r="48" spans="1:5" ht="14.25">
+      <c r="B48" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="C48" s="25">
         <v>20</v>
@@ -8013,20 +8074,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="49" spans="1:5" ht="14.25">
+      <c r="B49" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="25">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25">
+      <c r="A50">
         <v>65</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B50" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C50" s="28">
         <v>60</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>0.6</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -8039,1931 +8112,2163 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>0.59139784946236562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">C3/B3</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="26"/>
+      <c r="D14">
+        <f>SUM(C2:C13)/SUM(B2:B13)</f>
+        <v>0.16264294790343076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="35" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42788</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>17</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="33">
         <v>42770</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>44315.682448589192</v>
       </c>
-      <c r="C2" s="39"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="33">
         <v>42771</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>44376.682448589192</v>
       </c>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="34">
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="33">
         <v>42772</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <f>B3</f>
         <v>44376.682448589192</v>
       </c>
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="34">
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="33">
         <v>42773</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <f t="shared" ref="B5" si="0">B4</f>
         <v>44376.682448589192</v>
       </c>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="33">
         <v>42774</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>44379.682448589192</v>
       </c>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="34">
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="33">
         <v>42775</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>44380.682448589192</v>
       </c>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="34">
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="33">
         <v>42776</v>
       </c>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="34">
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="33">
         <v>42777</v>
       </c>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="34">
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="33">
         <v>42778</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>44383.682448589192</v>
       </c>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="34">
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="33">
         <v>42779</v>
       </c>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="34">
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="33">
         <v>42780</v>
       </c>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="34">
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="33">
         <v>42781</v>
       </c>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="34">
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="33">
         <v>42782</v>
       </c>
-      <c r="C14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="34">
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="33">
         <v>42783</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>44388.682448589192</v>
       </c>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="34">
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="33">
         <v>42784</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>44389.682448589192</v>
       </c>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="34">
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="33">
         <v>42785</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>44390.682448589192</v>
       </c>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="34">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="33">
         <v>42786</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>44390.682448589192</v>
       </c>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="34">
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="33">
         <v>42787</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>44386.023912003824</v>
       </c>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="34">
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="33">
         <v>42788</v>
       </c>
-      <c r="B20" s="36">
-        <v>44386.023912003824</v>
-      </c>
-      <c r="C20" s="39"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="34">
+      <c r="B20" s="35">
+        <v>44418.771053045755</v>
+      </c>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="33">
         <v>42789</v>
       </c>
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="34">
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="33">
         <v>42790</v>
       </c>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="34">
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="33">
         <v>42791</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="34">
+    <row r="24" spans="1:3">
+      <c r="A24" s="33">
         <v>42792</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="34">
+    <row r="25" spans="1:3">
+      <c r="A25" s="33">
         <v>42793</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="34">
+    <row r="26" spans="1:3">
+      <c r="A26" s="33">
         <v>42794</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="34">
+    <row r="27" spans="1:3">
+      <c r="A27" s="33">
         <v>42795</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="34">
+    <row r="28" spans="1:3">
+      <c r="A28" s="33">
         <v>42796</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="34">
+    <row r="29" spans="1:3">
+      <c r="A29" s="33">
         <v>42797</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="34">
+    <row r="30" spans="1:3">
+      <c r="A30" s="33">
         <v>42798</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="34">
+    <row r="31" spans="1:3">
+      <c r="A31" s="33">
         <v>42799</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="34">
+    <row r="32" spans="1:3">
+      <c r="A32" s="33">
         <v>42800</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="34">
+    <row r="33" spans="1:1">
+      <c r="A33" s="33">
         <v>42801</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="34">
+    <row r="34" spans="1:1">
+      <c r="A34" s="33">
         <v>42802</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34">
+    <row r="35" spans="1:1">
+      <c r="A35" s="33">
         <v>42803</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34">
+    <row r="36" spans="1:1">
+      <c r="A36" s="33">
         <v>42804</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34">
+    <row r="37" spans="1:1">
+      <c r="A37" s="33">
         <v>42805</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="34">
+    <row r="38" spans="1:1">
+      <c r="A38" s="33">
         <v>42806</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="34">
+    <row r="39" spans="1:1">
+      <c r="A39" s="33">
         <v>42807</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="34">
+    <row r="40" spans="1:1">
+      <c r="A40" s="33">
         <v>42808</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="34">
+    <row r="41" spans="1:1">
+      <c r="A41" s="33">
         <v>42809</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34">
+    <row r="42" spans="1:1">
+      <c r="A42" s="33">
         <v>42810</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34">
+    <row r="43" spans="1:1">
+      <c r="A43" s="33">
         <v>42811</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="34">
+    <row r="44" spans="1:1">
+      <c r="A44" s="33">
         <v>42812</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34">
+    <row r="45" spans="1:1">
+      <c r="A45" s="33">
         <v>42813</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34">
+    <row r="46" spans="1:1">
+      <c r="A46" s="33">
         <v>42814</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34">
+    <row r="47" spans="1:1">
+      <c r="A47" s="33">
         <v>42815</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34">
+    <row r="48" spans="1:1">
+      <c r="A48" s="33">
         <v>42816</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34">
+    <row r="49" spans="1:1">
+      <c r="A49" s="33">
         <v>42817</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34">
+    <row r="50" spans="1:1">
+      <c r="A50" s="33">
         <v>42818</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="34">
+    <row r="51" spans="1:1">
+      <c r="A51" s="33">
         <v>42819</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="34">
+    <row r="52" spans="1:1">
+      <c r="A52" s="33">
         <v>42820</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="34">
+    <row r="53" spans="1:1">
+      <c r="A53" s="33">
         <v>42821</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="34">
+    <row r="54" spans="1:1">
+      <c r="A54" s="33">
         <v>42822</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="34">
+    <row r="55" spans="1:1">
+      <c r="A55" s="33">
         <v>42823</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="34">
+    <row r="56" spans="1:1">
+      <c r="A56" s="33">
         <v>42824</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="34">
+    <row r="57" spans="1:1">
+      <c r="A57" s="33">
         <v>42825</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="34">
+    <row r="58" spans="1:1">
+      <c r="A58" s="33">
         <v>42826</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34">
+    <row r="59" spans="1:1">
+      <c r="A59" s="33">
         <v>42827</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="34">
+    <row r="60" spans="1:1">
+      <c r="A60" s="33">
         <v>42828</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="34">
+    <row r="61" spans="1:1">
+      <c r="A61" s="33">
         <v>42829</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="34">
+    <row r="62" spans="1:1">
+      <c r="A62" s="33">
         <v>42830</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="34">
+    <row r="63" spans="1:1">
+      <c r="A63" s="33">
         <v>42831</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="34">
+    <row r="64" spans="1:1">
+      <c r="A64" s="33">
         <v>42832</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="34">
+    <row r="65" spans="1:1">
+      <c r="A65" s="33">
         <v>42833</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="34">
+    <row r="66" spans="1:1">
+      <c r="A66" s="33">
         <v>42834</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="34">
+    <row r="67" spans="1:1">
+      <c r="A67" s="33">
         <v>42835</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="34">
+    <row r="68" spans="1:1">
+      <c r="A68" s="33">
         <v>42836</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="34">
+    <row r="69" spans="1:1">
+      <c r="A69" s="33">
         <v>42837</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="34">
+    <row r="70" spans="1:1">
+      <c r="A70" s="33">
         <v>42838</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="34">
+    <row r="71" spans="1:1">
+      <c r="A71" s="33">
         <v>42839</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="34">
+    <row r="72" spans="1:1">
+      <c r="A72" s="33">
         <v>42840</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="34">
+    <row r="73" spans="1:1">
+      <c r="A73" s="33">
         <v>42841</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="34">
+    <row r="74" spans="1:1">
+      <c r="A74" s="33">
         <v>42842</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="34">
+    <row r="75" spans="1:1">
+      <c r="A75" s="33">
         <v>42843</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="34">
+    <row r="76" spans="1:1">
+      <c r="A76" s="33">
         <v>42844</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="34">
+    <row r="77" spans="1:1">
+      <c r="A77" s="33">
         <v>42845</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="34">
+    <row r="78" spans="1:1">
+      <c r="A78" s="33">
         <v>42846</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="34">
+    <row r="79" spans="1:1">
+      <c r="A79" s="33">
         <v>42847</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="34">
+    <row r="80" spans="1:1">
+      <c r="A80" s="33">
         <v>42848</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="34">
+    <row r="81" spans="1:1">
+      <c r="A81" s="33">
         <v>42849</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="34">
+    <row r="82" spans="1:1">
+      <c r="A82" s="33">
         <v>42850</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="34">
+    <row r="83" spans="1:1">
+      <c r="A83" s="33">
         <v>42851</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="34">
+    <row r="84" spans="1:1">
+      <c r="A84" s="33">
         <v>42852</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="34">
+    <row r="85" spans="1:1">
+      <c r="A85" s="33">
         <v>42853</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="34">
+    <row r="86" spans="1:1">
+      <c r="A86" s="33">
         <v>42854</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="34">
+    <row r="87" spans="1:1">
+      <c r="A87" s="33">
         <v>42855</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="34">
+    <row r="88" spans="1:1">
+      <c r="A88" s="33">
         <v>42856</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="34">
+    <row r="89" spans="1:1">
+      <c r="A89" s="33">
         <v>42857</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="34">
+    <row r="90" spans="1:1">
+      <c r="A90" s="33">
         <v>42858</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="34">
+    <row r="91" spans="1:1">
+      <c r="A91" s="33">
         <v>42859</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="34">
+    <row r="92" spans="1:1">
+      <c r="A92" s="33">
         <v>42860</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="34">
+    <row r="93" spans="1:1">
+      <c r="A93" s="33">
         <v>42861</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="34">
+    <row r="94" spans="1:1">
+      <c r="A94" s="33">
         <v>42862</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="34">
+    <row r="95" spans="1:1">
+      <c r="A95" s="33">
         <v>42863</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="34">
+    <row r="96" spans="1:1">
+      <c r="A96" s="33">
         <v>42864</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="34">
+    <row r="97" spans="1:1">
+      <c r="A97" s="33">
         <v>42865</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="34">
+    <row r="98" spans="1:1">
+      <c r="A98" s="33">
         <v>42866</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="34">
+    <row r="99" spans="1:1">
+      <c r="A99" s="33">
         <v>42867</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="34">
+    <row r="100" spans="1:1">
+      <c r="A100" s="33">
         <v>42868</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="34">
+    <row r="101" spans="1:1">
+      <c r="A101" s="33">
         <v>42869</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="34">
+    <row r="102" spans="1:1">
+      <c r="A102" s="33">
         <v>42870</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="34">
+    <row r="103" spans="1:1">
+      <c r="A103" s="33">
         <v>42871</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="34">
+    <row r="104" spans="1:1">
+      <c r="A104" s="33">
         <v>42872</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="34">
+    <row r="105" spans="1:1">
+      <c r="A105" s="33">
         <v>42873</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="34">
+    <row r="106" spans="1:1">
+      <c r="A106" s="33">
         <v>42874</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="34">
+    <row r="107" spans="1:1">
+      <c r="A107" s="33">
         <v>42875</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="34">
+    <row r="108" spans="1:1">
+      <c r="A108" s="33">
         <v>42876</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="34">
+    <row r="109" spans="1:1">
+      <c r="A109" s="33">
         <v>42877</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="34">
+    <row r="110" spans="1:1">
+      <c r="A110" s="33">
         <v>42878</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="34">
+    <row r="111" spans="1:1">
+      <c r="A111" s="33">
         <v>42879</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="34">
+    <row r="112" spans="1:1">
+      <c r="A112" s="33">
         <v>42880</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="34">
+    <row r="113" spans="1:1">
+      <c r="A113" s="33">
         <v>42881</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="34">
+    <row r="114" spans="1:1">
+      <c r="A114" s="33">
         <v>42882</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="34">
+    <row r="115" spans="1:1">
+      <c r="A115" s="33">
         <v>42883</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="34">
+    <row r="116" spans="1:1">
+      <c r="A116" s="33">
         <v>42884</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="34">
+    <row r="117" spans="1:1">
+      <c r="A117" s="33">
         <v>42885</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="34">
+    <row r="118" spans="1:1">
+      <c r="A118" s="33">
         <v>42886</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="34">
+    <row r="119" spans="1:1">
+      <c r="A119" s="33">
         <v>42887</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="34">
+    <row r="120" spans="1:1">
+      <c r="A120" s="33">
         <v>42888</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="34">
+    <row r="121" spans="1:1">
+      <c r="A121" s="33">
         <v>42889</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="34">
+    <row r="122" spans="1:1">
+      <c r="A122" s="33">
         <v>42890</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="34">
+    <row r="123" spans="1:1">
+      <c r="A123" s="33">
         <v>42891</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="34">
+    <row r="124" spans="1:1">
+      <c r="A124" s="33">
         <v>42892</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="34">
+    <row r="125" spans="1:1">
+      <c r="A125" s="33">
         <v>42893</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="34">
+    <row r="126" spans="1:1">
+      <c r="A126" s="33">
         <v>42894</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="34">
+    <row r="127" spans="1:1">
+      <c r="A127" s="33">
         <v>42895</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="34">
+    <row r="128" spans="1:1">
+      <c r="A128" s="33">
         <v>42896</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="34">
+    <row r="129" spans="1:1">
+      <c r="A129" s="33">
         <v>42897</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="34">
+    <row r="130" spans="1:1">
+      <c r="A130" s="33">
         <v>42898</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="34">
+    <row r="131" spans="1:1">
+      <c r="A131" s="33">
         <v>42899</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="34">
+    <row r="132" spans="1:1">
+      <c r="A132" s="33">
         <v>42900</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="34">
+    <row r="133" spans="1:1">
+      <c r="A133" s="33">
         <v>42901</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="34">
+    <row r="134" spans="1:1">
+      <c r="A134" s="33">
         <v>42902</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="34">
+    <row r="135" spans="1:1">
+      <c r="A135" s="33">
         <v>42903</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="34">
+    <row r="136" spans="1:1">
+      <c r="A136" s="33">
         <v>42904</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="34">
+    <row r="137" spans="1:1">
+      <c r="A137" s="33">
         <v>42905</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="34">
+    <row r="138" spans="1:1">
+      <c r="A138" s="33">
         <v>42906</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="34">
+    <row r="139" spans="1:1">
+      <c r="A139" s="33">
         <v>42907</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="34">
+    <row r="140" spans="1:1">
+      <c r="A140" s="33">
         <v>42908</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="34">
+    <row r="141" spans="1:1">
+      <c r="A141" s="33">
         <v>42909</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="34">
+    <row r="142" spans="1:1">
+      <c r="A142" s="33">
         <v>42910</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="34">
+    <row r="143" spans="1:1">
+      <c r="A143" s="33">
         <v>42911</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="34">
+    <row r="144" spans="1:1">
+      <c r="A144" s="33">
         <v>42912</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="34">
+    <row r="145" spans="1:1">
+      <c r="A145" s="33">
         <v>42913</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="34">
+    <row r="146" spans="1:1">
+      <c r="A146" s="33">
         <v>42914</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="34">
+    <row r="147" spans="1:1">
+      <c r="A147" s="33">
         <v>42915</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="34">
+    <row r="148" spans="1:1">
+      <c r="A148" s="33">
         <v>42916</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="34">
+    <row r="149" spans="1:1">
+      <c r="A149" s="33">
         <v>42917</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="34">
+    <row r="150" spans="1:1">
+      <c r="A150" s="33">
         <v>42918</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="34">
+    <row r="151" spans="1:1">
+      <c r="A151" s="33">
         <v>42919</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="34">
+    <row r="152" spans="1:1">
+      <c r="A152" s="33">
         <v>42920</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="34">
+    <row r="153" spans="1:1">
+      <c r="A153" s="33">
         <v>42921</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="34">
+    <row r="154" spans="1:1">
+      <c r="A154" s="33">
         <v>42922</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="34">
+    <row r="155" spans="1:1">
+      <c r="A155" s="33">
         <v>42923</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="34">
+    <row r="156" spans="1:1">
+      <c r="A156" s="33">
         <v>42924</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="34">
+    <row r="157" spans="1:1">
+      <c r="A157" s="33">
         <v>42925</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="34">
+    <row r="158" spans="1:1">
+      <c r="A158" s="33">
         <v>42926</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="34">
+    <row r="159" spans="1:1">
+      <c r="A159" s="33">
         <v>42927</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="34">
+    <row r="160" spans="1:1">
+      <c r="A160" s="33">
         <v>42928</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="34">
+    <row r="161" spans="1:1">
+      <c r="A161" s="33">
         <v>42929</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="34">
+    <row r="162" spans="1:1">
+      <c r="A162" s="33">
         <v>42930</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="34">
+    <row r="163" spans="1:1">
+      <c r="A163" s="33">
         <v>42931</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="34">
+    <row r="164" spans="1:1">
+      <c r="A164" s="33">
         <v>42932</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="34">
+    <row r="165" spans="1:1">
+      <c r="A165" s="33">
         <v>42933</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="34">
+    <row r="166" spans="1:1">
+      <c r="A166" s="33">
         <v>42934</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="34">
+    <row r="167" spans="1:1">
+      <c r="A167" s="33">
         <v>42935</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="34">
+    <row r="168" spans="1:1">
+      <c r="A168" s="33">
         <v>42936</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="34">
+    <row r="169" spans="1:1">
+      <c r="A169" s="33">
         <v>42937</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="34">
+    <row r="170" spans="1:1">
+      <c r="A170" s="33">
         <v>42938</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="34">
+    <row r="171" spans="1:1">
+      <c r="A171" s="33">
         <v>42939</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="34">
+    <row r="172" spans="1:1">
+      <c r="A172" s="33">
         <v>42940</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="34">
+    <row r="173" spans="1:1">
+      <c r="A173" s="33">
         <v>42941</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="34">
+    <row r="174" spans="1:1">
+      <c r="A174" s="33">
         <v>42942</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="34">
+    <row r="175" spans="1:1">
+      <c r="A175" s="33">
         <v>42943</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="34">
+    <row r="176" spans="1:1">
+      <c r="A176" s="33">
         <v>42944</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="34">
+    <row r="177" spans="1:1">
+      <c r="A177" s="33">
         <v>42945</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="34">
+    <row r="178" spans="1:1">
+      <c r="A178" s="33">
         <v>42946</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="34">
+    <row r="179" spans="1:1">
+      <c r="A179" s="33">
         <v>42947</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="34">
+    <row r="180" spans="1:1">
+      <c r="A180" s="33">
         <v>42948</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="34">
+    <row r="181" spans="1:1">
+      <c r="A181" s="33">
         <v>42949</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="34">
+    <row r="182" spans="1:1">
+      <c r="A182" s="33">
         <v>42950</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="34">
+    <row r="183" spans="1:1">
+      <c r="A183" s="33">
         <v>42951</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="34">
+    <row r="184" spans="1:1">
+      <c r="A184" s="33">
         <v>42952</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="34">
+    <row r="185" spans="1:1">
+      <c r="A185" s="33">
         <v>42953</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="34">
+    <row r="186" spans="1:1">
+      <c r="A186" s="33">
         <v>42954</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="34">
+    <row r="187" spans="1:1">
+      <c r="A187" s="33">
         <v>42955</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="34">
+    <row r="188" spans="1:1">
+      <c r="A188" s="33">
         <v>42956</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="34">
+    <row r="189" spans="1:1">
+      <c r="A189" s="33">
         <v>42957</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="34">
+    <row r="190" spans="1:1">
+      <c r="A190" s="33">
         <v>42958</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="34">
+    <row r="191" spans="1:1">
+      <c r="A191" s="33">
         <v>42959</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="34">
+    <row r="192" spans="1:1">
+      <c r="A192" s="33">
         <v>42960</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="34">
+    <row r="193" spans="1:1">
+      <c r="A193" s="33">
         <v>42961</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="34">
+    <row r="194" spans="1:1">
+      <c r="A194" s="33">
         <v>42962</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="34">
+    <row r="195" spans="1:1">
+      <c r="A195" s="33">
         <v>42963</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="34">
+    <row r="196" spans="1:1">
+      <c r="A196" s="33">
         <v>42964</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" s="34">
+    <row r="197" spans="1:1">
+      <c r="A197" s="33">
         <v>42965</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" s="34">
+    <row r="198" spans="1:1">
+      <c r="A198" s="33">
         <v>42966</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" s="34">
+    <row r="199" spans="1:1">
+      <c r="A199" s="33">
         <v>42967</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" s="34">
+    <row r="200" spans="1:1">
+      <c r="A200" s="33">
         <v>42968</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="34">
+    <row r="201" spans="1:1">
+      <c r="A201" s="33">
         <v>42969</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" s="34">
+    <row r="202" spans="1:1">
+      <c r="A202" s="33">
         <v>42970</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" s="34">
+    <row r="203" spans="1:1">
+      <c r="A203" s="33">
         <v>42971</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" s="34">
+    <row r="204" spans="1:1">
+      <c r="A204" s="33">
         <v>42972</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" s="34">
+    <row r="205" spans="1:1">
+      <c r="A205" s="33">
         <v>42973</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" s="34">
+    <row r="206" spans="1:1">
+      <c r="A206" s="33">
         <v>42974</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" s="34">
+    <row r="207" spans="1:1">
+      <c r="A207" s="33">
         <v>42975</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" s="34">
+    <row r="208" spans="1:1">
+      <c r="A208" s="33">
         <v>42976</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" s="34">
+    <row r="209" spans="1:1">
+      <c r="A209" s="33">
         <v>42977</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" s="34">
+    <row r="210" spans="1:1">
+      <c r="A210" s="33">
         <v>42978</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" s="34">
+    <row r="211" spans="1:1">
+      <c r="A211" s="33">
         <v>42979</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" s="34">
+    <row r="212" spans="1:1">
+      <c r="A212" s="33">
         <v>42980</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" s="34">
+    <row r="213" spans="1:1">
+      <c r="A213" s="33">
         <v>42981</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" s="34">
+    <row r="214" spans="1:1">
+      <c r="A214" s="33">
         <v>42982</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" s="34">
+    <row r="215" spans="1:1">
+      <c r="A215" s="33">
         <v>42983</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" s="34">
+    <row r="216" spans="1:1">
+      <c r="A216" s="33">
         <v>42984</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" s="34">
+    <row r="217" spans="1:1">
+      <c r="A217" s="33">
         <v>42985</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" s="34">
+    <row r="218" spans="1:1">
+      <c r="A218" s="33">
         <v>42986</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" s="34">
+    <row r="219" spans="1:1">
+      <c r="A219" s="33">
         <v>42987</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" s="34">
+    <row r="220" spans="1:1">
+      <c r="A220" s="33">
         <v>42988</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" s="34">
+    <row r="221" spans="1:1">
+      <c r="A221" s="33">
         <v>42989</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" s="34">
+    <row r="222" spans="1:1">
+      <c r="A222" s="33">
         <v>42990</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" s="34">
+    <row r="223" spans="1:1">
+      <c r="A223" s="33">
         <v>42991</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" s="34">
+    <row r="224" spans="1:1">
+      <c r="A224" s="33">
         <v>42992</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" s="34">
+    <row r="225" spans="1:1">
+      <c r="A225" s="33">
         <v>42993</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" s="34">
+    <row r="226" spans="1:1">
+      <c r="A226" s="33">
         <v>42994</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" s="34">
+    <row r="227" spans="1:1">
+      <c r="A227" s="33">
         <v>42995</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" s="34">
+    <row r="228" spans="1:1">
+      <c r="A228" s="33">
         <v>42996</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" s="34">
+    <row r="229" spans="1:1">
+      <c r="A229" s="33">
         <v>42997</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" s="34">
+    <row r="230" spans="1:1">
+      <c r="A230" s="33">
         <v>42998</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" s="34">
+    <row r="231" spans="1:1">
+      <c r="A231" s="33">
         <v>42999</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" s="34">
+    <row r="232" spans="1:1">
+      <c r="A232" s="33">
         <v>43000</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" s="34">
+    <row r="233" spans="1:1">
+      <c r="A233" s="33">
         <v>43001</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" s="34">
+    <row r="234" spans="1:1">
+      <c r="A234" s="33">
         <v>43002</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" s="34">
+    <row r="235" spans="1:1">
+      <c r="A235" s="33">
         <v>43003</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" s="34">
+    <row r="236" spans="1:1">
+      <c r="A236" s="33">
         <v>43004</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" s="34">
+    <row r="237" spans="1:1">
+      <c r="A237" s="33">
         <v>43005</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" s="34">
+    <row r="238" spans="1:1">
+      <c r="A238" s="33">
         <v>43006</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" s="34">
+    <row r="239" spans="1:1">
+      <c r="A239" s="33">
         <v>43007</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" s="34">
+    <row r="240" spans="1:1">
+      <c r="A240" s="33">
         <v>43008</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" s="34">
+    <row r="241" spans="1:1">
+      <c r="A241" s="33">
         <v>43009</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" s="34">
+    <row r="242" spans="1:1">
+      <c r="A242" s="33">
         <v>43010</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" s="34">
+    <row r="243" spans="1:1">
+      <c r="A243" s="33">
         <v>43011</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" s="34">
+    <row r="244" spans="1:1">
+      <c r="A244" s="33">
         <v>43012</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" s="34">
+    <row r="245" spans="1:1">
+      <c r="A245" s="33">
         <v>43013</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" s="34">
+    <row r="246" spans="1:1">
+      <c r="A246" s="33">
         <v>43014</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" s="34">
+    <row r="247" spans="1:1">
+      <c r="A247" s="33">
         <v>43015</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" s="34">
+    <row r="248" spans="1:1">
+      <c r="A248" s="33">
         <v>43016</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" s="34">
+    <row r="249" spans="1:1">
+      <c r="A249" s="33">
         <v>43017</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" s="34">
+    <row r="250" spans="1:1">
+      <c r="A250" s="33">
         <v>43018</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" s="34">
+    <row r="251" spans="1:1">
+      <c r="A251" s="33">
         <v>43019</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" s="34">
+    <row r="252" spans="1:1">
+      <c r="A252" s="33">
         <v>43020</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" s="34">
+    <row r="253" spans="1:1">
+      <c r="A253" s="33">
         <v>43021</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" s="34">
+    <row r="254" spans="1:1">
+      <c r="A254" s="33">
         <v>43022</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" s="34">
+    <row r="255" spans="1:1">
+      <c r="A255" s="33">
         <v>43023</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" s="34">
+    <row r="256" spans="1:1">
+      <c r="A256" s="33">
         <v>43024</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" s="34">
+    <row r="257" spans="1:1">
+      <c r="A257" s="33">
         <v>43025</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" s="34">
+    <row r="258" spans="1:1">
+      <c r="A258" s="33">
         <v>43026</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" s="34">
+    <row r="259" spans="1:1">
+      <c r="A259" s="33">
         <v>43027</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" s="34">
+    <row r="260" spans="1:1">
+      <c r="A260" s="33">
         <v>43028</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" s="34">
+    <row r="261" spans="1:1">
+      <c r="A261" s="33">
         <v>43029</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" s="34">
+    <row r="262" spans="1:1">
+      <c r="A262" s="33">
         <v>43030</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" s="34">
+    <row r="263" spans="1:1">
+      <c r="A263" s="33">
         <v>43031</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" s="34">
+    <row r="264" spans="1:1">
+      <c r="A264" s="33">
         <v>43032</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" s="34">
+    <row r="265" spans="1:1">
+      <c r="A265" s="33">
         <v>43033</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" s="34">
+    <row r="266" spans="1:1">
+      <c r="A266" s="33">
         <v>43034</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" s="34">
+    <row r="267" spans="1:1">
+      <c r="A267" s="33">
         <v>43035</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" s="34">
+    <row r="268" spans="1:1">
+      <c r="A268" s="33">
         <v>43036</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" s="34">
+    <row r="269" spans="1:1">
+      <c r="A269" s="33">
         <v>43037</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" s="34">
+    <row r="270" spans="1:1">
+      <c r="A270" s="33">
         <v>43038</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" s="34">
+    <row r="271" spans="1:1">
+      <c r="A271" s="33">
         <v>43039</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" s="34">
+    <row r="272" spans="1:1">
+      <c r="A272" s="33">
         <v>43040</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" s="34">
+    <row r="273" spans="1:1">
+      <c r="A273" s="33">
         <v>43041</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" s="34">
+    <row r="274" spans="1:1">
+      <c r="A274" s="33">
         <v>43042</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" s="34">
+    <row r="275" spans="1:1">
+      <c r="A275" s="33">
         <v>43043</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" s="34">
+    <row r="276" spans="1:1">
+      <c r="A276" s="33">
         <v>43044</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" s="34">
+    <row r="277" spans="1:1">
+      <c r="A277" s="33">
         <v>43045</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" s="34">
+    <row r="278" spans="1:1">
+      <c r="A278" s="33">
         <v>43046</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" s="34">
+    <row r="279" spans="1:1">
+      <c r="A279" s="33">
         <v>43047</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" s="34">
+    <row r="280" spans="1:1">
+      <c r="A280" s="33">
         <v>43048</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" s="34">
+    <row r="281" spans="1:1">
+      <c r="A281" s="33">
         <v>43049</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" s="34">
+    <row r="282" spans="1:1">
+      <c r="A282" s="33">
         <v>43050</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" s="34">
+    <row r="283" spans="1:1">
+      <c r="A283" s="33">
         <v>43051</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" s="34">
+    <row r="284" spans="1:1">
+      <c r="A284" s="33">
         <v>43052</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" s="34">
+    <row r="285" spans="1:1">
+      <c r="A285" s="33">
         <v>43053</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" s="34">
+    <row r="286" spans="1:1">
+      <c r="A286" s="33">
         <v>43054</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" s="34">
+    <row r="287" spans="1:1">
+      <c r="A287" s="33">
         <v>43055</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" s="34">
+    <row r="288" spans="1:1">
+      <c r="A288" s="33">
         <v>43056</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" s="34">
+    <row r="289" spans="1:1">
+      <c r="A289" s="33">
         <v>43057</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" s="34">
+    <row r="290" spans="1:1">
+      <c r="A290" s="33">
         <v>43058</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="34">
+    <row r="291" spans="1:1">
+      <c r="A291" s="33">
         <v>43059</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="34">
+    <row r="292" spans="1:1">
+      <c r="A292" s="33">
         <v>43060</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="34">
+    <row r="293" spans="1:1">
+      <c r="A293" s="33">
         <v>43061</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="34">
+    <row r="294" spans="1:1">
+      <c r="A294" s="33">
         <v>43062</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="34">
+    <row r="295" spans="1:1">
+      <c r="A295" s="33">
         <v>43063</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="34">
+    <row r="296" spans="1:1">
+      <c r="A296" s="33">
         <v>43064</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="34">
+    <row r="297" spans="1:1">
+      <c r="A297" s="33">
         <v>43065</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="34">
+    <row r="298" spans="1:1">
+      <c r="A298" s="33">
         <v>43066</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="34">
+    <row r="299" spans="1:1">
+      <c r="A299" s="33">
         <v>43067</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="34">
+    <row r="300" spans="1:1">
+      <c r="A300" s="33">
         <v>43068</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A301" s="34">
+    <row r="301" spans="1:1">
+      <c r="A301" s="33">
         <v>43069</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A302" s="34">
+    <row r="302" spans="1:1">
+      <c r="A302" s="33">
         <v>43070</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A303" s="34">
+    <row r="303" spans="1:1">
+      <c r="A303" s="33">
         <v>43071</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" s="34">
+    <row r="304" spans="1:1">
+      <c r="A304" s="33">
         <v>43072</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" s="34">
+    <row r="305" spans="1:1">
+      <c r="A305" s="33">
         <v>43073</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A306" s="34">
+    <row r="306" spans="1:1">
+      <c r="A306" s="33">
         <v>43074</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" s="34">
+    <row r="307" spans="1:1">
+      <c r="A307" s="33">
         <v>43075</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A308" s="34">
+    <row r="308" spans="1:1">
+      <c r="A308" s="33">
         <v>43076</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A309" s="34">
+    <row r="309" spans="1:1">
+      <c r="A309" s="33">
         <v>43077</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A310" s="34">
+    <row r="310" spans="1:1">
+      <c r="A310" s="33">
         <v>43078</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A311" s="34">
+    <row r="311" spans="1:1">
+      <c r="A311" s="33">
         <v>43079</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A312" s="34">
+    <row r="312" spans="1:1">
+      <c r="A312" s="33">
         <v>43080</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A313" s="34">
+    <row r="313" spans="1:1">
+      <c r="A313" s="33">
         <v>43081</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A314" s="34">
+    <row r="314" spans="1:1">
+      <c r="A314" s="33">
         <v>43082</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A315" s="34">
+    <row r="315" spans="1:1">
+      <c r="A315" s="33">
         <v>43083</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A316" s="34">
+    <row r="316" spans="1:1">
+      <c r="A316" s="33">
         <v>43084</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A317" s="34">
+    <row r="317" spans="1:1">
+      <c r="A317" s="33">
         <v>43085</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A318" s="34">
+    <row r="318" spans="1:1">
+      <c r="A318" s="33">
         <v>43086</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A319" s="34">
+    <row r="319" spans="1:1">
+      <c r="A319" s="33">
         <v>43087</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" s="34">
+    <row r="320" spans="1:1">
+      <c r="A320" s="33">
         <v>43088</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A321" s="34">
+    <row r="321" spans="1:1">
+      <c r="A321" s="33">
         <v>43089</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A322" s="34">
+    <row r="322" spans="1:1">
+      <c r="A322" s="33">
         <v>43090</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A323" s="34">
+    <row r="323" spans="1:1">
+      <c r="A323" s="33">
         <v>43091</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A324" s="34">
+    <row r="324" spans="1:1">
+      <c r="A324" s="33">
         <v>43092</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" s="34">
+    <row r="325" spans="1:1">
+      <c r="A325" s="33">
         <v>43093</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A326" s="34">
+    <row r="326" spans="1:1">
+      <c r="A326" s="33">
         <v>43094</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A327" s="34">
+    <row r="327" spans="1:1">
+      <c r="A327" s="33">
         <v>43095</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A328" s="34">
+    <row r="328" spans="1:1">
+      <c r="A328" s="33">
         <v>43096</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A329" s="34"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A330" s="34"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A331" s="34"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A332" s="34"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A333" s="34"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A334" s="34"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A335" s="34"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A336" s="34"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A337" s="34"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A338" s="34"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A339" s="34"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A340" s="34"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A341" s="34"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A342" s="34"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A343" s="34"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A344" s="34"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A345" s="34"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A346" s="34"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A347" s="34"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A348" s="34"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A349" s="34"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A350" s="34"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A351" s="34"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A352" s="34"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A353" s="34"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" s="34"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A355" s="34"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A356" s="34"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A357" s="34"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A358" s="34"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A359" s="34"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A360" s="34"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A361" s="34"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A362" s="34"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A363" s="34"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A364" s="34"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A365" s="34"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A366" s="34"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A367" s="34"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A368" s="34"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A369" s="34"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" s="34"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A371" s="34"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A372" s="34"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A373" s="34"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A374" s="34"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A375" s="34"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A376" s="34"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A377" s="34"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A378" s="34"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A379" s="34"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A380" s="34"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A381" s="34"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A382" s="34"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A383" s="34"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" s="34"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A385" s="34"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A386" s="34"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A387" s="34"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A388" s="34"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A389" s="34"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A390" s="34"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A391" s="34"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A392" s="34"/>
+    <row r="329" spans="1:1">
+      <c r="A329" s="33"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="33"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="33"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="33"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="33"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="33"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="33"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="33"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="33"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="33"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="33"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="33"/>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="33"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="33"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="33"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="33"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="33"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="33"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="33"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="33"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="33"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="33"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="33"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="33"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="33"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="33"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="33"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="33"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="33"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="33"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="33"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="33"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="33"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="33"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="33"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="33"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="33"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="33"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="33"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="33"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="33"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="33"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="33"/>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="33"/>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="33"/>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="33"/>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="33"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="33"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="33"/>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="33"/>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="33"/>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="33"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="33"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="33"/>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="33"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="33"/>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="33"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="33"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="33"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="33"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="33"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="33"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="33"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -2339,6 +2339,9 @@
                   <c:v>44386.023912003824</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>44418.771053045755</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>44418.771053045755</c:v>
                 </c:pt>
               </c:numCache>
@@ -3444,7 +3447,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3473,11 +3476,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668645833124174</v>
+        <v>0.60954097222565906</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3498,7 +3501,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4065,7 +4068,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4094,11 +4097,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668645833124174</v>
+        <v>0.60954097222565906</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4106,11 +4109,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4119,7 +4122,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4665,7 +4668,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4694,11 +4697,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668645833124174</v>
+        <v>0.60954097222565906</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4706,11 +4709,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4719,7 +4722,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5349,7 +5352,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5378,11 +5381,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668645833124174</v>
+        <v>0.60954097222565906</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5390,11 +5393,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5403,7 +5406,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5967,7 +5970,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5996,11 +5999,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668645833124174</v>
+        <v>0.60954097222565906</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6008,11 +6011,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6021,7 +6024,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6597,7 +6600,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6626,11 +6629,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668645833124174</v>
+        <v>0.60954097222565906</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6638,11 +6641,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6651,7 +6654,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8367,7 +8370,7 @@
       </c>
       <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="D1" s="38">
         <v>17</v>
@@ -8539,6 +8542,9 @@
     <row r="21" spans="1:3">
       <c r="A21" s="33">
         <v>42789</v>
+      </c>
+      <c r="B21" s="35">
+        <v>44418.771053045755</v>
       </c>
       <c r="C21" s="38"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -2342,7 +2342,7 @@
                   <c:v>44418.771053045755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44418.771053045755</c:v>
+                  <c:v>44419.771053045755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,7 +3476,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.60954097222565906</v>
+        <v>0.91668553240742767</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4097,7 +4097,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.60954097222565906</v>
+        <v>0.91668553240742767</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4697,7 +4697,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.60954097222565906</v>
+        <v>0.91668553240742767</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5381,7 +5381,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.60954097222565906</v>
+        <v>0.91668553240742767</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5999,7 +5999,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.60954097222565906</v>
+        <v>0.91668553240742767</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6629,7 +6629,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.60954097222565906</v>
+        <v>0.91668553240742767</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -8544,7 +8544,7 @@
         <v>42789</v>
       </c>
       <c r="B21" s="35">
-        <v>44418.771053045755</v>
+        <v>44419.771053045755</v>
       </c>
       <c r="C21" s="38"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -2343,6 +2343,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44419.771053045755</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44420.771053045755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,10 +3418,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3447,7 +3450,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3476,11 +3479,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668553240742767</v>
+        <v>0.91668495370686287</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3501,7 +3504,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44419.771053045755</v>
+        <v>44420.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4034,11 +4037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4068,7 +4071,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4097,11 +4100,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668553240742767</v>
+        <v>0.91668495370686287</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4109,11 +4112,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4122,7 +4125,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44419.771053045755</v>
+        <v>44420.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4668,7 +4671,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4697,11 +4700,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668553240742767</v>
+        <v>0.91668495370686287</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4722,7 +4725,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44419.771053045755</v>
+        <v>44420.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5352,7 +5355,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5381,11 +5384,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668553240742767</v>
+        <v>0.91668495370686287</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5393,11 +5396,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5406,7 +5409,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44419.771053045755</v>
+        <v>44420.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5970,7 +5973,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5999,11 +6002,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668553240742767</v>
+        <v>0.91668495370686287</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6011,11 +6014,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6024,7 +6027,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44419.771053045755</v>
+        <v>44420.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6600,7 +6603,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6629,11 +6632,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668553240742767</v>
+        <v>0.91668495370686287</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6641,11 +6644,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6654,7 +6657,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44419.771053045755</v>
+        <v>44420.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7186,8 +7189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -8370,7 +8373,7 @@
       </c>
       <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="D1" s="38">
         <v>17</v>
@@ -8551,6 +8554,9 @@
     <row r="22" spans="1:3">
       <c r="A22" s="33">
         <v>42790</v>
+      </c>
+      <c r="B22" s="35">
+        <v>44420.771053045755</v>
       </c>
       <c r="C22" s="38"/>
     </row>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -2345,6 +2345,9 @@
                   <c:v>44419.771053045755</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>44420.771053045755</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>44420.771053045755</c:v>
                 </c:pt>
               </c:numCache>
@@ -3450,7 +3453,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3479,11 +3482,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668495370686287</v>
+        <v>0.91669062500295695</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3504,7 +3507,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44420.771053045755</v>
+        <v>44421.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4071,7 +4074,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4100,11 +4103,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668495370686287</v>
+        <v>0.91669062500295695</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4112,11 +4115,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4125,7 +4128,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44420.771053045755</v>
+        <v>44421.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4671,7 +4674,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4700,11 +4703,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668495370686287</v>
+        <v>0.91669062500295695</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4725,7 +4728,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44420.771053045755</v>
+        <v>44421.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5355,7 +5358,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5384,11 +5387,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668495370686287</v>
+        <v>0.91669062500295695</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5396,11 +5399,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5409,7 +5412,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44420.771053045755</v>
+        <v>44421.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5973,7 +5976,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6002,11 +6005,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668495370686287</v>
+        <v>0.91669062500295695</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6014,11 +6017,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6027,7 +6030,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44420.771053045755</v>
+        <v>44421.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6603,7 +6606,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6632,11 +6635,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91668495370686287</v>
+        <v>0.91669062500295695</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6644,11 +6647,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6657,7 +6660,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44420.771053045755</v>
+        <v>44421.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8373,7 +8376,7 @@
       </c>
       <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="D1" s="38">
         <v>17</v>
@@ -8563,6 +8566,9 @@
     <row r="23" spans="1:3">
       <c r="A23" s="33">
         <v>42791</v>
+      </c>
+      <c r="B23" s="35">
+        <v>44420.771053045755</v>
       </c>
     </row>
     <row r="24" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -2349,6 +2349,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44420.771053045755</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44421.771053045755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3453,7 +3456,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3482,11 +3485,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669062500295695</v>
+        <v>0.54437638889066875</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3494,11 +3497,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3507,7 +3510,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44421.771053045755</v>
+        <v>44423.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4074,7 +4077,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4103,11 +4106,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669062500295695</v>
+        <v>0.54437638889066875</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4115,11 +4118,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4128,7 +4131,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44421.771053045755</v>
+        <v>44423.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4674,7 +4677,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4703,11 +4706,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669062500295695</v>
+        <v>0.54437638889066875</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4728,7 +4731,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44421.771053045755</v>
+        <v>44423.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5358,7 +5361,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5387,11 +5390,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669062500295695</v>
+        <v>0.54437638889066875</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5399,11 +5402,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5412,7 +5415,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44421.771053045755</v>
+        <v>44423.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5976,7 +5979,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6005,11 +6008,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669062500295695</v>
+        <v>0.54437638889066875</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6017,11 +6020,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6030,7 +6033,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44421.771053045755</v>
+        <v>44423.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6606,7 +6609,7 @@
       <c r="C2" s="46"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6635,11 +6638,11 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669062500295695</v>
+        <v>0.54437638889066875</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6647,11 +6650,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6660,7 +6663,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44421.771053045755</v>
+        <v>44423.771053045755</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8376,7 +8379,7 @@
       </c>
       <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42791</v>
+        <v>42793</v>
       </c>
       <c r="D1" s="38">
         <v>17</v>
@@ -8579,6 +8582,9 @@
     <row r="25" spans="1:3">
       <c r="A25" s="33">
         <v>42793</v>
+      </c>
+      <c r="B25" s="35">
+        <v>44421.771053045755</v>
       </c>
     </row>
     <row r="26" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
   <si>
     <t>日期</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">      注册会计师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      精算师</t>
   </si>
   <si>
     <t xml:space="preserve">         分析</t>
@@ -489,6 +486,54 @@
   </si>
   <si>
     <t>精算师数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP神经网络</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP神经网络</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师会计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师金融数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师精算管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师精算模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师寿险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师非寿险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师经济学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2351,7 +2396,7 @@
                   <c:v>44420.771053045755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44421.771053045755</c:v>
+                  <c:v>44451.429589631123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,10 +3469,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3462,7 +3507,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -3485,7 +3530,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.54437638889066875</v>
+        <v>0.90069016203779029</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3493,7 +3538,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1630.7710530457573</v>
+        <v>1658.429589631123</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -3510,7 +3555,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44423.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -3704,7 +3749,7 @@
         <v>星期五</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -3722,7 +3767,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="F21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3739,7 +3784,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="F22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3755,10 +3800,10 @@
         <v>星期一</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3775,7 +3820,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3791,10 +3836,10 @@
         <v>星期三</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3810,10 +3855,10 @@
         <v>星期四</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3910,7 +3955,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3954,7 +3999,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3984,7 +4029,7 @@
         <v>星期二</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4005,6 +4050,9 @@
         <v>42789</v>
       </c>
       <c r="D40" s="10"/>
+      <c r="F40" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4043,11 +4091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4064,7 +4112,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="49"/>
@@ -4083,7 +4131,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -4106,7 +4154,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.54437638889066875</v>
+        <v>0.90069016203779029</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4114,7 +4162,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1630.7710530457573</v>
+        <v>1658.429589631123</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4131,7 +4179,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44423.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4175,6 +4223,9 @@
         <f t="shared" ref="C10:C37" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
         <v>星期五</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:10">
@@ -4189,6 +4240,9 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:10">
@@ -4203,7 +4257,9 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
@@ -4218,10 +4274,10 @@
         <v>星期一</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -4285,10 +4341,10 @@
         <v>星期五</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
@@ -4335,10 +4391,10 @@
         <v>星期一</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -4400,10 +4456,10 @@
         <v>星期五</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -4450,10 +4506,10 @@
         <v>星期一</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4509,10 +4565,10 @@
         <v>星期五</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4556,10 +4612,10 @@
         <v>星期一</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4646,7 +4702,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
@@ -4683,7 +4739,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -4706,7 +4762,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.54437638889066875</v>
+        <v>0.90069016203779029</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4714,7 +4770,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1630.7710530457573</v>
+        <v>1658.429589631123</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4731,7 +4787,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44423.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4776,10 +4832,10 @@
         <v>星期五</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4910,7 +4966,7 @@
         <v>星期六</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
@@ -4929,7 +4985,7 @@
         <v>星期日</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4979,7 +5035,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -5029,10 +5085,10 @@
         <v>星期六</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -5050,10 +5106,10 @@
         <v>星期日</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -5071,7 +5127,7 @@
         <v>星期一</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5088,7 +5144,7 @@
         <v>星期二</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="19"/>
     </row>
@@ -5106,7 +5162,7 @@
         <v>星期三</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5123,7 +5179,7 @@
         <v>星期四</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5156,10 +5212,10 @@
         <v>星期六</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5176,10 +5232,10 @@
         <v>星期日</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -5197,7 +5253,7 @@
         <v>星期一</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5214,7 +5270,7 @@
         <v>星期二</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5232,7 +5288,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F36" s="19"/>
     </row>
@@ -5251,7 +5307,7 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5268,7 +5324,7 @@
         <v>星期五</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5367,7 +5423,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -5390,7 +5446,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.54437638889066875</v>
+        <v>0.90069016203779029</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5398,7 +5454,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1630.7710530457573</v>
+        <v>1658.429589631123</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5415,7 +5471,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44423.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5985,7 +6041,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -6008,7 +6064,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.54437638889066875</v>
+        <v>0.90069016203779029</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6016,7 +6072,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1630.7710530457573</v>
+        <v>1658.429589631123</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6033,7 +6089,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44423.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6615,7 +6671,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -6638,7 +6694,7 @@
       <c r="C3" s="46"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.54437638889066875</v>
+        <v>0.90069016203779029</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6646,7 +6702,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1630.7710530457573</v>
+        <v>1658.429589631123</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6663,7 +6719,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44423.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7193,11 +7249,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7210,7 +7266,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>13</v>
@@ -7219,13 +7275,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -7246,7 +7302,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -7263,11 +7319,11 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E50" si="0">C3*(1-D3)</f>
+        <f t="shared" ref="E3:E59" si="0">C3*(1-D3)</f>
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -7288,7 +7344,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -7309,7 +7365,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -7366,7 +7422,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -7388,29 +7444,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
       <c r="B10" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="25">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="A11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="25">
         <v>15</v>
@@ -7425,10 +7469,10 @@
     </row>
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="25">
         <v>15</v>
@@ -7443,28 +7487,28 @@
     </row>
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C13" s="25">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="25">
         <v>3</v>
@@ -7479,46 +7523,46 @@
     </row>
     <row r="15" spans="1:6" ht="14.25">
       <c r="A15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25">
       <c r="A16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25">
       <c r="A17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="25">
         <v>10</v>
@@ -7533,84 +7577,84 @@
     </row>
     <row r="18" spans="1:6" ht="14.25">
       <c r="A18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="25">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="25">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="30" customFormat="1" ht="14.25">
-      <c r="A19" s="30">
+    <row r="20" spans="1:6" s="30" customFormat="1" ht="14.25">
+      <c r="A20" s="30">
         <v>27</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="B20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="31">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D20" s="30">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E20" s="30">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25">
-      <c r="A20">
+    <row r="21" spans="1:6" ht="14.25">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C21" s="25">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25">
-      <c r="A21">
-        <v>29</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="25">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" ht="14.25">
       <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="C22" s="25">
         <v>10</v>
@@ -7625,28 +7669,28 @@
     </row>
     <row r="23" spans="1:6" ht="14.25">
       <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="C23" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25">
       <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="C24" s="25">
         <v>15</v>
@@ -7661,323 +7705,287 @@
     </row>
     <row r="25" spans="1:6" ht="14.25">
       <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25">
+      <c r="A26">
         <v>34</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C26" s="25">
         <v>10</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D26" s="26">
         <f>130/255</f>
         <v>0.50980392156862742</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>4.9019607843137258</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25">
-      <c r="A26">
+      <c r="F26" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25">
+      <c r="A27">
         <v>35</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C27" s="25">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25">
-      <c r="A27">
+    <row r="28" spans="1:6" ht="14.25">
+      <c r="A28">
         <v>37</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C28" s="25">
         <v>215</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
-      <c r="A28">
+    <row r="29" spans="1:6" ht="14.25">
+      <c r="A29">
         <v>38</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B29" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C29" s="25">
         <v>300</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25">
-      <c r="A29">
-        <v>39</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="25">
-        <v>240</v>
-      </c>
-      <c r="D29">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-    </row>
     <row r="30" spans="1:6" ht="14.25">
       <c r="B30" s="25" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C30" s="25">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25">
+      <c r="B31" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="25">
         <v>20</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f>任务分解!D14</f>
         <v>0.16264294790343076</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>16.747141041931386</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25">
-      <c r="A31">
-        <v>42</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="25">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <f>50/205</f>
-        <v>0.24390243902439024</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>15.121951219512194</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="32" spans="1:6" ht="14.25">
-      <c r="A32">
-        <v>43</v>
-      </c>
       <c r="B32" s="25" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C32" s="25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.25">
-      <c r="A33">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25">
       <c r="B33" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="25">
         <v>40</v>
-      </c>
-      <c r="C33" s="25">
-        <v>10</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25">
-      <c r="A34">
-        <v>46</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25">
+      <c r="B34" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="C34" s="25">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25">
-      <c r="A35">
-        <v>47</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25">
+      <c r="B35" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="C35" s="25">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25">
-      <c r="A36">
-        <v>48</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25">
+      <c r="B36" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="C36" s="25">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25">
-      <c r="A37">
-        <v>49</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25">
+      <c r="B37" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="C37" s="25">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25">
-      <c r="A38">
-        <v>50</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="25">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25">
       <c r="A39">
-        <v>52</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <f>74/205</f>
+        <v>0.36097560975609755</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25">
+        <v>12.780487804878049</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25">
       <c r="A40">
-        <v>53</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C40" s="25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25">
       <c r="A41">
-        <v>55</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="25">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25">
       <c r="A42">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C42" s="25">
         <v>30</v>
@@ -7990,12 +7998,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25">
+    <row r="43" spans="1:6" ht="14.25">
       <c r="A43">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C43" s="25">
         <v>30</v>
@@ -8008,110 +8016,258 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25">
+    <row r="44" spans="1:6" ht="14.25">
       <c r="A44">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C44" s="25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="25">
         <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25">
-      <c r="A45">
-        <v>61</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="25">
-        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25">
       <c r="A46">
-        <v>62</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.25">
-      <c r="B47" s="25" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="C47" s="25">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.25">
-      <c r="B48" s="25" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="C48" s="25">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25">
-      <c r="B49" s="28" t="s">
-        <v>76</v>
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="C49" s="25">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25">
       <c r="A50">
+        <v>56</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="25">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.25">
+      <c r="A51">
+        <v>58</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="25">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.25">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="25">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.25">
+      <c r="A53">
+        <v>61</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="25">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.25">
+      <c r="A54">
+        <v>62</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="25">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.25">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.25">
+      <c r="B56" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="25">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25">
+      <c r="B57" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="25">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.25">
+      <c r="B58" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="25">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.25">
+      <c r="A59">
         <v>65</v>
       </c>
-      <c r="B50" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="28">
+      <c r="B59" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="28">
         <v>60</v>
       </c>
-      <c r="D50">
+      <c r="D59">
         <v>0.6</v>
       </c>
-      <c r="E50">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -8137,21 +8293,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>93</v>
@@ -8166,7 +8322,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -8181,7 +8337,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8196,7 +8352,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -8211,7 +8367,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>79</v>
@@ -8226,7 +8382,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>86</v>
@@ -8241,7 +8397,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -8256,7 +8412,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -8271,7 +8427,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -8286,7 +8442,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8301,7 +8457,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>72</v>
@@ -8316,7 +8472,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -8359,7 +8515,7 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8372,10 +8528,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>71</v>
       </c>
       <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
@@ -8584,7 +8740,7 @@
         <v>42793</v>
       </c>
       <c r="B25" s="35">
-        <v>44421.771053045755</v>
+        <v>44451.429589631123</v>
       </c>
     </row>
     <row r="26" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="134">
   <si>
     <t>日期</t>
   </si>
@@ -536,6 +536,10 @@
     <t>Python</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>MOOC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -547,7 +551,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +635,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +671,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +943,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2396,7 +2434,7 @@
                   <c:v>44420.771053045755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44451.429589631123</c:v>
+                  <c:v>44151.429589631123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,16 +3527,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42793</v>
@@ -3523,14 +3561,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90069016203779029</v>
+        <v>0.91007511573843658</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3538,7 +3576,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1658.429589631123</v>
+        <v>1358.4295896311232</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -3555,7 +3593,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4111,18 +4149,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42793</v>
@@ -4147,14 +4185,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90069016203779029</v>
+        <v>0.91007511573843658</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4162,7 +4200,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1658.429589631123</v>
+        <v>1358.4295896311232</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4179,7 +4217,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4721,16 +4759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42793</v>
@@ -4755,14 +4793,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90069016203779029</v>
+        <v>0.91007511573843658</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4770,7 +4808,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1658.429589631123</v>
+        <v>1358.4295896311232</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4787,7 +4825,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5405,16 +5443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42793</v>
@@ -5439,14 +5477,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90069016203779029</v>
+        <v>0.91007511573843658</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5454,7 +5492,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1658.429589631123</v>
+        <v>1358.4295896311232</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5471,7 +5509,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6023,16 +6061,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42793</v>
@@ -6057,14 +6095,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90069016203779029</v>
+        <v>0.91007511573843658</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6072,7 +6110,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1658.429589631123</v>
+        <v>1358.4295896311232</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6089,7 +6127,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6653,16 +6691,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
         <v>42793</v>
@@ -6687,14 +6725,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90069016203779029</v>
+        <v>0.91007511573843658</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6702,7 +6740,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1658.429589631123</v>
+        <v>1358.4295896311232</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6719,7 +6757,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7252,8 +7290,8 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7448,6 +7486,9 @@
         <v>132</v>
       </c>
       <c r="C10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="A11">
@@ -7780,34 +7821,34 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25">
-      <c r="A29">
+      <c r="A29" s="44">
         <v>38</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="45">
         <v>300</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="44">
         <v>0</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25">
-      <c r="B30" s="25" t="s">
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="14.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="43">
         <v>40</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="42">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8740,7 +8781,7 @@
         <v>42793</v>
       </c>
       <c r="B25" s="35">
-        <v>44451.429589631123</v>
+        <v>44151.429589631123</v>
       </c>
     </row>
     <row r="26" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="138">
   <si>
     <t>日期</t>
   </si>
@@ -538,6 +538,22 @@
   </si>
   <si>
     <t>MOOC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +974,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2435,6 +2454,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44151.429589631123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44152.429589631123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3527,19 +3549,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3561,18 +3583,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91007511573843658</v>
+        <v>0.91732719907304272</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -3580,11 +3602,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3593,7 +3615,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.429589631123</v>
+        <v>44152.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4149,21 +4171,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4185,18 +4207,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91007511573843658</v>
+        <v>0.91732719907304272</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4204,11 +4226,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4217,7 +4239,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.429589631123</v>
+        <v>44152.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4759,19 +4781,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4793,18 +4815,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91007511573843658</v>
+        <v>0.91732719907304272</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -4812,11 +4834,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4825,7 +4847,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.429589631123</v>
+        <v>44152.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5443,19 +5465,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5477,18 +5499,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91007511573843658</v>
+        <v>0.91732719907304272</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5496,11 +5518,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5509,7 +5531,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.429589631123</v>
+        <v>44152.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6061,19 +6083,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6095,18 +6117,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91007511573843658</v>
+        <v>0.91732719907304272</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6114,11 +6136,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6127,7 +6149,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.429589631123</v>
+        <v>44152.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6691,19 +6713,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="37">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6725,18 +6747,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91007511573843658</v>
+        <v>0.91732719907304272</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6744,11 +6766,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6757,7 +6779,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.429589631123</v>
+        <v>44152.429589631123</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7287,11 +7309,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7357,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E59" si="0">C3*(1-D3)</f>
+        <f t="shared" ref="E3:E58" si="0">C3*(1-D3)</f>
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
@@ -7870,7 +7892,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="31" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="25">
@@ -7885,7 +7907,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C33" s="25">
@@ -8256,12 +8278,20 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="25">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="14.25">
       <c r="B56" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="25">
         <v>20</v>
@@ -8272,8 +8302,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25">
-      <c r="B57" s="25" t="s">
-        <v>74</v>
+      <c r="B57" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="25">
         <v>20</v>
@@ -8284,33 +8314,36 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25">
+      <c r="A58">
+        <v>65</v>
+      </c>
       <c r="B58" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="25">
-        <v>20</v>
+        <v>136</v>
+      </c>
+      <c r="C58" s="28">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>0.6</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="14.25">
-      <c r="A59">
-        <v>65</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="28">
-        <v>60</v>
-      </c>
-      <c r="D59">
-        <v>0.6</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
         <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.25">
+      <c r="B61" s="46" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -8556,7 +8589,7 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8576,7 +8609,7 @@
       </c>
       <c r="C1" s="33">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="D1" s="38">
         <v>17</v>
@@ -8787,6 +8820,9 @@
     <row r="26" spans="1:3">
       <c r="A26" s="33">
         <v>42794</v>
+      </c>
+      <c r="B26" s="35">
+        <v>44152.429589631123</v>
       </c>
     </row>
     <row r="27" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
   <si>
     <t>日期</t>
   </si>
@@ -555,6 +555,40 @@
   <si>
     <t>pandas</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学2</t>
+  </si>
+  <si>
+    <t>金融数学3</t>
+  </si>
+  <si>
+    <t>金融数学4</t>
+  </si>
+  <si>
+    <t>金融数学5</t>
+  </si>
+  <si>
+    <t>金融数学6</t>
+  </si>
+  <si>
+    <t>金融数学7</t>
+  </si>
+  <si>
+    <t>金融数学8</t>
+  </si>
+  <si>
+    <t>金融数学9</t>
+  </si>
+  <si>
+    <t>金融数学10</t>
+  </si>
+  <si>
+    <t>金融数学11</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2490,7 @@
                   <c:v>44151.429589631123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44152.429589631123</c:v>
+                  <c:v>44152.379401425351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3624,7 @@
       <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91732719907304272</v>
+        <v>0.99217106481228257</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3598,7 +3632,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.4295896311232</v>
+        <v>1358.3794014253515</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -3615,7 +3649,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -4214,7 +4248,7 @@
       <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91732719907304272</v>
+        <v>0.99217106481228257</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4222,7 +4256,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.4295896311232</v>
+        <v>1358.3794014253515</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4239,7 +4273,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4822,7 +4856,7 @@
       <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91732719907304272</v>
+        <v>0.99217106481228257</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4830,7 +4864,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.4295896311232</v>
+        <v>1358.3794014253515</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -4847,7 +4881,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5506,7 +5540,7 @@
       <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91732719907304272</v>
+        <v>0.99217106481228257</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5514,7 +5548,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.4295896311232</v>
+        <v>1358.3794014253515</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5531,7 +5565,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6124,7 +6158,7 @@
       <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91732719907304272</v>
+        <v>0.99217106481228257</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6132,7 +6166,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.4295896311232</v>
+        <v>1358.3794014253515</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6149,7 +6183,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6754,7 +6788,7 @@
       <c r="C3" s="52"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91732719907304272</v>
+        <v>0.99217106481228257</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6762,7 +6796,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.4295896311232</v>
+        <v>1358.3794014253515</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6779,7 +6813,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7311,9 +7345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7899,11 +7933,12 @@
         <v>40</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <f>任务分解!D28</f>
+        <v>1.2547051442910915E-3</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39.94981179422836</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
@@ -8354,10 +8389,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8572,11 +8607,176 @@
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="26"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="26"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>C17/B17</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D27" si="1">C18/B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27">
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28">
+        <f>SUM(C17:C27)/SUM(B17:B27)</f>
+        <v>1.2547051442910915E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8822,7 +9022,7 @@
         <v>42794</v>
       </c>
       <c r="B26" s="35">
-        <v>44152.429589631123</v>
+        <v>44152.379401425351</v>
       </c>
     </row>
     <row r="27" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>日期</t>
   </si>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>统计预测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>下午写文档</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -505,31 +501,77 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>精算师精算管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师精算模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师寿险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师非寿险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精算师经济学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOOC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学2</t>
+  </si>
+  <si>
+    <t>金融数学3</t>
+  </si>
+  <si>
+    <t>金融数学4</t>
+  </si>
+  <si>
+    <t>金融数学5</t>
+  </si>
+  <si>
+    <t>金融数学6</t>
+  </si>
+  <si>
+    <t>金融数学7</t>
+  </si>
+  <si>
+    <t>金融数学8</t>
+  </si>
+  <si>
+    <t>金融数学9</t>
+  </si>
+  <si>
+    <t>金融数学10</t>
+  </si>
+  <si>
+    <t>金融数学11</t>
+  </si>
+  <si>
+    <t>精算师金融数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>精算师会计</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>精算师金融数学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算师精算管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算师精算模型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算师寿险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算师非寿险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精算师经济学</t>
+    <t>统计预测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -537,58 +579,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MOOC</t>
+    <t>Pandas</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pandas</t>
+    <t>Numpy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>numpy</t>
+    <t>Tkinter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Python</t>
+    <t>MOOC-Python（目的是学架构，学Python的英文交流）</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pandas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融数学1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融数学2</t>
-  </si>
-  <si>
-    <t>金融数学3</t>
-  </si>
-  <si>
-    <t>金融数学4</t>
-  </si>
-  <si>
-    <t>金融数学5</t>
-  </si>
-  <si>
-    <t>金融数学6</t>
-  </si>
-  <si>
-    <t>金融数学7</t>
-  </si>
-  <si>
-    <t>金融数学8</t>
-  </si>
-  <si>
-    <t>金融数学9</t>
-  </si>
-  <si>
-    <t>金融数学10</t>
-  </si>
-  <si>
-    <t>金融数学11</t>
   </si>
 </sst>
 </file>
@@ -737,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -838,17 +842,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,9 +948,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,9 +998,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2491,6 +2478,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44152.379401425351</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44151.923943457972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,10 +3553,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3583,19 +3573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="37">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -3617,30 +3607,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.99217106481228257</v>
+        <v>0.50172997685149312</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3794014253515</v>
+        <v>1356.9239434579738</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3649,7 +3639,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.379401425351</v>
+        <v>44151.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -3842,7 +3832,7 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="6"/>
@@ -3893,11 +3883,11 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3914,7 +3904,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3930,10 +3920,10 @@
         <v>星期三</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3949,10 +3939,10 @@
         <v>星期四</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4049,7 +4039,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4093,7 +4083,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4123,7 +4113,7 @@
         <v>星期二</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4145,7 +4135,7 @@
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +4179,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4205,21 +4195,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
+      <c r="A1" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="37">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4241,30 +4231,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.99217106481228257</v>
+        <v>0.50172997685149312</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3794014253515</v>
+        <v>1356.9239434579738</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4273,7 +4263,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.379401425351</v>
+        <v>44151.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4318,7 +4308,7 @@
         <v>星期五</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4335,7 +4325,7 @@
         <v>星期六</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -4352,7 +4342,7 @@
         <v>星期日</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4368,10 +4358,10 @@
         <v>星期一</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -4435,10 +4425,10 @@
         <v>星期五</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
@@ -4484,11 +4474,11 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>89</v>
+      <c r="D20" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -4534,7 +4524,7 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -4549,11 +4539,11 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>89</v>
+      <c r="D24" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -4600,10 +4590,10 @@
         <v>星期一</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4659,10 +4649,10 @@
         <v>星期五</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4706,10 +4696,10 @@
         <v>星期一</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4796,10 +4786,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4815,19 +4805,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="37">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -4849,30 +4839,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.99217106481228257</v>
+        <v>0.50172997685149312</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3794014253515</v>
+        <v>1356.9239434579738</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4881,7 +4871,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.379401425351</v>
+        <v>44151.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -4926,10 +4916,10 @@
         <v>星期五</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -5060,7 +5050,7 @@
         <v>星期六</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
@@ -5078,7 +5068,7 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5095,7 +5085,7 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1">
@@ -5129,7 +5119,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -5146,7 +5136,7 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -5182,7 +5172,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -5203,7 +5193,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -5221,7 +5211,7 @@
         <v>星期一</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5238,7 +5228,7 @@
         <v>星期二</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="19"/>
     </row>
@@ -5256,7 +5246,7 @@
         <v>星期三</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5273,7 +5263,7 @@
         <v>星期四</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5306,10 +5296,10 @@
         <v>星期六</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5329,7 +5319,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -5347,7 +5337,7 @@
         <v>星期一</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5364,7 +5354,7 @@
         <v>星期二</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5382,7 +5372,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="19"/>
     </row>
@@ -5401,7 +5391,7 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5418,7 +5408,7 @@
         <v>星期五</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5499,19 +5489,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="37">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5533,30 +5523,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.99217106481228257</v>
+        <v>0.50172997685149312</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3794014253515</v>
+        <v>1356.9239434579738</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5565,7 +5555,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.379401425351</v>
+        <v>44151.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -5768,7 +5758,7 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7">
@@ -5816,7 +5806,7 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -6117,19 +6107,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="37">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6151,30 +6141,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.99217106481228257</v>
+        <v>0.50172997685149312</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3794014253515</v>
+        <v>1356.9239434579738</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6183,7 +6173,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.379401425351</v>
+        <v>44151.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6386,7 +6376,7 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7">
@@ -6434,7 +6424,7 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -6731,7 +6721,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6747,19 +6737,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="37">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6781,30 +6771,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.99217106481228257</v>
+        <v>0.50172997685149312</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3794014253515</v>
+        <v>1356.9239434579738</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6813,7 +6803,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.379401425351</v>
+        <v>44151.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7016,7 +7006,7 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7">
@@ -7064,7 +7054,7 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -7343,11 +7333,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7413,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E58" si="0">C3*(1-D3)</f>
+        <f t="shared" ref="E3:E62" si="0">C3*(1-D3)</f>
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
@@ -7539,11 +7529,11 @@
     </row>
     <row r="10" spans="1:6" ht="14.25">
       <c r="B10" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="25"/>
       <c r="F10" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -7708,22 +7698,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="30" customFormat="1" ht="14.25">
-      <c r="A20" s="30">
+    <row r="20" spans="1:6" s="29" customFormat="1" ht="14.25">
+      <c r="A20" s="29">
         <v>27</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="30">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -7877,41 +7867,41 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25">
-      <c r="A29" s="44">
+      <c r="A29" s="43">
         <v>38</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="44">
         <v>300</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="43">
         <v>0</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="41" customFormat="1" ht="14.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="43">
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="14.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="42">
         <v>40</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>1</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25">
       <c r="B31" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="25">
         <v>20</v>
@@ -7926,24 +7916,24 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25">
-      <c r="B32" s="31" t="s">
-        <v>125</v>
+      <c r="B32" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="C32" s="25">
         <v>40</v>
       </c>
       <c r="D32">
         <f>任务分解!D28</f>
-        <v>1.2547051442910915E-3</v>
+        <v>3.7641154328732745E-2</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>39.94981179422836</v>
+        <v>38.494353826850691</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
-      <c r="B33" s="31" t="s">
-        <v>126</v>
+      <c r="B33" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="C33" s="25">
         <v>40</v>
@@ -7958,7 +7948,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25">
       <c r="B34" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" s="25">
         <v>40</v>
@@ -7973,7 +7963,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25">
       <c r="B35" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C35" s="25">
         <v>40</v>
@@ -7988,7 +7978,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.25">
       <c r="B36" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" s="25">
         <v>40</v>
@@ -8003,7 +7993,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25">
       <c r="B37" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" s="25">
         <v>40</v>
@@ -8024,7 +8014,7 @@
       <c r="A39">
         <v>42</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="25">
@@ -8047,7 +8037,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="25">
         <v>20</v>
@@ -8082,7 +8072,7 @@
       <c r="A42">
         <v>46</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="25">
@@ -8100,7 +8090,7 @@
       <c r="A43">
         <v>47</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="25">
@@ -8118,7 +8108,7 @@
       <c r="A44">
         <v>48</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="25">
@@ -8136,7 +8126,7 @@
       <c r="A45">
         <v>49</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="25">
@@ -8154,7 +8144,7 @@
       <c r="A46">
         <v>50</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="25">
@@ -8172,7 +8162,7 @@
       <c r="A47">
         <v>52</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="25">
@@ -8190,7 +8180,7 @@
       <c r="A48">
         <v>53</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="25">
@@ -8208,7 +8198,7 @@
       <c r="A49">
         <v>55</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="25">
@@ -8226,7 +8216,7 @@
       <c r="A50">
         <v>56</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="25">
@@ -8244,7 +8234,7 @@
       <c r="A51">
         <v>58</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="25">
@@ -8262,7 +8252,7 @@
       <c r="A52">
         <v>59</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="25">
@@ -8319,6 +8309,9 @@
       <c r="C55" s="25">
         <v>20</v>
       </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
       <c r="E55">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8331,54 +8324,88 @@
       <c r="C56" s="25">
         <v>20</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.25">
-      <c r="B57" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="25">
-        <v>20</v>
+    <row r="57" spans="1:5">
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="14.25">
-      <c r="A58">
-        <v>65</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="28">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="D58">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="26" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.25">
-      <c r="B61" s="46" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>0.6</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="26" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8391,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8402,21 +8429,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>93</v>
@@ -8431,7 +8458,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -8446,7 +8473,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8461,7 +8488,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -8476,7 +8503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>79</v>
@@ -8491,7 +8518,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>86</v>
@@ -8506,7 +8533,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -8521,7 +8548,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -8536,7 +8563,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -8551,7 +8578,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8566,7 +8593,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12">
         <v>72</v>
@@ -8581,7 +8608,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -8609,22 +8636,22 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B17">
         <v>83</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <f>C17/B17</f>
-        <v>1.2048192771084338E-2</v>
+        <v>0.36144578313253012</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B18">
         <v>108</v>
@@ -8639,7 +8666,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -8654,7 +8681,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B20">
         <v>77</v>
@@ -8669,7 +8696,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21">
         <v>71</v>
@@ -8684,7 +8711,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B22">
         <v>85</v>
@@ -8699,7 +8726,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -8714,7 +8741,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>99</v>
@@ -8729,7 +8756,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -8744,7 +8771,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -8759,7 +8786,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B27">
         <v>85</v>
@@ -8775,7 +8802,7 @@
     <row r="28" spans="1:4">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>1.2547051442910915E-3</v>
+        <v>3.7641154328732745E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8789,13 +8816,13 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="34" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8804,1928 +8831,1931 @@
       <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42794</v>
-      </c>
-      <c r="D1" s="38">
+        <v>42795</v>
+      </c>
+      <c r="D1" s="37">
         <v>17</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>42770</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>44315.682448589192</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>42771</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>44376.682448589192</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>42772</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <f>B3</f>
         <v>44376.682448589192</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>42773</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <f t="shared" ref="B5" si="0">B4</f>
         <v>44376.682448589192</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>42774</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>44379.682448589192</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>42775</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>44380.682448589192</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>42776</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>42777</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>42778</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>44383.682448589192</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>42779</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>42780</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>42781</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>42782</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>42783</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>44388.682448589192</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>42784</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>44389.682448589192</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>42785</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>44390.682448589192</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>42786</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>44390.682448589192</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>42787</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>44386.023912003824</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>42788</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>44418.771053045755</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>42789</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>44419.771053045755</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>42790</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <v>44420.771053045755</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>42791</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <v>44420.771053045755</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>42792</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>42793</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <v>44151.429589631123</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>42794</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="34">
         <v>44152.379401425351</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="33">
+      <c r="A27" s="32">
         <v>42795</v>
       </c>
+      <c r="B27" s="34">
+        <v>44151.923943457972</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>42796</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="33">
+      <c r="A29" s="32">
         <v>42797</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>42798</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>42799</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>42800</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>42801</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="33">
+      <c r="A34" s="32">
         <v>42802</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="33">
+      <c r="A35" s="32">
         <v>42803</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>42804</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <v>42805</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>42806</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="33">
+      <c r="A39" s="32">
         <v>42807</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="33">
+      <c r="A40" s="32">
         <v>42808</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="33">
+      <c r="A41" s="32">
         <v>42809</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="33">
+      <c r="A42" s="32">
         <v>42810</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="33">
+      <c r="A43" s="32">
         <v>42811</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>42812</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="33">
+      <c r="A45" s="32">
         <v>42813</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="33">
+      <c r="A46" s="32">
         <v>42814</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="33">
+      <c r="A47" s="32">
         <v>42815</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="33">
+      <c r="A48" s="32">
         <v>42816</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="33">
+      <c r="A49" s="32">
         <v>42817</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="33">
+      <c r="A50" s="32">
         <v>42818</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="33">
+      <c r="A51" s="32">
         <v>42819</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="33">
+      <c r="A52" s="32">
         <v>42820</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="33">
+      <c r="A53" s="32">
         <v>42821</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="33">
+      <c r="A54" s="32">
         <v>42822</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="33">
+      <c r="A55" s="32">
         <v>42823</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="33">
+      <c r="A56" s="32">
         <v>42824</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="33">
+      <c r="A57" s="32">
         <v>42825</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="33">
+      <c r="A58" s="32">
         <v>42826</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="33">
+      <c r="A59" s="32">
         <v>42827</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="33">
+      <c r="A60" s="32">
         <v>42828</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="33">
+      <c r="A61" s="32">
         <v>42829</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="33">
+      <c r="A62" s="32">
         <v>42830</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="33">
+      <c r="A63" s="32">
         <v>42831</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="33">
+      <c r="A64" s="32">
         <v>42832</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="33">
+      <c r="A65" s="32">
         <v>42833</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="33">
+      <c r="A66" s="32">
         <v>42834</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="33">
+      <c r="A67" s="32">
         <v>42835</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="33">
+      <c r="A68" s="32">
         <v>42836</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="33">
+      <c r="A69" s="32">
         <v>42837</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="33">
+      <c r="A70" s="32">
         <v>42838</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="33">
+      <c r="A71" s="32">
         <v>42839</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="33">
+      <c r="A72" s="32">
         <v>42840</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="33">
+      <c r="A73" s="32">
         <v>42841</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="33">
+      <c r="A74" s="32">
         <v>42842</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="33">
+      <c r="A75" s="32">
         <v>42843</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="33">
+      <c r="A76" s="32">
         <v>42844</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="33">
+      <c r="A77" s="32">
         <v>42845</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="33">
+      <c r="A78" s="32">
         <v>42846</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="33">
+      <c r="A79" s="32">
         <v>42847</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="33">
+      <c r="A80" s="32">
         <v>42848</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="33">
+      <c r="A81" s="32">
         <v>42849</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="33">
+      <c r="A82" s="32">
         <v>42850</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="33">
+      <c r="A83" s="32">
         <v>42851</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="33">
+      <c r="A84" s="32">
         <v>42852</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="33">
+      <c r="A85" s="32">
         <v>42853</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="33">
+      <c r="A86" s="32">
         <v>42854</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="33">
+      <c r="A87" s="32">
         <v>42855</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="33">
+      <c r="A88" s="32">
         <v>42856</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="33">
+      <c r="A89" s="32">
         <v>42857</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="33">
+      <c r="A90" s="32">
         <v>42858</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="33">
+      <c r="A91" s="32">
         <v>42859</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="33">
+      <c r="A92" s="32">
         <v>42860</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="33">
+      <c r="A93" s="32">
         <v>42861</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="33">
+      <c r="A94" s="32">
         <v>42862</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="33">
+      <c r="A95" s="32">
         <v>42863</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="33">
+      <c r="A96" s="32">
         <v>42864</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="33">
+      <c r="A97" s="32">
         <v>42865</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="33">
+      <c r="A98" s="32">
         <v>42866</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="33">
+      <c r="A99" s="32">
         <v>42867</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="33">
+      <c r="A100" s="32">
         <v>42868</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="33">
+      <c r="A101" s="32">
         <v>42869</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="33">
+      <c r="A102" s="32">
         <v>42870</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="33">
+      <c r="A103" s="32">
         <v>42871</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="33">
+      <c r="A104" s="32">
         <v>42872</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="33">
+      <c r="A105" s="32">
         <v>42873</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="33">
+      <c r="A106" s="32">
         <v>42874</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="33">
+      <c r="A107" s="32">
         <v>42875</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="33">
+      <c r="A108" s="32">
         <v>42876</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="33">
+      <c r="A109" s="32">
         <v>42877</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="33">
+      <c r="A110" s="32">
         <v>42878</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="33">
+      <c r="A111" s="32">
         <v>42879</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="33">
+      <c r="A112" s="32">
         <v>42880</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="33">
+      <c r="A113" s="32">
         <v>42881</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="33">
+      <c r="A114" s="32">
         <v>42882</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="33">
+      <c r="A115" s="32">
         <v>42883</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="33">
+      <c r="A116" s="32">
         <v>42884</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="33">
+      <c r="A117" s="32">
         <v>42885</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="33">
+      <c r="A118" s="32">
         <v>42886</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="33">
+      <c r="A119" s="32">
         <v>42887</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="33">
+      <c r="A120" s="32">
         <v>42888</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="33">
+      <c r="A121" s="32">
         <v>42889</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="33">
+      <c r="A122" s="32">
         <v>42890</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="33">
+      <c r="A123" s="32">
         <v>42891</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="33">
+      <c r="A124" s="32">
         <v>42892</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="33">
+      <c r="A125" s="32">
         <v>42893</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="33">
+      <c r="A126" s="32">
         <v>42894</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="33">
+      <c r="A127" s="32">
         <v>42895</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="33">
+      <c r="A128" s="32">
         <v>42896</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="33">
+      <c r="A129" s="32">
         <v>42897</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="33">
+      <c r="A130" s="32">
         <v>42898</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="33">
+      <c r="A131" s="32">
         <v>42899</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="33">
+      <c r="A132" s="32">
         <v>42900</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="33">
+      <c r="A133" s="32">
         <v>42901</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="33">
+      <c r="A134" s="32">
         <v>42902</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="33">
+      <c r="A135" s="32">
         <v>42903</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="33">
+      <c r="A136" s="32">
         <v>42904</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="33">
+      <c r="A137" s="32">
         <v>42905</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="33">
+      <c r="A138" s="32">
         <v>42906</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="33">
+      <c r="A139" s="32">
         <v>42907</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="33">
+      <c r="A140" s="32">
         <v>42908</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="33">
+      <c r="A141" s="32">
         <v>42909</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="33">
+      <c r="A142" s="32">
         <v>42910</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="33">
+      <c r="A143" s="32">
         <v>42911</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="33">
+      <c r="A144" s="32">
         <v>42912</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="33">
+      <c r="A145" s="32">
         <v>42913</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="33">
+      <c r="A146" s="32">
         <v>42914</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="33">
+      <c r="A147" s="32">
         <v>42915</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="33">
+      <c r="A148" s="32">
         <v>42916</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="33">
+      <c r="A149" s="32">
         <v>42917</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="33">
+      <c r="A150" s="32">
         <v>42918</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="33">
+      <c r="A151" s="32">
         <v>42919</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="33">
+      <c r="A152" s="32">
         <v>42920</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="33">
+      <c r="A153" s="32">
         <v>42921</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="33">
+      <c r="A154" s="32">
         <v>42922</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="33">
+      <c r="A155" s="32">
         <v>42923</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="33">
+      <c r="A156" s="32">
         <v>42924</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="33">
+      <c r="A157" s="32">
         <v>42925</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="33">
+      <c r="A158" s="32">
         <v>42926</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="33">
+      <c r="A159" s="32">
         <v>42927</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="33">
+      <c r="A160" s="32">
         <v>42928</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="33">
+      <c r="A161" s="32">
         <v>42929</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="33">
+      <c r="A162" s="32">
         <v>42930</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="33">
+      <c r="A163" s="32">
         <v>42931</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="33">
+      <c r="A164" s="32">
         <v>42932</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="33">
+      <c r="A165" s="32">
         <v>42933</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="33">
+      <c r="A166" s="32">
         <v>42934</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="33">
+      <c r="A167" s="32">
         <v>42935</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="33">
+      <c r="A168" s="32">
         <v>42936</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="33">
+      <c r="A169" s="32">
         <v>42937</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="33">
+      <c r="A170" s="32">
         <v>42938</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="33">
+      <c r="A171" s="32">
         <v>42939</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="33">
+      <c r="A172" s="32">
         <v>42940</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="33">
+      <c r="A173" s="32">
         <v>42941</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="33">
+      <c r="A174" s="32">
         <v>42942</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="33">
+      <c r="A175" s="32">
         <v>42943</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="33">
+      <c r="A176" s="32">
         <v>42944</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="33">
+      <c r="A177" s="32">
         <v>42945</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="33">
+      <c r="A178" s="32">
         <v>42946</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="33">
+      <c r="A179" s="32">
         <v>42947</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="33">
+      <c r="A180" s="32">
         <v>42948</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="33">
+      <c r="A181" s="32">
         <v>42949</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="33">
+      <c r="A182" s="32">
         <v>42950</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="33">
+      <c r="A183" s="32">
         <v>42951</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="33">
+      <c r="A184" s="32">
         <v>42952</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="33">
+      <c r="A185" s="32">
         <v>42953</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="33">
+      <c r="A186" s="32">
         <v>42954</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="33">
+      <c r="A187" s="32">
         <v>42955</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="33">
+      <c r="A188" s="32">
         <v>42956</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="33">
+      <c r="A189" s="32">
         <v>42957</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="33">
+      <c r="A190" s="32">
         <v>42958</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="33">
+      <c r="A191" s="32">
         <v>42959</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="33">
+      <c r="A192" s="32">
         <v>42960</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="33">
+      <c r="A193" s="32">
         <v>42961</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="33">
+      <c r="A194" s="32">
         <v>42962</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="33">
+      <c r="A195" s="32">
         <v>42963</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="33">
+      <c r="A196" s="32">
         <v>42964</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="33">
+      <c r="A197" s="32">
         <v>42965</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="33">
+      <c r="A198" s="32">
         <v>42966</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="33">
+      <c r="A199" s="32">
         <v>42967</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="33">
+      <c r="A200" s="32">
         <v>42968</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="33">
+      <c r="A201" s="32">
         <v>42969</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="33">
+      <c r="A202" s="32">
         <v>42970</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="33">
+      <c r="A203" s="32">
         <v>42971</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="33">
+      <c r="A204" s="32">
         <v>42972</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="33">
+      <c r="A205" s="32">
         <v>42973</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="33">
+      <c r="A206" s="32">
         <v>42974</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="33">
+      <c r="A207" s="32">
         <v>42975</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="33">
+      <c r="A208" s="32">
         <v>42976</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="33">
+      <c r="A209" s="32">
         <v>42977</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="33">
+      <c r="A210" s="32">
         <v>42978</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="33">
+      <c r="A211" s="32">
         <v>42979</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="33">
+      <c r="A212" s="32">
         <v>42980</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="33">
+      <c r="A213" s="32">
         <v>42981</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="33">
+      <c r="A214" s="32">
         <v>42982</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="33">
+      <c r="A215" s="32">
         <v>42983</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="33">
+      <c r="A216" s="32">
         <v>42984</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="33">
+      <c r="A217" s="32">
         <v>42985</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="33">
+      <c r="A218" s="32">
         <v>42986</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="33">
+      <c r="A219" s="32">
         <v>42987</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="33">
+      <c r="A220" s="32">
         <v>42988</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="33">
+      <c r="A221" s="32">
         <v>42989</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="33">
+      <c r="A222" s="32">
         <v>42990</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="33">
+      <c r="A223" s="32">
         <v>42991</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="33">
+      <c r="A224" s="32">
         <v>42992</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="33">
+      <c r="A225" s="32">
         <v>42993</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="33">
+      <c r="A226" s="32">
         <v>42994</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="33">
+      <c r="A227" s="32">
         <v>42995</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="33">
+      <c r="A228" s="32">
         <v>42996</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="33">
+      <c r="A229" s="32">
         <v>42997</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="33">
+      <c r="A230" s="32">
         <v>42998</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="33">
+      <c r="A231" s="32">
         <v>42999</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="33">
+      <c r="A232" s="32">
         <v>43000</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="33">
+      <c r="A233" s="32">
         <v>43001</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="33">
+      <c r="A234" s="32">
         <v>43002</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="33">
+      <c r="A235" s="32">
         <v>43003</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="33">
+      <c r="A236" s="32">
         <v>43004</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="33">
+      <c r="A237" s="32">
         <v>43005</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="33">
+      <c r="A238" s="32">
         <v>43006</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="33">
+      <c r="A239" s="32">
         <v>43007</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="33">
+      <c r="A240" s="32">
         <v>43008</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="33">
+      <c r="A241" s="32">
         <v>43009</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="33">
+      <c r="A242" s="32">
         <v>43010</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="33">
+      <c r="A243" s="32">
         <v>43011</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="33">
+      <c r="A244" s="32">
         <v>43012</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="33">
+      <c r="A245" s="32">
         <v>43013</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="33">
+      <c r="A246" s="32">
         <v>43014</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="33">
+      <c r="A247" s="32">
         <v>43015</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="33">
+      <c r="A248" s="32">
         <v>43016</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="33">
+      <c r="A249" s="32">
         <v>43017</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="33">
+      <c r="A250" s="32">
         <v>43018</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="33">
+      <c r="A251" s="32">
         <v>43019</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="33">
+      <c r="A252" s="32">
         <v>43020</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="33">
+      <c r="A253" s="32">
         <v>43021</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="33">
+      <c r="A254" s="32">
         <v>43022</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="33">
+      <c r="A255" s="32">
         <v>43023</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="33">
+      <c r="A256" s="32">
         <v>43024</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="33">
+      <c r="A257" s="32">
         <v>43025</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="33">
+      <c r="A258" s="32">
         <v>43026</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="33">
+      <c r="A259" s="32">
         <v>43027</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="33">
+      <c r="A260" s="32">
         <v>43028</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="33">
+      <c r="A261" s="32">
         <v>43029</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="33">
+      <c r="A262" s="32">
         <v>43030</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="33">
+      <c r="A263" s="32">
         <v>43031</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="33">
+      <c r="A264" s="32">
         <v>43032</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="33">
+      <c r="A265" s="32">
         <v>43033</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="33">
+      <c r="A266" s="32">
         <v>43034</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="33">
+      <c r="A267" s="32">
         <v>43035</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="33">
+      <c r="A268" s="32">
         <v>43036</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="33">
+      <c r="A269" s="32">
         <v>43037</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="33">
+      <c r="A270" s="32">
         <v>43038</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="33">
+      <c r="A271" s="32">
         <v>43039</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="33">
+      <c r="A272" s="32">
         <v>43040</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="33">
+      <c r="A273" s="32">
         <v>43041</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="33">
+      <c r="A274" s="32">
         <v>43042</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="33">
+      <c r="A275" s="32">
         <v>43043</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="33">
+      <c r="A276" s="32">
         <v>43044</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="33">
+      <c r="A277" s="32">
         <v>43045</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="33">
+      <c r="A278" s="32">
         <v>43046</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="33">
+      <c r="A279" s="32">
         <v>43047</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="33">
+      <c r="A280" s="32">
         <v>43048</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="33">
+      <c r="A281" s="32">
         <v>43049</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="33">
+      <c r="A282" s="32">
         <v>43050</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="33">
+      <c r="A283" s="32">
         <v>43051</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="33">
+      <c r="A284" s="32">
         <v>43052</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="33">
+      <c r="A285" s="32">
         <v>43053</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="33">
+      <c r="A286" s="32">
         <v>43054</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="33">
+      <c r="A287" s="32">
         <v>43055</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="33">
+      <c r="A288" s="32">
         <v>43056</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="33">
+      <c r="A289" s="32">
         <v>43057</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="33">
+      <c r="A290" s="32">
         <v>43058</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="33">
+      <c r="A291" s="32">
         <v>43059</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="33">
+      <c r="A292" s="32">
         <v>43060</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="33">
+      <c r="A293" s="32">
         <v>43061</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="33">
+      <c r="A294" s="32">
         <v>43062</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="33">
+      <c r="A295" s="32">
         <v>43063</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="33">
+      <c r="A296" s="32">
         <v>43064</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="33">
+      <c r="A297" s="32">
         <v>43065</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="33">
+      <c r="A298" s="32">
         <v>43066</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="33">
+      <c r="A299" s="32">
         <v>43067</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="33">
+      <c r="A300" s="32">
         <v>43068</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="33">
+      <c r="A301" s="32">
         <v>43069</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="33">
+      <c r="A302" s="32">
         <v>43070</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="33">
+      <c r="A303" s="32">
         <v>43071</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="33">
+      <c r="A304" s="32">
         <v>43072</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="33">
+      <c r="A305" s="32">
         <v>43073</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="33">
+      <c r="A306" s="32">
         <v>43074</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="33">
+      <c r="A307" s="32">
         <v>43075</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="33">
+      <c r="A308" s="32">
         <v>43076</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="33">
+      <c r="A309" s="32">
         <v>43077</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="33">
+      <c r="A310" s="32">
         <v>43078</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="33">
+      <c r="A311" s="32">
         <v>43079</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="33">
+      <c r="A312" s="32">
         <v>43080</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="33">
+      <c r="A313" s="32">
         <v>43081</v>
       </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="33">
+      <c r="A314" s="32">
         <v>43082</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="33">
+      <c r="A315" s="32">
         <v>43083</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="33">
+      <c r="A316" s="32">
         <v>43084</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="33">
+      <c r="A317" s="32">
         <v>43085</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="33">
+      <c r="A318" s="32">
         <v>43086</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="33">
+      <c r="A319" s="32">
         <v>43087</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="33">
+      <c r="A320" s="32">
         <v>43088</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="33">
+      <c r="A321" s="32">
         <v>43089</v>
       </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="33">
+      <c r="A322" s="32">
         <v>43090</v>
       </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="33">
+      <c r="A323" s="32">
         <v>43091</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="33">
+      <c r="A324" s="32">
         <v>43092</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="33">
+      <c r="A325" s="32">
         <v>43093</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="33">
+      <c r="A326" s="32">
         <v>43094</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="33">
+      <c r="A327" s="32">
         <v>43095</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="33">
+      <c r="A328" s="32">
         <v>43096</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="33"/>
+      <c r="A329" s="32"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="33"/>
+      <c r="A330" s="32"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="33"/>
+      <c r="A331" s="32"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="33"/>
+      <c r="A332" s="32"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="33"/>
+      <c r="A333" s="32"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="33"/>
+      <c r="A334" s="32"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="33"/>
+      <c r="A335" s="32"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="33"/>
+      <c r="A336" s="32"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="33"/>
+      <c r="A337" s="32"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="33"/>
+      <c r="A338" s="32"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="33"/>
+      <c r="A339" s="32"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="33"/>
+      <c r="A340" s="32"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="33"/>
+      <c r="A341" s="32"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="33"/>
+      <c r="A342" s="32"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="33"/>
+      <c r="A343" s="32"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="33"/>
+      <c r="A344" s="32"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="33"/>
+      <c r="A345" s="32"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="33"/>
+      <c r="A346" s="32"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="33"/>
+      <c r="A347" s="32"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="33"/>
+      <c r="A348" s="32"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="33"/>
+      <c r="A349" s="32"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="33"/>
+      <c r="A350" s="32"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="33"/>
+      <c r="A351" s="32"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="33"/>
+      <c r="A352" s="32"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="33"/>
+      <c r="A353" s="32"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="33"/>
+      <c r="A354" s="32"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="33"/>
+      <c r="A355" s="32"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="33"/>
+      <c r="A356" s="32"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="33"/>
+      <c r="A357" s="32"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="33"/>
+      <c r="A358" s="32"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="33"/>
+      <c r="A359" s="32"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="33"/>
+      <c r="A360" s="32"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="33"/>
+      <c r="A361" s="32"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="33"/>
+      <c r="A362" s="32"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="33"/>
+      <c r="A363" s="32"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="33"/>
+      <c r="A364" s="32"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="33"/>
+      <c r="A365" s="32"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="33"/>
+      <c r="A366" s="32"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="33"/>
+      <c r="A367" s="32"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="33"/>
+      <c r="A368" s="32"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="33"/>
+      <c r="A369" s="32"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="33"/>
+      <c r="A370" s="32"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="33"/>
+      <c r="A371" s="32"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="33"/>
+      <c r="A372" s="32"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="33"/>
+      <c r="A373" s="32"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="33"/>
+      <c r="A374" s="32"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="33"/>
+      <c r="A375" s="32"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="33"/>
+      <c r="A376" s="32"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="33"/>
+      <c r="A377" s="32"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="33"/>
+      <c r="A378" s="32"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="33"/>
+      <c r="A379" s="32"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="33"/>
+      <c r="A380" s="32"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="33"/>
+      <c r="A381" s="32"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="33"/>
+      <c r="A382" s="32"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="33"/>
+      <c r="A383" s="32"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="33"/>
+      <c r="A384" s="32"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="33"/>
+      <c r="A385" s="32"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="33"/>
+      <c r="A386" s="32"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="33"/>
+      <c r="A387" s="32"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="33"/>
+      <c r="A388" s="32"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="33"/>
+      <c r="A389" s="32"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="33"/>
+      <c r="A390" s="32"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="33"/>
+      <c r="A391" s="32"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="33"/>
+      <c r="A392" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
   <si>
     <t>日期</t>
   </si>
@@ -89,9 +89,6 @@
     <t xml:space="preserve">      -C++</t>
   </si>
   <si>
-    <t xml:space="preserve">      -系统</t>
-  </si>
-  <si>
     <t xml:space="preserve">      -计算组成</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">      github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      项目管理知识</t>
   </si>
   <si>
     <t xml:space="preserve">      CFA</t>
@@ -592,6 +586,31 @@
   </si>
   <si>
     <t>MOOC-Python（目的是学架构，学Python的英文交流）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ython 学好基础技能，以后在项目中锻炼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      项目管理知识（包括软件工程）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      -操作系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1366,6 +1385,1736 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学习任务!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>剩余工期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="57"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="58"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="59"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="60"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="61"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="62"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-483C-4803-96B7-2BCA9962B0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>学习任务!$E$2:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9019607843137258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.747141041931386</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.494353826850691</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.780487804878049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E5A-4076-BB47-797C2AF61B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2712,7 +4461,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3232,6 +5540,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3591,7 +5934,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -3614,7 +5957,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.50172997685149312</v>
+        <v>0.9167033564808662</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -3833,7 +6176,7 @@
         <v>星期五</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -3851,7 +6194,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="F21" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3868,7 +6211,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="F22" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3884,10 +6227,10 @@
         <v>星期一</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3904,7 +6247,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3920,10 +6263,10 @@
         <v>星期三</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3939,10 +6282,10 @@
         <v>星期四</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4039,7 +6382,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4083,7 +6426,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4113,7 +6456,7 @@
         <v>星期二</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4135,7 +6478,7 @@
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4196,7 +6539,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
@@ -4215,7 +6558,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -4238,7 +6581,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.50172997685149312</v>
+        <v>0.9167033564808662</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4308,7 +6651,7 @@
         <v>星期五</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4325,7 +6668,7 @@
         <v>星期六</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -4342,7 +6685,7 @@
         <v>星期日</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4358,10 +6701,10 @@
         <v>星期一</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -4425,10 +6768,10 @@
         <v>星期五</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
@@ -4475,10 +6818,10 @@
         <v>星期一</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -4540,10 +6883,10 @@
         <v>星期五</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -4590,10 +6933,10 @@
         <v>星期一</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4649,10 +6992,10 @@
         <v>星期五</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4696,10 +7039,10 @@
         <v>星期一</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4823,7 +7166,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -4846,7 +7189,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.50172997685149312</v>
+        <v>0.9167033564808662</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -4916,10 +7259,10 @@
         <v>星期五</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -5050,7 +7393,7 @@
         <v>星期六</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
@@ -5069,7 +7412,7 @@
         <v>星期日</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5119,7 +7462,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -5169,10 +7512,10 @@
         <v>星期六</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -5190,10 +7533,10 @@
         <v>星期日</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -5211,7 +7554,7 @@
         <v>星期一</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5228,7 +7571,7 @@
         <v>星期二</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="19"/>
     </row>
@@ -5246,7 +7589,7 @@
         <v>星期三</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5263,7 +7606,7 @@
         <v>星期四</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5296,10 +7639,10 @@
         <v>星期六</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5316,10 +7659,10 @@
         <v>星期日</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -5337,7 +7680,7 @@
         <v>星期一</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5354,7 +7697,7 @@
         <v>星期二</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5372,7 +7715,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="19"/>
     </row>
@@ -5391,7 +7734,7 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5408,7 +7751,7 @@
         <v>星期五</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5507,7 +7850,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -5530,7 +7873,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.50172997685149312</v>
+        <v>0.9167033564808662</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6125,7 +8468,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -6148,7 +8491,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.50172997685149312</v>
+        <v>0.9167033564808662</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6755,7 +9098,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
@@ -6778,7 +9121,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.50172997685149312</v>
+        <v>0.9167033564808662</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7336,8 +9679,8 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7350,7 +9693,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>13</v>
@@ -7359,13 +9702,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -7386,7 +9729,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -7407,7 +9750,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -7415,7 +9758,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C4" s="25">
         <v>25</v>
@@ -7428,7 +9771,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -7436,7 +9779,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="25">
         <v>25</v>
@@ -7449,7 +9792,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -7457,7 +9800,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="25">
         <v>10</v>
@@ -7475,7 +9818,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="25">
         <v>30</v>
@@ -7493,7 +9836,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="25">
         <v>10</v>
@@ -7506,7 +9849,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -7514,7 +9857,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="25">
         <v>10</v>
@@ -7529,11 +9872,11 @@
     </row>
     <row r="10" spans="1:6" ht="14.25">
       <c r="B10" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="25"/>
       <c r="F10" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -7541,7 +9884,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="25">
         <v>15</v>
@@ -7559,7 +9902,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="25">
         <v>15</v>
@@ -7577,7 +9920,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="25">
         <v>15</v>
@@ -7595,7 +9938,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="25">
         <v>3</v>
@@ -7613,7 +9956,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="25">
         <v>3</v>
@@ -7631,7 +9974,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="25">
         <v>7</v>
@@ -7649,7 +9992,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="25">
         <v>10</v>
@@ -7667,7 +10010,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="25">
         <v>10</v>
@@ -7685,7 +10028,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="25">
         <v>10</v>
@@ -7703,7 +10046,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="30">
         <f>16*7</f>
@@ -7723,7 +10066,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="25">
         <v>15</v>
@@ -7741,7 +10084,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="25">
         <v>10</v>
@@ -7759,7 +10102,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="25">
         <v>10</v>
@@ -7777,7 +10120,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="25">
         <v>15</v>
@@ -7795,7 +10138,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="25">
         <v>15</v>
@@ -7813,7 +10156,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="25">
         <v>10</v>
@@ -7827,7 +10170,7 @@
         <v>4.9019607843137258</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25">
@@ -7835,7 +10178,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="C27" s="25">
         <v>15</v>
@@ -7853,7 +10196,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="25">
         <v>215</v>
@@ -7871,7 +10214,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="44">
         <v>300</v>
@@ -7886,7 +10229,7 @@
     <row r="30" spans="1:6" s="40" customFormat="1" ht="14.25">
       <c r="A30" s="41"/>
       <c r="B30" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="42">
         <v>40</v>
@@ -7901,7 +10244,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.25">
       <c r="B31" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="25">
         <v>20</v>
@@ -7917,7 +10260,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.25">
       <c r="B32" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="25">
         <v>40</v>
@@ -7933,7 +10276,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25">
       <c r="B33" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="25">
         <v>40</v>
@@ -7948,7 +10291,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25">
       <c r="B34" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="25">
         <v>40</v>
@@ -7963,7 +10306,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25">
       <c r="B35" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="25">
         <v>40</v>
@@ -7978,7 +10321,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.25">
       <c r="B36" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="25">
         <v>40</v>
@@ -7993,7 +10336,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25">
       <c r="B37" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="25">
         <v>40</v>
@@ -8015,7 +10358,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="25">
         <v>20</v>
@@ -8029,7 +10372,7 @@
         <v>12.780487804878049</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25">
@@ -8037,7 +10380,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="25">
         <v>20</v>
@@ -8055,7 +10398,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="25">
         <v>10</v>
@@ -8073,7 +10416,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="25">
         <v>30</v>
@@ -8091,7 +10434,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="25">
         <v>30</v>
@@ -8109,7 +10452,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="25">
         <v>26</v>
@@ -8127,7 +10470,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="25">
         <v>30</v>
@@ -8145,7 +10488,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="25">
         <v>30</v>
@@ -8163,7 +10506,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="25">
         <v>30</v>
@@ -8181,7 +10524,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="25">
         <v>30</v>
@@ -8194,12 +10537,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25">
+    <row r="49" spans="1:6" ht="14.25">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="25">
         <v>30</v>
@@ -8212,12 +10555,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.25">
+    <row r="50" spans="1:6" ht="14.25">
       <c r="A50">
         <v>56</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="25">
         <v>30</v>
@@ -8230,12 +10573,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.25">
+    <row r="51" spans="1:6" ht="14.25">
       <c r="A51">
         <v>58</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="25">
         <v>30</v>
@@ -8248,12 +10591,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.25">
+    <row r="52" spans="1:6" ht="14.25">
       <c r="A52">
         <v>59</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="25">
         <v>30</v>
@@ -8266,12 +10609,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.25">
+    <row r="53" spans="1:6" ht="14.25">
       <c r="A53">
         <v>61</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="25">
         <v>10</v>
@@ -8284,12 +10627,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.25">
+    <row r="54" spans="1:6" ht="14.25">
       <c r="A54">
         <v>62</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="25">
         <v>20</v>
@@ -8302,9 +10645,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.25">
+    <row r="55" spans="1:6" ht="14.25">
       <c r="B55" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="25">
         <v>20</v>
@@ -8317,9 +10660,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.25">
+    <row r="56" spans="1:6" ht="14.25">
       <c r="B56" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="25">
         <v>20</v>
@@ -8332,7 +10675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="D57">
         <v>0</v>
       </c>
@@ -8341,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="D58">
         <v>0</v>
       </c>
@@ -8350,9 +10693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="B59" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -8365,9 +10708,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="B60" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -8379,38 +10722,46 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="B61" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="B62" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D62" s="26">
+        <f>25/621</f>
+        <v>4.0257648953301126E-2</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="B63" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8429,21 +10780,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>93</v>
@@ -8458,7 +10809,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -8473,7 +10824,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8488,7 +10839,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -8503,7 +10854,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>79</v>
@@ -8518,7 +10869,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>86</v>
@@ -8533,7 +10884,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -8548,7 +10899,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -8563,7 +10914,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -8578,7 +10929,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8593,7 +10944,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>72</v>
@@ -8608,7 +10959,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -8636,7 +10987,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>83</v>
@@ -8651,7 +11002,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>108</v>
@@ -8666,7 +11017,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -8681,7 +11032,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>77</v>
@@ -8696,7 +11047,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>71</v>
@@ -8711,7 +11062,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22">
         <v>85</v>
@@ -8726,7 +11077,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -8741,7 +11092,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24">
         <v>99</v>
@@ -8756,7 +11107,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -8771,7 +11122,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -8786,7 +11137,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>85</v>
@@ -8829,10 +11180,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -21,13 +21,14 @@
     <sheet name="学习任务" sheetId="11" r:id="rId7"/>
     <sheet name="任务分解" sheetId="22" r:id="rId8"/>
     <sheet name="列表" sheetId="14" r:id="rId9"/>
+    <sheet name="完成的任务" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
   <si>
     <t>日期</t>
   </si>
@@ -512,14 +513,6 @@
   </si>
   <si>
     <t>精算师经济学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOOC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -716,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,18 +737,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,19 +985,16 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2822,10 +2800,10 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>学习任务!$E$2:$E$64</c:f>
+              <c:f>学习任务!$E$2:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -2850,6 +2828,9 @@
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2857,64 +2838,64 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>4.9019607843137258</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.9019607843137258</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>15</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>215</c:v>
+                  <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>38.494353826850691</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.747141041931386</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38.494353826850691</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>40</c:v>
@@ -2923,22 +2904,25 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40</c:v>
+                  <c:v>12.780487804878049</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.780487804878049</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>30</c:v>
@@ -2947,7 +2931,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>30</c:v>
@@ -2962,45 +2946,27 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4230,6 +4196,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44151.923943457972</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44152.923943457972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5548,7 +5517,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5916,19 +5885,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5950,18 +5919,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167033564808662</v>
+        <v>0.91670844907639548</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5969,11 +5938,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5982,7 +5951,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.923943457972</v>
+        <v>44152.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6514,6 +6483,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5">
+      <c r="A1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="41">
+        <v>300</v>
+      </c>
+      <c r="C1" s="40">
+        <v>0</v>
+      </c>
+      <c r="D1" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="43">
+        <v>40</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42">
+        <f>B2*(1-C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
@@ -6538,21 +6552,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6574,18 +6588,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167033564808662</v>
+        <v>0.91670844907639548</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6593,11 +6607,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6606,7 +6620,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.923943457972</v>
+        <v>44152.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7148,19 +7162,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7182,18 +7196,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167033564808662</v>
+        <v>0.91670844907639548</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7201,11 +7215,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7214,7 +7228,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.923943457972</v>
+        <v>44152.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7832,19 +7846,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7866,18 +7880,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167033564808662</v>
+        <v>0.91670844907639548</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7885,11 +7899,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7898,7 +7912,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.923943457972</v>
+        <v>44152.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8450,19 +8464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8484,18 +8498,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167033564808662</v>
+        <v>0.91670844907639548</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8503,11 +8517,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8516,7 +8530,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.923943457972</v>
+        <v>44152.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9080,19 +9094,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9114,18 +9128,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167033564808662</v>
+        <v>0.91670844907639548</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9133,11 +9147,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9146,7 +9160,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44151.923943457972</v>
+        <v>44152.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9676,11 +9690,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9725,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>C2*(1-D2)</f>
+        <f t="shared" ref="E2:E33" si="0">C2*(1-D2)</f>
         <v>20</v>
       </c>
       <c r="F2" s="26" t="s">
@@ -9746,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E62" si="0">C3*(1-D3)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
@@ -9758,7 +9772,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="25">
         <v>25</v>
@@ -9871,20 +9885,29 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
       <c r="B10" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="F10" s="26" t="s">
-        <v>128</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="25">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="A11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="25">
         <v>15</v>
@@ -9899,10 +9922,10 @@
     </row>
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="25">
         <v>15</v>
@@ -9917,28 +9940,28 @@
     </row>
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C13" s="25">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="25">
         <v>3</v>
@@ -9953,46 +9976,46 @@
     </row>
     <row r="15" spans="1:6" ht="14.25">
       <c r="A15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25">
       <c r="A16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25">
       <c r="A17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="25">
         <v>10</v>
@@ -10007,84 +10030,84 @@
     </row>
     <row r="18" spans="1:6" ht="14.25">
       <c r="A18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="25">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="14.25">
+      <c r="A19" s="29">
         <v>27</v>
       </c>
-      <c r="C19" s="25">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>0.3</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="29" customFormat="1" ht="14.25">
-      <c r="A20" s="29">
-        <v>27</v>
-      </c>
-      <c r="B20" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C19" s="30">
         <f>16*7</f>
         <v>112</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D19" s="29">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E19" s="29">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
+    <row r="20" spans="1:6" ht="14.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="25">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" ht="14.25">
       <c r="A21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25">
       <c r="A22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="25">
         <v>10</v>
@@ -10099,28 +10122,28 @@
     </row>
     <row r="23" spans="1:6" ht="14.25">
       <c r="A23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25">
       <c r="A24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="25">
         <v>15</v>
@@ -10135,148 +10158,142 @@
     </row>
     <row r="25" spans="1:6" ht="14.25">
       <c r="A25">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D25" s="26">
+        <f>130/255</f>
+        <v>0.50980392156862742</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25">
       <c r="A26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="C26" s="25">
-        <v>10</v>
-      </c>
-      <c r="D26" s="26">
-        <f>130/255</f>
-        <v>0.50980392156862742</v>
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4.9019607843137258</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25">
       <c r="A27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="C27" s="25">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25">
-      <c r="A28">
-        <v>37</v>
-      </c>
       <c r="B28" s="25" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C28" s="25">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f>任务分解!D14</f>
+        <v>0.16264294790343076</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>16.747141041931386</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25">
-      <c r="A29" s="43">
-        <v>38</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="44">
-        <v>300</v>
-      </c>
-      <c r="D29" s="43">
+      <c r="B29" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="25">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <f>任务分解!D28</f>
+        <v>3.7641154328732745E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>38.494353826850691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25">
+      <c r="B30" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="25">
+        <v>40</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E29" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="14.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="42">
+      <c r="E30">
+        <f t="shared" si="0"/>
         <v>40</v>
-      </c>
-      <c r="D30" s="41">
-        <v>1</v>
-      </c>
-      <c r="E30" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25">
       <c r="B31" s="25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C31" s="25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <f>任务分解!D14</f>
-        <v>0.16264294790343076</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>16.747141041931386</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25">
-      <c r="B32" s="30" t="s">
-        <v>140</v>
+      <c r="B32" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="C32" s="25">
         <v>40</v>
       </c>
       <c r="D32">
-        <f>任务分解!D28</f>
-        <v>3.7641154328732745E-2</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>38.494353826850691</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
-      <c r="B33" s="30" t="s">
-        <v>141</v>
+      <c r="B33" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C33" s="25">
         <v>40</v>
@@ -10291,7 +10308,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25">
       <c r="B34" s="25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C34" s="25">
         <v>40</v>
@@ -10300,123 +10317,146 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E34:E65" si="1">C34*(1-D34)</f>
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25">
-      <c r="B35" s="25" t="s">
-        <v>123</v>
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <f>74/205</f>
+        <v>0.36097560975609755</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>12.780487804878049</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25">
+      <c r="A36">
+        <v>43</v>
+      </c>
       <c r="B36" s="25" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C36" s="25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25">
+      <c r="A37">
+        <v>44</v>
+      </c>
       <c r="B37" s="25" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="C37" s="25">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38">
+        <v>46</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="25">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="14.25">
       <c r="A39">
-        <v>42</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C39" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <f>74/205</f>
-        <v>0.36097560975609755</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>12.780487804878049</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25">
       <c r="A40">
-        <v>43</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="C40" s="25">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25">
       <c r="A41">
-        <v>44</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="C41" s="25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25">
       <c r="A42">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" s="25">
         <v>30</v>
@@ -10425,16 +10465,16 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25">
       <c r="A43">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C43" s="25">
         <v>30</v>
@@ -10443,34 +10483,34 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25">
       <c r="A44">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C44" s="25">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25">
       <c r="A45">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C45" s="25">
         <v>30</v>
@@ -10479,16 +10519,16 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25">
       <c r="A46">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C46" s="25">
         <v>30</v>
@@ -10497,16 +10537,16 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25">
       <c r="A47">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C47" s="25">
         <v>30</v>
@@ -10515,16 +10555,16 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25">
       <c r="A48">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C48" s="25">
         <v>30</v>
@@ -10533,229 +10573,139 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25">
       <c r="A49">
-        <v>55</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="C49" s="25">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25">
       <c r="A50">
-        <v>56</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C50" s="25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25">
-      <c r="A51">
-        <v>58</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>47</v>
+      <c r="B51" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C51" s="25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25">
-      <c r="A52">
-        <v>59</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>48</v>
+      <c r="B52" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C52" s="25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.25">
-      <c r="A53">
-        <v>61</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="25">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.25">
-      <c r="A54">
-        <v>62</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="25">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
       <c r="D54">
+        <v>0.6</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25">
-      <c r="B55" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="25">
-        <v>20</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25">
-      <c r="B56" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="25">
-        <v>20</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="B60" s="26" t="s">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C60">
-        <v>60</v>
-      </c>
-      <c r="D60">
-        <v>0.6</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="26">
+      <c r="D56" s="26">
         <f>25/621</f>
         <v>4.0257648953301126E-2</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
+      <c r="E56">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="B63" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="B64" s="26" t="s">
-        <v>147</v>
+    <row r="57" spans="1:6">
+      <c r="B57" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -10987,7 +10937,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>83</v>
@@ -11002,7 +10952,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18">
         <v>108</v>
@@ -11017,7 +10967,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -11032,7 +10982,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20">
         <v>77</v>
@@ -11047,7 +10997,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>71</v>
@@ -11062,7 +11012,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22">
         <v>85</v>
@@ -11077,7 +11027,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -11092,7 +11042,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24">
         <v>99</v>
@@ -11107,7 +11057,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -11122,7 +11072,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -11137,7 +11087,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27">
         <v>85</v>
@@ -11187,7 +11137,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11414,6 +11364,9 @@
     <row r="28" spans="1:3">
       <c r="A28" s="32">
         <v>42796</v>
+      </c>
+      <c r="B28" s="34">
+        <v>44152.923943457972</v>
       </c>
     </row>
     <row r="29" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -1363,7 +1363,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2999,7 +2998,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4199,6 +4197,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44152.923943457972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44155.923943457972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,7 +5898,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5926,11 +5927,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670844907639548</v>
+        <v>0.9167127314794925</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5938,11 +5939,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5951,7 +5952,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.923943457972</v>
+        <v>44155.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6566,7 +6567,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6595,11 +6596,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670844907639548</v>
+        <v>0.9167127314794925</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6607,11 +6608,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6620,7 +6621,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.923943457972</v>
+        <v>44155.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7174,7 +7175,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7203,11 +7204,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670844907639548</v>
+        <v>0.9167127314794925</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7215,11 +7216,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7228,7 +7229,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.923943457972</v>
+        <v>44155.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7858,7 +7859,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7887,11 +7888,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670844907639548</v>
+        <v>0.9167127314794925</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7899,11 +7900,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7912,7 +7913,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.923943457972</v>
+        <v>44155.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8476,7 +8477,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8505,11 +8506,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670844907639548</v>
+        <v>0.9167127314794925</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8517,11 +8518,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8530,7 +8531,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.923943457972</v>
+        <v>44155.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9106,7 +9107,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9135,11 +9136,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670844907639548</v>
+        <v>0.9167127314794925</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9147,11 +9148,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-34</v>
+        <v>-37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9160,7 +9161,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44152.923943457972</v>
+        <v>44155.923943457972</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9692,9 +9693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10317,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">C34*(1-D34)</f>
+        <f t="shared" ref="E34:E56" si="1">C34*(1-D34)</f>
         <v>40</v>
       </c>
     </row>
@@ -10719,7 +10720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -11137,7 +11138,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11382,6 +11383,9 @@
     <row r="31" spans="1:3">
       <c r="A31" s="32">
         <v>42799</v>
+      </c>
+      <c r="B31" s="34">
+        <v>44155.923943457972</v>
       </c>
     </row>
     <row r="32" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>日期</t>
   </si>
@@ -604,6 +604,23 @@
   </si>
   <si>
     <t xml:space="preserve">      -操作系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5小时做了45题</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2885,7 +2902,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.494353826850691</c:v>
+                  <c:v>35.834378920953576</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4199,7 +4216,7 @@
                   <c:v>44152.923943457972</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44155.923943457972</c:v>
+                  <c:v>44153.263968552077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5927,7 +5944,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167127314794925</v>
+        <v>0.93924016203527572</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5935,7 +5952,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.9239434579738</v>
+        <v>1354.2639685520767</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -5952,7 +5969,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6596,7 +6613,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167127314794925</v>
+        <v>0.93924016203527572</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6604,7 +6621,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.9239434579738</v>
+        <v>1354.2639685520767</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6621,7 +6638,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7204,7 +7221,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167127314794925</v>
+        <v>0.93924016203527572</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7212,7 +7229,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.9239434579738</v>
+        <v>1354.2639685520767</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -7229,7 +7246,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7888,7 +7905,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167127314794925</v>
+        <v>0.93924016203527572</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7896,7 +7913,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.9239434579738</v>
+        <v>1354.2639685520767</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -7913,7 +7930,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8506,7 +8523,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167127314794925</v>
+        <v>0.93924016203527572</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -8514,7 +8531,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.9239434579738</v>
+        <v>1354.2639685520767</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -8531,7 +8548,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9136,7 +9153,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167127314794925</v>
+        <v>0.93924016203527572</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -9144,7 +9161,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.9239434579738</v>
+        <v>1354.2639685520767</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -9161,7 +9178,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10240,11 +10257,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>3.7641154328732745E-2</v>
+        <v>0.10414052697616061</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>38.494353826850691</v>
+        <v>35.834378920953576</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10721,7 +10738,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10936,7 +10953,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
         <v>127</v>
       </c>
@@ -10944,14 +10961,17 @@
         <v>83</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <f>C17/B17</f>
-        <v>0.36144578313253012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
         <v>128</v>
       </c>
@@ -10966,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
         <v>129</v>
       </c>
@@ -10981,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
         <v>130</v>
       </c>
@@ -10996,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
         <v>131</v>
       </c>
@@ -11011,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
         <v>132</v>
       </c>
@@ -11026,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
         <v>133</v>
       </c>
@@ -11041,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
         <v>134</v>
       </c>
@@ -11056,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
         <v>135</v>
       </c>
@@ -11071,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
         <v>136</v>
       </c>
@@ -11086,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
         <v>137</v>
       </c>
@@ -11101,10 +11121,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>3.7641154328732745E-2</v>
+        <v>0.10414052697616061</v>
       </c>
     </row>
   </sheetData>
@@ -11385,7 +11405,7 @@
         <v>42799</v>
       </c>
       <c r="B31" s="34">
-        <v>44155.923943457972</v>
+        <v>44153.263968552077</v>
       </c>
     </row>
     <row r="32" spans="1:3">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>日期</t>
   </si>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>精算师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>课程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -621,6 +617,18 @@
       </rPr>
       <t>.5小时做了45题</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学1章完成！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午金融数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午会计财务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4217,6 +4225,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44153.263968552077</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44154.263968552077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,7 +5926,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5944,11 +5955,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93924016203527572</v>
+        <v>0.91669293981249211</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5956,11 +5967,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5969,7 +5980,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44153.263968552077</v>
+        <v>44154.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6443,7 +6454,7 @@
         <v>星期二</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6465,7 +6476,7 @@
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6538,7 @@
     </row>
     <row r="2" spans="1:4" ht="28.5">
       <c r="A2" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="43">
         <v>40</v>
@@ -6554,7 +6565,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6571,7 +6582,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="52"/>
@@ -6584,7 +6595,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6613,11 +6624,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93924016203527572</v>
+        <v>0.91669293981249211</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6625,11 +6636,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6638,7 +6649,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44153.263968552077</v>
+        <v>44154.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -6683,7 +6694,7 @@
         <v>星期五</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -6700,7 +6711,7 @@
         <v>星期六</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -6717,7 +6728,7 @@
         <v>星期日</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6733,10 +6744,10 @@
         <v>星期一</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -6800,10 +6811,10 @@
         <v>星期五</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
@@ -6836,6 +6847,9 @@
         <v>星期日</v>
       </c>
       <c r="D19" s="12"/>
+      <c r="F19" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
@@ -6850,10 +6864,10 @@
         <v>星期一</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -6915,10 +6929,10 @@
         <v>星期五</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -6965,10 +6979,10 @@
         <v>星期一</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7024,10 +7038,10 @@
         <v>星期五</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7071,10 +7085,10 @@
         <v>星期一</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7160,11 +7174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7192,7 +7206,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7221,11 +7235,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93924016203527572</v>
+        <v>0.91669293981249211</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7233,11 +7247,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7246,7 +7260,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44153.263968552077</v>
+        <v>44154.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -7291,10 +7305,10 @@
         <v>星期五</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -7425,7 +7439,7 @@
         <v>星期六</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="19"/>
@@ -7674,7 +7688,7 @@
         <v>82</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7694,7 +7708,7 @@
         <v>61</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -7711,9 +7725,7 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
@@ -7728,9 +7740,7 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
@@ -7746,9 +7756,7 @@
         <v>星期三</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
@@ -7765,9 +7773,7 @@
         <v>星期四</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
@@ -7782,9 +7788,7 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
@@ -7876,7 +7880,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7905,11 +7909,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93924016203527572</v>
+        <v>0.91669293981249211</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7917,11 +7921,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7930,7 +7934,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44153.263968552077</v>
+        <v>44154.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -8494,7 +8498,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8523,11 +8527,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93924016203527572</v>
+        <v>0.91669293981249211</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8535,11 +8539,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8548,7 +8552,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44153.263968552077</v>
+        <v>44154.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9124,7 +9128,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9153,11 +9157,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.93924016203527572</v>
+        <v>0.91669293981249211</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9165,11 +9169,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9178,7 +9182,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44153.263968552077</v>
+        <v>44154.263968552077</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9790,7 +9794,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="25">
         <v>25</v>
@@ -10201,7 +10205,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="25">
         <v>15</v>
@@ -10234,7 +10238,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.25">
       <c r="B28" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="25">
         <v>20</v>
@@ -10250,7 +10254,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.25">
       <c r="B29" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="25">
         <v>40</v>
@@ -10266,7 +10270,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.25">
       <c r="B30" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="25">
         <v>40</v>
@@ -10281,7 +10285,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.25">
       <c r="B31" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="25">
         <v>40</v>
@@ -10296,7 +10300,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.25">
       <c r="B32" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="25">
         <v>40</v>
@@ -10311,7 +10315,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25">
       <c r="B33" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="25">
         <v>40</v>
@@ -10326,7 +10330,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25">
       <c r="B34" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="25">
         <v>40</v>
@@ -10663,7 +10667,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="B53" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -10678,7 +10682,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54">
         <v>60</v>
@@ -10691,12 +10695,12 @@
         <v>24</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="B55" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
@@ -10705,7 +10709,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="B56" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="26">
         <f>25/621</f>
@@ -10718,12 +10722,12 @@
     </row>
     <row r="57" spans="1:6">
       <c r="B57" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -10737,7 +10741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -10748,21 +10752,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>93</v>
@@ -10777,7 +10781,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>105</v>
@@ -10792,7 +10796,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -10807,7 +10811,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -10822,7 +10826,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>79</v>
@@ -10837,7 +10841,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>86</v>
@@ -10852,7 +10856,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -10867,7 +10871,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -10882,7 +10886,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -10897,7 +10901,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -10912,7 +10916,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>72</v>
@@ -10927,7 +10931,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -10955,7 +10959,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>83</v>
@@ -10968,12 +10972,12 @@
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>108</v>
@@ -10988,7 +10992,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -11003,7 +11007,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>77</v>
@@ -11018,7 +11022,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>71</v>
@@ -11033,7 +11037,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>85</v>
@@ -11048,7 +11052,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -11063,7 +11067,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>99</v>
@@ -11078,7 +11082,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -11093,7 +11097,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -11108,7 +11112,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27">
         <v>85</v>
@@ -11137,8 +11141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11158,7 +11162,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11411,6 +11415,9 @@
     <row r="32" spans="1:3">
       <c r="A32" s="32">
         <v>42800</v>
+      </c>
+      <c r="B32" s="34">
+        <v>44154.263968552077</v>
       </c>
     </row>
     <row r="33" spans="1:1">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
   <si>
     <t>日期</t>
   </si>
@@ -629,6 +629,14 @@
   </si>
   <si>
     <t>下午会计财务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDAII</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDAII</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2910,7 +2918,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.834378920953576</c:v>
+                  <c:v>35.181932245922212</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4228,6 +4236,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44154.263968552077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44154.611521877043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5897,7 +5908,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5926,7 +5937,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5955,23 +5966,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669293981249211</v>
+        <v>0.9167041666660225</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1354.2639685520767</v>
+        <v>1353.6115218770453</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5980,7 +5991,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.263968552077</v>
+        <v>44154.611521877043</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6561,11 +6572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6595,7 +6606,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6624,23 +6635,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669293981249211</v>
+        <v>0.9167041666660225</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1354.2639685520767</v>
+        <v>1353.6115218770453</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6649,10 +6660,10 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.263968552077</v>
+        <v>44154.611521877043</v>
       </c>
       <c r="G4" s="16">
-        <v>42762</v>
+        <v>42840</v>
       </c>
       <c r="H4" s="16">
         <v>43006</v>
@@ -7174,11 +7185,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7206,7 +7217,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7235,23 +7246,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669293981249211</v>
+        <v>0.9167041666660225</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1354.2639685520767</v>
+        <v>1353.6115218770453</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7260,10 +7271,10 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.263968552077</v>
+        <v>44154.611521877043</v>
       </c>
       <c r="G4" s="16">
-        <v>42762</v>
+        <v>42840</v>
       </c>
       <c r="H4" s="16">
         <v>43006</v>
@@ -7852,7 +7863,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7880,7 +7891,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7909,23 +7920,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669293981249211</v>
+        <v>0.9167041666660225</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1354.2639685520767</v>
+        <v>1353.6115218770453</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7934,10 +7945,10 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.263968552077</v>
+        <v>44154.611521877043</v>
       </c>
       <c r="G4" s="16">
-        <v>42762</v>
+        <v>42840</v>
       </c>
       <c r="H4" s="16">
         <v>43006</v>
@@ -8470,7 +8481,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:C40"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8498,7 +8509,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8527,23 +8538,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669293981249211</v>
+        <v>0.9167041666660225</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1354.2639685520767</v>
+        <v>1353.6115218770453</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8552,10 +8563,10 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.263968552077</v>
+        <v>44154.611521877043</v>
       </c>
       <c r="G4" s="16">
-        <v>42762</v>
+        <v>42840</v>
       </c>
       <c r="H4" s="16">
         <v>43006</v>
@@ -9097,10 +9108,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9128,7 +9139,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9157,23 +9168,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91669293981249211</v>
+        <v>0.9167041666660225</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1354.2639685520767</v>
+        <v>1353.6115218770453</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9182,7 +9193,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.263968552077</v>
+        <v>44154.611521877043</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9225,6 +9236,9 @@
       <c r="C10" s="1" t="str">
         <f t="shared" ref="C10:C39" si="2">TEXT(WEEKDAY(A10),"aaaa")</f>
         <v>星期六</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -9240,6 +9254,9 @@
       <c r="C11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期日</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -9715,7 +9732,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -10261,11 +10278,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.10414052697616061</v>
+        <v>0.12045169385194479</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>35.834378920953576</v>
+        <v>35.181932245922212</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10742,7 +10759,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10983,11 +11000,11 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="1">C18/B18</f>
-        <v>0</v>
+        <v>0.12037037037037036</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11128,7 +11145,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.10414052697616061</v>
+        <v>0.12045169385194479</v>
       </c>
     </row>
   </sheetData>
@@ -11162,7 +11179,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11420,82 +11437,85 @@
         <v>44154.263968552077</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" s="32">
         <v>42801</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="34">
+        <v>44154.611521877043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="32">
         <v>42802</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" s="32">
         <v>42803</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" s="32">
         <v>42804</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" s="32">
         <v>42805</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" s="32">
         <v>42806</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" s="32">
         <v>42807</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2">
       <c r="A40" s="32">
         <v>42808</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" s="32">
         <v>42809</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" s="32">
         <v>42810</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" s="32">
         <v>42811</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" s="32">
         <v>42812</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" s="32">
         <v>42813</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2">
       <c r="A46" s="32">
         <v>42814</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:2">
       <c r="A47" s="32">
         <v>42815</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" s="32">
         <v>42816</v>
       </c>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="155">
   <si>
     <t>日期</t>
   </si>
@@ -637,6 +637,10 @@
   </si>
   <si>
     <t>CDAII</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00~17:00百度技术分享</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2918,7 +2922,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.181932245922212</c:v>
+                  <c:v>34.880803011292343</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4239,6 +4243,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44154.611521877043</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44155.310392642416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5937,7 +5944,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5966,23 +5973,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167041666660225</v>
+        <v>0.91671898148342734</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.6115218770453</v>
+        <v>1353.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5991,7 +5998,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.611521877043</v>
+        <v>44155.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6576,7 +6583,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6606,7 +6613,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6635,23 +6642,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167041666660225</v>
+        <v>0.91671898148342734</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.6115218770453</v>
+        <v>1353.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6660,7 +6667,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.611521877043</v>
+        <v>44155.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6959,7 +6966,9 @@
         <f t="shared" si="2"/>
         <v>星期六</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:7">
@@ -7217,7 +7226,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7246,23 +7255,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167041666660225</v>
+        <v>0.91671898148342734</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.6115218770453</v>
+        <v>1353.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7271,7 +7280,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.611521877043</v>
+        <v>44155.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7891,7 +7900,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7920,23 +7929,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167041666660225</v>
+        <v>0.91671898148342734</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.6115218770453</v>
+        <v>1353.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7945,7 +7954,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.611521877043</v>
+        <v>44155.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8509,7 +8518,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8538,23 +8547,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167041666660225</v>
+        <v>0.91671898148342734</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.6115218770453</v>
+        <v>1353.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8563,7 +8572,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.611521877043</v>
+        <v>44155.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9139,7 +9148,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9168,23 +9177,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167041666660225</v>
+        <v>0.91671898148342734</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.6115218770453</v>
+        <v>1353.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9193,7 +9202,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44154.611521877043</v>
+        <v>44155.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10278,11 +10287,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.12045169385194479</v>
+        <v>0.12797992471769135</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>35.181932245922212</v>
+        <v>34.880803011292343</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -11000,11 +11009,11 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="1">C18/B18</f>
-        <v>0.12037037037037036</v>
+        <v>0.17592592592592593</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11145,7 +11154,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.12045169385194479</v>
+        <v>0.12797992471769135</v>
       </c>
     </row>
   </sheetData>
@@ -11179,7 +11188,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11448,6 +11457,9 @@
     <row r="34" spans="1:2">
       <c r="A34" s="32">
         <v>42802</v>
+      </c>
+      <c r="B34" s="34">
+        <v>44155.310392642416</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -2997,7 +2997,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24</c:v>
+                  <c:v>11.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -4246,6 +4246,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44155.310392642416</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44144.310392642416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5944,7 +5947,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5973,23 +5976,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671898148342734</v>
+        <v>0.91670752314530546</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.3103926424155</v>
+        <v>1341.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5998,7 +6001,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.310392642416</v>
+        <v>44144.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6579,11 +6582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6613,7 +6616,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6642,23 +6645,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671898148342734</v>
+        <v>0.91670752314530546</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.3103926424155</v>
+        <v>1341.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6667,7 +6670,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.310392642416</v>
+        <v>44144.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7226,7 +7229,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7255,23 +7258,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671898148342734</v>
+        <v>0.91670752314530546</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.3103926424155</v>
+        <v>1341.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7280,7 +7283,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.310392642416</v>
+        <v>44144.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7900,7 +7903,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7929,23 +7932,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671898148342734</v>
+        <v>0.91670752314530546</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.3103926424155</v>
+        <v>1341.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7954,7 +7957,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.310392642416</v>
+        <v>44144.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8518,7 +8521,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8547,23 +8550,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671898148342734</v>
+        <v>0.91670752314530546</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.3103926424155</v>
+        <v>1341.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8572,7 +8575,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.310392642416</v>
+        <v>44144.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9148,7 +9151,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9177,23 +9180,23 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671898148342734</v>
+        <v>0.91670752314530546</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.3103926424155</v>
+        <v>1341.3103926424155</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-40</v>
+        <v>-41</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9202,7 +9205,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44155.310392642416</v>
+        <v>44144.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9740,9 +9743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10714,11 +10717,11 @@
         <v>60</v>
       </c>
       <c r="D54">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>11.999999999999996</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>145</v>
@@ -11188,7 +11191,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11465,6 +11468,9 @@
     <row r="35" spans="1:2">
       <c r="A35" s="32">
         <v>42803</v>
+      </c>
+      <c r="B35" s="34">
+        <v>44144.310392642416</v>
       </c>
     </row>
     <row r="36" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4248,6 +4248,9 @@
                   <c:v>44155.310392642416</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>44144.310392642416</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>44144.310392642416</c:v>
                 </c:pt>
               </c:numCache>
@@ -5947,7 +5950,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5976,11 +5979,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670752314530546</v>
+        <v>0.94647199074097443</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -5988,11 +5991,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6001,7 +6004,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44144.310392642416</v>
+        <v>44145.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6616,7 +6619,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6645,11 +6648,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670752314530546</v>
+        <v>0.94647199074097443</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6657,11 +6660,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6670,7 +6673,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44144.310392642416</v>
+        <v>44145.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7229,7 +7232,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7258,11 +7261,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670752314530546</v>
+        <v>0.94647199074097443</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7270,11 +7273,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7283,7 +7286,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44144.310392642416</v>
+        <v>44145.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7903,7 +7906,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7932,11 +7935,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670752314530546</v>
+        <v>0.94647199074097443</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7944,11 +7947,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7957,7 +7960,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44144.310392642416</v>
+        <v>44145.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8521,7 +8524,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8550,11 +8553,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670752314530546</v>
+        <v>0.94647199074097443</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8562,11 +8565,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8575,7 +8578,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44144.310392642416</v>
+        <v>44145.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9151,7 +9154,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9180,11 +9183,11 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670752314530546</v>
+        <v>0.94647199074097443</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9192,11 +9195,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9205,7 +9208,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44144.310392642416</v>
+        <v>44145.310392642416</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11191,7 +11194,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11476,6 +11479,9 @@
     <row r="36" spans="1:2">
       <c r="A36" s="32">
         <v>42804</v>
+      </c>
+      <c r="B36" s="34">
+        <v>44144.310392642416</v>
       </c>
     </row>
     <row r="37" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -2922,7 +2922,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.880803011292343</c:v>
+                  <c:v>32.722710163111671</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4251,7 +4251,7 @@
                   <c:v>44144.310392642416</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44144.310392642416</c:v>
+                  <c:v>44143.152299794237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5979,7 +5979,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.94647199074097443</v>
+        <v>0.95401249999849824</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1341.3103926424155</v>
+        <v>1339.1522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44145.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6648,7 +6648,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.94647199074097443</v>
+        <v>0.95401249999849824</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1341.3103926424155</v>
+        <v>1339.1522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44145.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7261,7 +7261,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.94647199074097443</v>
+        <v>0.95401249999849824</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1341.3103926424155</v>
+        <v>1339.1522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44145.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7935,7 +7935,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.94647199074097443</v>
+        <v>0.95401249999849824</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1341.3103926424155</v>
+        <v>1339.1522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44145.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8553,7 +8553,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.94647199074097443</v>
+        <v>0.95401249999849824</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1341.3103926424155</v>
+        <v>1339.1522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44145.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9183,7 +9183,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.94647199074097443</v>
+        <v>0.95401249999849824</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1341.3103926424155</v>
+        <v>1339.1522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44145.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9746,7 +9746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
@@ -10293,11 +10293,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.12797992471769135</v>
+        <v>0.18193224592220827</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>34.880803011292343</v>
+        <v>32.722710163111671</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10773,8 +10773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11015,11 +11015,11 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="1">C18/B18</f>
-        <v>0.17592592592592593</v>
+        <v>0.57407407407407407</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11160,7 +11160,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.12797992471769135</v>
+        <v>0.18193224592220827</v>
       </c>
     </row>
   </sheetData>
@@ -11481,7 +11481,7 @@
         <v>42804</v>
       </c>
       <c r="B36" s="34">
-        <v>44144.310392642416</v>
+        <v>44143.152299794237</v>
       </c>
     </row>
     <row r="37" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -641,6 +641,18 @@
   </si>
   <si>
     <t>13:00~17:00百度技术分享</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午课程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午讲神经网络，下午学了pandas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,6 +1044,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3000,7 +3015,7 @@
                   <c:v>11.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -4252,6 +4267,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44143.152299794237</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44162.352299794235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,19 +5956,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5972,30 +5990,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.95401249999849824</v>
+        <v>0.91671064814727288</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1339.1522997942348</v>
+        <v>1358.3522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6004,7 +6022,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44143.152299794237</v>
+        <v>44163.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6589,7 +6607,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6605,21 +6623,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6641,30 +6659,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.95401249999849824</v>
+        <v>0.91671064814727288</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1339.1522997942348</v>
+        <v>1358.3522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6673,7 +6691,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44143.152299794237</v>
+        <v>44163.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6923,6 +6941,9 @@
         <v>星期三</v>
       </c>
       <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:7">
@@ -6938,6 +6959,9 @@
         <v>星期四</v>
       </c>
       <c r="D23" s="28"/>
+      <c r="E23" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -6953,7 +6977,7 @@
         <v>星期五</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>90</v>
@@ -7220,19 +7244,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7254,30 +7278,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.95401249999849824</v>
+        <v>0.91671064814727288</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1339.1522997942348</v>
+        <v>1358.3522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7286,7 +7310,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44143.152299794237</v>
+        <v>44163.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7894,19 +7918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7928,30 +7952,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.95401249999849824</v>
+        <v>0.91671064814727288</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1339.1522997942348</v>
+        <v>1358.3522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7960,7 +7984,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44143.152299794237</v>
+        <v>44163.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8512,19 +8536,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8546,30 +8570,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.95401249999849824</v>
+        <v>0.91671064814727288</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1339.1522997942348</v>
+        <v>1358.3522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8578,7 +8602,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44143.152299794237</v>
+        <v>44163.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9142,19 +9166,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9176,30 +9200,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.95401249999849824</v>
+        <v>0.91671064814727288</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1339.1522997942348</v>
+        <v>1358.3522997942348</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-42</v>
+        <v>-43</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9208,7 +9232,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44143.152299794237</v>
+        <v>44163.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9746,9 +9770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10730,13 +10754,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="14.25">
       <c r="B55" s="26" t="s">
         <v>141</v>
       </c>
+      <c r="C55" s="44">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>0.04</v>
+      </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -10773,7 +10803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -11194,7 +11224,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11487,6 +11517,9 @@
     <row r="37" spans="1:2">
       <c r="A37" s="32">
         <v>42805</v>
+      </c>
+      <c r="B37" s="34">
+        <v>44162.352299794235</v>
       </c>
     </row>
     <row r="38" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4270,6 +4270,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44162.352299794235</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44163.352299794235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,7 +5971,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -5997,11 +6000,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671064814727288</v>
+        <v>0.91672511574142845</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6009,11 +6012,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6022,7 +6025,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.352299794235</v>
+        <v>44164.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6637,7 +6640,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6666,11 +6669,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671064814727288</v>
+        <v>0.91672511574142845</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6678,11 +6681,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6691,7 +6694,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.352299794235</v>
+        <v>44164.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7256,7 +7259,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7285,11 +7288,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671064814727288</v>
+        <v>0.91672511574142845</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7297,11 +7300,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7310,7 +7313,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.352299794235</v>
+        <v>44164.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7930,7 +7933,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7959,11 +7962,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671064814727288</v>
+        <v>0.91672511574142845</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7971,11 +7974,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7984,7 +7987,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.352299794235</v>
+        <v>44164.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8548,7 +8551,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8577,11 +8580,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671064814727288</v>
+        <v>0.91672511574142845</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8589,11 +8592,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8602,7 +8605,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.352299794235</v>
+        <v>44164.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9178,7 +9181,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9207,11 +9210,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671064814727288</v>
+        <v>0.91672511574142845</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9219,11 +9222,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9232,7 +9235,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.352299794235</v>
+        <v>44164.352299794235</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11224,7 +11227,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11525,6 +11528,9 @@
     <row r="38" spans="1:2">
       <c r="A38" s="32">
         <v>42806</v>
+      </c>
+      <c r="B38" s="34">
+        <v>44163.352299794235</v>
       </c>
     </row>
     <row r="39" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
   <si>
     <t>日期</t>
   </si>
@@ -653,6 +653,10 @@
   </si>
   <si>
     <t>pandas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学2章，108题完成！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2937,7 +2941,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.722710163111671</c:v>
+                  <c:v>30.414052697616061</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4273,6 +4277,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44163.352299794235</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44163.043642328739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5971,7 +5978,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6000,23 +6007,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672511574142845</v>
+        <v>0.91672905092855217</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3522997942348</v>
+        <v>1356.0436423287392</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6025,7 +6032,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.352299794235</v>
+        <v>44163.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6606,11 +6613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6640,7 +6647,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6669,23 +6676,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672511574142845</v>
+        <v>0.91672905092855217</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3522997942348</v>
+        <v>1356.0436423287392</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6694,7 +6701,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.352299794235</v>
+        <v>44163.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6864,7 +6871,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="2">
         <v>42798</v>
       </c>
@@ -7036,6 +7043,9 @@
       </c>
       <c r="E27" s="11" t="s">
         <v>91</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7259,7 +7269,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7288,23 +7298,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672511574142845</v>
+        <v>0.91672905092855217</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3522997942348</v>
+        <v>1356.0436423287392</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7313,7 +7323,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.352299794235</v>
+        <v>44163.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7933,7 +7943,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7962,23 +7972,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672511574142845</v>
+        <v>0.91672905092855217</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3522997942348</v>
+        <v>1356.0436423287392</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7987,7 +7997,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.352299794235</v>
+        <v>44163.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8551,7 +8561,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8580,23 +8590,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672511574142845</v>
+        <v>0.91672905092855217</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3522997942348</v>
+        <v>1356.0436423287392</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8605,7 +8615,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.352299794235</v>
+        <v>44163.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9181,7 +9191,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9210,23 +9220,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672511574142845</v>
+        <v>0.91672905092855217</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1358.3522997942348</v>
+        <v>1356.0436423287392</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-44</v>
+        <v>-45</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9235,7 +9245,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.352299794235</v>
+        <v>44163.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9773,7 +9783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
@@ -10320,11 +10330,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.18193224592220827</v>
+        <v>0.23964868255959851</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>32.722710163111671</v>
+        <v>30.414052697616061</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10807,7 +10817,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11048,11 +11058,11 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="1">C18/B18</f>
-        <v>0.57407407407407407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11193,7 +11203,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.18193224592220827</v>
+        <v>0.23964868255959851</v>
       </c>
     </row>
   </sheetData>
@@ -11227,7 +11237,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11536,6 +11546,9 @@
     <row r="39" spans="1:2">
       <c r="A39" s="32">
         <v>42807</v>
+      </c>
+      <c r="B39" s="34">
+        <v>44163.043642328739</v>
       </c>
     </row>
     <row r="40" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
   <si>
     <t>日期</t>
   </si>
@@ -657,6 +657,10 @@
   </si>
   <si>
     <t>金融数学2章，108题完成！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学教材3章，完成！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4280,6 +4284,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44163.043642328739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44164.043642328739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5978,7 +5985,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6007,11 +6014,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672905092855217</v>
+        <v>0.91762025462958263</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6019,11 +6026,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6032,7 +6039,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.043642328739</v>
+        <v>44164.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6617,7 +6624,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6647,7 +6654,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6676,11 +6683,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672905092855217</v>
+        <v>0.91762025462958263</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6688,11 +6695,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6701,7 +6708,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.043642328739</v>
+        <v>44164.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7060,7 +7067,9 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
@@ -7269,7 +7278,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7298,11 +7307,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672905092855217</v>
+        <v>0.91762025462958263</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7310,11 +7319,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7323,7 +7332,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.043642328739</v>
+        <v>44164.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7943,7 +7952,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7972,11 +7981,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672905092855217</v>
+        <v>0.91762025462958263</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7984,11 +7993,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7997,7 +8006,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.043642328739</v>
+        <v>44164.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8561,7 +8570,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8590,11 +8599,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672905092855217</v>
+        <v>0.91762025462958263</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8602,11 +8611,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8615,7 +8624,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.043642328739</v>
+        <v>44164.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9191,7 +9200,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9220,11 +9229,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672905092855217</v>
+        <v>0.91762025462958263</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9232,11 +9241,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-45</v>
+        <v>-46</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9245,7 +9254,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.043642328739</v>
+        <v>44164.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11237,7 +11246,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11554,6 +11563,9 @@
     <row r="40" spans="1:2">
       <c r="A40" s="32">
         <v>42808</v>
+      </c>
+      <c r="B40" s="34">
+        <v>44164.043642328739</v>
       </c>
     </row>
     <row r="41" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -4286,6 +4286,9 @@
                   <c:v>44163.043642328739</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>44164.043642328739</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>44164.043642328739</c:v>
                 </c:pt>
               </c:numCache>
@@ -5985,7 +5988,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6014,11 +6017,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91762025462958263</v>
+        <v>0.91673182870727032</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6026,11 +6029,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6039,7 +6042,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.043642328739</v>
+        <v>44165.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6654,7 +6657,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6683,11 +6686,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91762025462958263</v>
+        <v>0.91673182870727032</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6695,11 +6698,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6708,7 +6711,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.043642328739</v>
+        <v>44165.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7278,7 +7281,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7307,11 +7310,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91762025462958263</v>
+        <v>0.91673182870727032</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7319,11 +7322,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7332,7 +7335,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.043642328739</v>
+        <v>44165.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7952,7 +7955,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7981,11 +7984,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91762025462958263</v>
+        <v>0.91673182870727032</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7993,11 +7996,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8006,7 +8009,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.043642328739</v>
+        <v>44165.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8570,7 +8573,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8599,11 +8602,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91762025462958263</v>
+        <v>0.91673182870727032</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8611,11 +8614,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8624,7 +8627,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.043642328739</v>
+        <v>44165.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9200,7 +9203,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9229,11 +9232,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91762025462958263</v>
+        <v>0.91673182870727032</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9241,11 +9244,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-46</v>
+        <v>-47</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9254,7 +9257,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.043642328739</v>
+        <v>44165.043642328739</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11246,7 +11249,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11571,6 +11574,9 @@
     <row r="41" spans="1:2">
       <c r="A41" s="32">
         <v>42809</v>
+      </c>
+      <c r="B41" s="34">
+        <v>44164.043642328739</v>
       </c>
     </row>
     <row r="42" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
   <si>
     <t>日期</t>
   </si>
@@ -661,6 +661,10 @@
   </si>
   <si>
     <t>金融数学教材3章，完成！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学习题3章，56题完成！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2945,7 +2949,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.414052697616061</c:v>
+                  <c:v>27.603513174404014</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4290,6 +4294,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44164.043642328739</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44163.233102805527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,7 +5995,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6017,23 +6024,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91673182870727032</v>
+        <v>0.63633101851883112</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.0436423287392</v>
+        <v>1353.2331028055271</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6042,7 +6049,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.043642328739</v>
+        <v>44163.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6623,11 +6630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6657,7 +6664,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6686,23 +6693,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91673182870727032</v>
+        <v>0.63633101851883112</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.0436423287392</v>
+        <v>1353.2331028055271</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6711,7 +6718,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.043642328739</v>
+        <v>44163.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7098,6 +7105,9 @@
       <c r="C30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期四</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7281,7 +7291,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7310,23 +7320,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91673182870727032</v>
+        <v>0.63633101851883112</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.0436423287392</v>
+        <v>1353.2331028055271</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7335,7 +7345,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.043642328739</v>
+        <v>44163.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7955,7 +7965,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7984,23 +7994,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91673182870727032</v>
+        <v>0.63633101851883112</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.0436423287392</v>
+        <v>1353.2331028055271</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8009,7 +8019,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.043642328739</v>
+        <v>44163.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8573,7 +8583,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8602,23 +8612,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91673182870727032</v>
+        <v>0.63633101851883112</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.0436423287392</v>
+        <v>1353.2331028055271</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8627,7 +8637,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.043642328739</v>
+        <v>44163.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9203,7 +9213,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9232,23 +9242,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91673182870727032</v>
+        <v>0.63633101851883112</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1356.0436423287392</v>
+        <v>1353.2331028055271</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9257,7 +9267,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.043642328739</v>
+        <v>44163.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10342,11 +10352,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.23964868255959851</v>
+        <v>0.30991217063989962</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>30.414052697616061</v>
+        <v>27.603513174404014</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10828,8 +10838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11085,11 +11095,11 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11215,7 +11225,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.23964868255959851</v>
+        <v>0.30991217063989962</v>
       </c>
     </row>
   </sheetData>
@@ -11249,7 +11259,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11582,6 +11592,9 @@
     <row r="42" spans="1:2">
       <c r="A42" s="32">
         <v>42810</v>
+      </c>
+      <c r="B42" s="34">
+        <v>44163.233102805527</v>
       </c>
     </row>
     <row r="43" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -1427,6 +1427,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3062,6 +3063,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6024,7 +6026,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63633101851883112</v>
+        <v>0.91672858795936918</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6631,10 +6633,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6693,7 +6695,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63633101851883112</v>
+        <v>0.91672858795936918</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7260,7 +7262,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
@@ -7320,7 +7322,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63633101851883112</v>
+        <v>0.91672858795936918</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7994,7 +7996,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63633101851883112</v>
+        <v>0.91672858795936918</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -8612,7 +8614,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63633101851883112</v>
+        <v>0.91672858795936918</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -9242,7 +9244,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63633101851883112</v>
+        <v>0.91672858795936918</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -9805,9 +9807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10838,8 +10840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11238,8 +11240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4298,6 +4298,9 @@
                   <c:v>44164.043642328739</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>44163.233102805527</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>44163.233102805527</c:v>
                 </c:pt>
               </c:numCache>
@@ -5997,7 +6000,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6026,11 +6029,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672858795936918</v>
+        <v>0.91672256944730179</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6038,11 +6041,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6051,7 +6054,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.233102805527</v>
+        <v>44164.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6666,7 +6669,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6695,11 +6698,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672858795936918</v>
+        <v>0.91672256944730179</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6707,11 +6710,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6720,7 +6723,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.233102805527</v>
+        <v>44164.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7293,7 +7296,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7322,11 +7325,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672858795936918</v>
+        <v>0.91672256944730179</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7334,11 +7337,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7347,7 +7350,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.233102805527</v>
+        <v>44164.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7967,7 +7970,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7996,11 +7999,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672858795936918</v>
+        <v>0.91672256944730179</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8008,11 +8011,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8021,7 +8024,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.233102805527</v>
+        <v>44164.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8585,7 +8588,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8614,11 +8617,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672858795936918</v>
+        <v>0.91672256944730179</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8626,11 +8629,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8639,7 +8642,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.233102805527</v>
+        <v>44164.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9215,7 +9218,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9244,11 +9247,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672858795936918</v>
+        <v>0.91672256944730179</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9256,11 +9259,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9269,7 +9272,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44163.233102805527</v>
+        <v>44164.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11261,7 +11264,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11602,6 +11605,9 @@
     <row r="43" spans="1:2">
       <c r="A43" s="32">
         <v>42811</v>
+      </c>
+      <c r="B43" s="34">
+        <v>44163.233102805527</v>
       </c>
     </row>
     <row r="44" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="162">
   <si>
     <t>日期</t>
   </si>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>金融数学习题3章，56题完成！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学4章，完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1427,7 +1431,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3063,7 +3066,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4302,6 +4304,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44163.233102805527</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44165.233102805527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,7 +6005,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6029,11 +6034,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672256944730179</v>
+        <v>0.91672557870333549</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6041,11 +6046,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6054,7 +6059,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.233102805527</v>
+        <v>44165.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6635,11 +6640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6669,7 +6674,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6698,11 +6703,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672256944730179</v>
+        <v>0.91672557870333549</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6710,11 +6715,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6723,7 +6728,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.233102805527</v>
+        <v>44165.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7145,6 +7150,9 @@
       <c r="C32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期六</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7296,7 +7304,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7325,11 +7333,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672256944730179</v>
+        <v>0.91672557870333549</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7337,11 +7345,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7350,7 +7358,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.233102805527</v>
+        <v>44165.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7970,7 +7978,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7999,11 +8007,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672256944730179</v>
+        <v>0.91672557870333549</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8011,11 +8019,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8024,7 +8032,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.233102805527</v>
+        <v>44165.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8588,7 +8596,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8617,11 +8625,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672256944730179</v>
+        <v>0.91672557870333549</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8629,11 +8637,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8642,7 +8650,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.233102805527</v>
+        <v>44165.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9218,7 +9226,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9247,11 +9255,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672256944730179</v>
+        <v>0.91672557870333549</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9259,11 +9267,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9272,7 +9280,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44164.233102805527</v>
+        <v>44165.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -9810,9 +9818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11264,7 +11272,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11613,6 +11621,9 @@
     <row r="44" spans="1:2">
       <c r="A44" s="32">
         <v>42812</v>
+      </c>
+      <c r="B44" s="34">
+        <v>44165.233102805527</v>
       </c>
     </row>
     <row r="45" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -4307,6 +4307,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44165.233102805527</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44167.233102805527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6005,7 +6008,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6034,11 +6037,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672557870333549</v>
+        <v>0.91671874999883585</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6046,11 +6049,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6059,7 +6062,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.233102805527</v>
+        <v>44167.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6640,7 +6643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -6674,7 +6677,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6703,11 +6706,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672557870333549</v>
+        <v>0.91671874999883585</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6715,11 +6718,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6728,7 +6731,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.233102805527</v>
+        <v>44167.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7304,7 +7307,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7333,11 +7336,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672557870333549</v>
+        <v>0.91671874999883585</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7345,11 +7348,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7358,7 +7361,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.233102805527</v>
+        <v>44167.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7978,7 +7981,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8007,11 +8010,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672557870333549</v>
+        <v>0.91671874999883585</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8019,11 +8022,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8032,7 +8035,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.233102805527</v>
+        <v>44167.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8596,7 +8599,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8625,11 +8628,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672557870333549</v>
+        <v>0.91671874999883585</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8637,11 +8640,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8650,7 +8653,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.233102805527</v>
+        <v>44167.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9226,7 +9229,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9255,11 +9258,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672557870333549</v>
+        <v>0.91671874999883585</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9267,11 +9270,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9280,7 +9283,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.233102805527</v>
+        <v>44167.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10851,8 +10854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11272,7 +11275,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11634,6 +11637,9 @@
     <row r="46" spans="1:2">
       <c r="A46" s="32">
         <v>42814</v>
+      </c>
+      <c r="B46" s="34">
+        <v>44167.233102805527</v>
       </c>
     </row>
     <row r="47" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4309,6 +4309,9 @@
                   <c:v>44165.233102805527</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>44167.233102805527</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>44167.233102805527</c:v>
                 </c:pt>
               </c:numCache>
@@ -6008,7 +6011,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6037,11 +6040,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671874999883585</v>
+        <v>0.91670266203436768</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6049,11 +6052,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6062,7 +6065,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.233102805527</v>
+        <v>44168.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6677,7 +6680,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6706,11 +6709,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671874999883585</v>
+        <v>0.91670266203436768</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6718,11 +6721,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6731,7 +6734,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.233102805527</v>
+        <v>44168.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7307,7 +7310,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7336,11 +7339,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671874999883585</v>
+        <v>0.91670266203436768</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7348,11 +7351,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7361,7 +7364,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.233102805527</v>
+        <v>44168.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7981,7 +7984,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8010,11 +8013,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671874999883585</v>
+        <v>0.91670266203436768</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8022,11 +8025,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8035,7 +8038,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.233102805527</v>
+        <v>44168.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8599,7 +8602,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8628,11 +8631,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671874999883585</v>
+        <v>0.91670266203436768</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8640,11 +8643,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8653,7 +8656,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.233102805527</v>
+        <v>44168.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9229,7 +9232,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9258,11 +9261,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671874999883585</v>
+        <v>0.91670266203436768</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9270,11 +9273,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-52</v>
+        <v>-53</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9283,7 +9286,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.233102805527</v>
+        <v>44168.233102805527</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11275,7 +11278,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11645,6 +11648,9 @@
     <row r="47" spans="1:2">
       <c r="A47" s="32">
         <v>42815</v>
+      </c>
+      <c r="B47" s="34">
+        <v>44167.233102805527</v>
       </c>
     </row>
     <row r="48" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -2953,7 +2953,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.603513174404014</c:v>
+                  <c:v>23.739021329987455</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4313,6 +4313,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44167.233102805527</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44165.368610961108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,7 +6014,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6040,23 +6043,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670266203436768</v>
+        <v>0.90317858796333894</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.2331028055271</v>
+        <v>1349.3686109611106</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6065,7 +6068,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.233102805527</v>
+        <v>44165.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6650,7 +6653,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6680,7 +6683,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6709,23 +6712,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670266203436768</v>
+        <v>0.90317858796333894</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.2331028055271</v>
+        <v>1349.3686109611106</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6734,7 +6737,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.233102805527</v>
+        <v>44165.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7282,7 +7285,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7310,7 +7313,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7339,23 +7342,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670266203436768</v>
+        <v>0.90317858796333894</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.2331028055271</v>
+        <v>1349.3686109611106</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7364,7 +7367,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.233102805527</v>
+        <v>44165.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7984,7 +7987,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8013,23 +8016,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670266203436768</v>
+        <v>0.90317858796333894</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.2331028055271</v>
+        <v>1349.3686109611106</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8038,7 +8041,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.233102805527</v>
+        <v>44165.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8602,7 +8605,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8631,23 +8634,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670266203436768</v>
+        <v>0.90317858796333894</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.2331028055271</v>
+        <v>1349.3686109611106</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8656,7 +8659,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.233102805527</v>
+        <v>44165.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9232,7 +9235,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9261,23 +9264,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670266203436768</v>
+        <v>0.90317858796333894</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1353.2331028055271</v>
+        <v>1349.3686109611106</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9286,7 +9289,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.233102805527</v>
+        <v>44165.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10371,11 +10374,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.30991217063989962</v>
+        <v>0.40652446675031367</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>27.603513174404014</v>
+        <v>23.739021329987455</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10858,7 +10861,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11129,11 +11132,11 @@
         <v>77</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11244,7 +11247,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.30991217063989962</v>
+        <v>0.40652446675031367</v>
       </c>
     </row>
   </sheetData>
@@ -11278,7 +11281,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11656,6 +11659,9 @@
     <row r="48" spans="1:2">
       <c r="A48" s="32">
         <v>42816</v>
+      </c>
+      <c r="B48" s="34">
+        <v>44165.368610961108</v>
       </c>
     </row>
     <row r="49" spans="1:1">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
   <si>
     <t>日期</t>
   </si>
@@ -669,6 +669,10 @@
   </si>
   <si>
     <t>金融数学4章，完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学4章习题，完成！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6043,7 +6047,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90317858796333894</v>
+        <v>0.91670949073886732</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -6650,10 +6654,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6712,7 +6716,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90317858796333894</v>
+        <v>0.91670949073886732</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -7225,7 +7229,9 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
@@ -7342,7 +7348,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90317858796333894</v>
+        <v>0.91670949073886732</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -8016,7 +8022,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90317858796333894</v>
+        <v>0.91670949073886732</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -8634,7 +8640,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90317858796333894</v>
+        <v>0.91670949073886732</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -9264,7 +9270,7 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.90317858796333894</v>
+        <v>0.91670949073886732</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
@@ -10861,7 +10867,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11260,8 +11266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
   <si>
     <t>日期</t>
   </si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>金融数学4章习题，完成！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度技术分享：地图</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4320,6 +4324,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44165.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44166.368610961108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,7 +6025,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6047,11 +6054,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670949073886732</v>
+        <v>0.91671990740724141</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6059,11 +6066,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6072,7 +6079,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.368610961108</v>
+        <v>44166.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6687,7 +6694,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6716,11 +6723,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670949073886732</v>
+        <v>0.91671990740724141</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6728,11 +6735,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6741,7 +6748,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.368610961108</v>
+        <v>44166.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7287,11 +7294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7319,7 +7326,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7348,11 +7355,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670949073886732</v>
+        <v>0.91671990740724141</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7360,11 +7367,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7373,7 +7380,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.368610961108</v>
+        <v>44166.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7437,6 +7444,9 @@
       <c r="C11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期六</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -7993,7 +8003,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8022,11 +8032,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670949073886732</v>
+        <v>0.91671990740724141</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8034,11 +8044,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8047,7 +8057,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.368610961108</v>
+        <v>44166.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8611,7 +8621,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8640,11 +8650,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670949073886732</v>
+        <v>0.91671990740724141</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8652,11 +8662,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8665,7 +8675,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.368610961108</v>
+        <v>44166.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9241,7 +9251,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9270,11 +9280,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91670949073886732</v>
+        <v>0.91671990740724141</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9282,11 +9292,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9295,7 +9305,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44165.368610961108</v>
+        <v>44166.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10866,7 +10876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -11287,7 +11297,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11670,82 +11680,85 @@
         <v>44165.368610961108</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="32">
         <v>42817</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="34">
+        <v>44166.368610961108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="32">
         <v>42818</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" s="32">
         <v>42819</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2">
       <c r="A52" s="32">
         <v>42820</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2">
       <c r="A53" s="32">
         <v>42821</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2">
       <c r="A54" s="32">
         <v>42822</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2">
       <c r="A55" s="32">
         <v>42823</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:2">
       <c r="A56" s="32">
         <v>42824</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2">
       <c r="A57" s="32">
         <v>42825</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2">
       <c r="A58" s="32">
         <v>42826</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:2">
       <c r="A59" s="32">
         <v>42827</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:2">
       <c r="A60" s="32">
         <v>42828</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:2">
       <c r="A61" s="32">
         <v>42829</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:2">
       <c r="A62" s="32">
         <v>42830</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:2">
       <c r="A63" s="32">
         <v>42831</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2">
       <c r="A64" s="32">
         <v>42832</v>
       </c>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -4327,6 +4327,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44166.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44167.368610961108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,7 +5996,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
@@ -6025,7 +6028,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6054,11 +6057,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671990740724141</v>
+        <v>0.91672395833302289</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6066,11 +6069,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6079,7 +6082,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44166.368610961108</v>
+        <v>44167.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6660,11 +6663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6694,7 +6697,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6723,11 +6726,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671990740724141</v>
+        <v>0.91672395833302289</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6735,11 +6738,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6748,7 +6751,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44166.368610961108</v>
+        <v>44167.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7294,11 +7297,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7326,7 +7329,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7355,11 +7358,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671990740724141</v>
+        <v>0.91672395833302289</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7367,11 +7370,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7380,7 +7383,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44166.368610961108</v>
+        <v>44167.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8003,7 +8006,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8032,11 +8035,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671990740724141</v>
+        <v>0.91672395833302289</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8044,11 +8047,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8057,7 +8060,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44166.368610961108</v>
+        <v>44167.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8621,7 +8624,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8650,11 +8653,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671990740724141</v>
+        <v>0.91672395833302289</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8662,11 +8665,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8675,7 +8678,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44166.368610961108</v>
+        <v>44167.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9251,7 +9254,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9280,11 +9283,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671990740724141</v>
+        <v>0.91672395833302289</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9292,11 +9295,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-55</v>
+        <v>-56</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9305,7 +9308,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44166.368610961108</v>
+        <v>44167.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11297,7 +11300,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11691,6 +11694,9 @@
     <row r="50" spans="1:2">
       <c r="A50" s="32">
         <v>42818</v>
+      </c>
+      <c r="B50" s="34">
+        <v>44167.368610961108</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4329,6 +4329,9 @@
                   <c:v>44166.368610961108</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>44167.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>44167.368610961108</c:v>
                 </c:pt>
               </c:numCache>
@@ -6028,7 +6031,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6057,11 +6060,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672395833302289</v>
+        <v>0.91674016203614883</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6069,11 +6072,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6082,7 +6085,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.368610961108</v>
+        <v>44168.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6697,7 +6700,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6726,11 +6729,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672395833302289</v>
+        <v>0.91674016203614883</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6738,11 +6741,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6751,7 +6754,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.368610961108</v>
+        <v>44168.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7329,7 +7332,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7358,11 +7361,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672395833302289</v>
+        <v>0.91674016203614883</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7370,11 +7373,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7383,7 +7386,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.368610961108</v>
+        <v>44168.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8006,7 +8009,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8035,11 +8038,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672395833302289</v>
+        <v>0.91674016203614883</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8047,11 +8050,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8060,7 +8063,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.368610961108</v>
+        <v>44168.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8624,7 +8627,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8653,11 +8656,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672395833302289</v>
+        <v>0.91674016203614883</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8665,11 +8668,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8678,7 +8681,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.368610961108</v>
+        <v>44168.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9254,7 +9257,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9283,11 +9286,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672395833302289</v>
+        <v>0.91674016203614883</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9295,11 +9298,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-56</v>
+        <v>-57</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9308,7 +9311,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44167.368610961108</v>
+        <v>44168.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11300,7 +11303,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11702,6 +11705,9 @@
     <row r="51" spans="1:2">
       <c r="A51" s="32">
         <v>42819</v>
+      </c>
+      <c r="B51" s="34">
+        <v>44167.368610961108</v>
       </c>
     </row>
     <row r="52" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
   <si>
     <t>日期</t>
   </si>
@@ -677,6 +677,10 @@
   </si>
   <si>
     <t>百度技术分享：地图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学5章，完成！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4333,6 +4337,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44167.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44168.368610961108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6031,7 +6038,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6060,11 +6067,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91674016203614883</v>
+        <v>0.91671724536718102</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6072,11 +6079,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6085,7 +6092,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.368610961108</v>
+        <v>44169.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6666,11 +6673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6700,7 +6707,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6729,11 +6736,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91674016203614883</v>
+        <v>0.91671724536718102</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6741,11 +6748,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6754,7 +6761,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.368610961108</v>
+        <v>44169.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7300,11 +7307,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7332,7 +7339,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7361,11 +7368,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91674016203614883</v>
+        <v>0.91671724536718102</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7373,11 +7380,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7386,7 +7393,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.368610961108</v>
+        <v>44169.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7453,6 +7460,9 @@
       </c>
       <c r="D11" s="10" t="s">
         <v>163</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -8009,7 +8019,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8038,11 +8048,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91674016203614883</v>
+        <v>0.91671724536718102</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8050,11 +8060,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8063,7 +8073,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.368610961108</v>
+        <v>44169.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8627,7 +8637,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8656,11 +8666,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91674016203614883</v>
+        <v>0.91671724536718102</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8668,11 +8678,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8681,7 +8691,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.368610961108</v>
+        <v>44169.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9257,7 +9267,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9286,11 +9296,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91674016203614883</v>
+        <v>0.91671724536718102</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9298,11 +9308,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9311,7 +9321,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44168.368610961108</v>
+        <v>44169.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11303,7 +11313,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11713,6 +11723,9 @@
     <row r="52" spans="1:2">
       <c r="A52" s="32">
         <v>42820</v>
+      </c>
+      <c r="B52" s="34">
+        <v>44168.368610961108</v>
       </c>
     </row>
     <row r="53" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4340,6 +4340,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44168.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44169.368610961108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6038,7 +6041,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6067,11 +6070,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671724536718102</v>
+        <v>0.91672453703358769</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6079,11 +6082,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6092,7 +6095,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.368610961108</v>
+        <v>44170.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6707,7 +6710,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6736,11 +6739,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671724536718102</v>
+        <v>0.91672453703358769</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6748,11 +6751,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6761,7 +6764,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.368610961108</v>
+        <v>44170.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7339,7 +7342,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7368,11 +7371,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671724536718102</v>
+        <v>0.91672453703358769</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7380,11 +7383,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7393,7 +7396,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.368610961108</v>
+        <v>44170.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8019,7 +8022,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8048,11 +8051,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671724536718102</v>
+        <v>0.91672453703358769</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8060,11 +8063,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8073,7 +8076,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.368610961108</v>
+        <v>44170.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8637,7 +8640,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8666,11 +8669,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671724536718102</v>
+        <v>0.91672453703358769</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8678,11 +8681,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8691,7 +8694,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.368610961108</v>
+        <v>44170.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9267,7 +9270,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9296,11 +9299,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671724536718102</v>
+        <v>0.91672453703358769</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9308,11 +9311,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9321,7 +9324,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.368610961108</v>
+        <v>44170.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11313,7 +11316,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11731,6 +11734,9 @@
     <row r="53" spans="1:2">
       <c r="A53" s="32">
         <v>42821</v>
+      </c>
+      <c r="B53" s="34">
+        <v>44169.368610961108</v>
       </c>
     </row>
     <row r="54" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4343,6 +4343,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44169.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44170.368610961108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6041,7 +6044,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6070,11 +6073,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672453703358769</v>
+        <v>0.91671469907305436</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6082,11 +6085,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6095,7 +6098,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44170.368610961108</v>
+        <v>44171.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6710,7 +6713,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6739,11 +6742,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672453703358769</v>
+        <v>0.91671469907305436</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6751,11 +6754,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6764,7 +6767,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44170.368610961108</v>
+        <v>44171.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7342,7 +7345,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7371,11 +7374,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672453703358769</v>
+        <v>0.91671469907305436</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7383,11 +7386,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7396,7 +7399,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44170.368610961108</v>
+        <v>44171.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8022,7 +8025,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8051,11 +8054,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672453703358769</v>
+        <v>0.91671469907305436</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8063,11 +8066,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8076,7 +8079,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44170.368610961108</v>
+        <v>44171.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8640,7 +8643,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8669,11 +8672,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672453703358769</v>
+        <v>0.91671469907305436</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8681,11 +8684,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8694,7 +8697,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44170.368610961108</v>
+        <v>44171.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9270,7 +9273,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9299,11 +9302,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91672453703358769</v>
+        <v>0.91671469907305436</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9311,11 +9314,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9324,7 +9327,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44170.368610961108</v>
+        <v>44171.368610961108</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -11316,7 +11319,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11742,6 +11745,9 @@
     <row r="54" spans="1:2">
       <c r="A54" s="32">
         <v>42822</v>
+      </c>
+      <c r="B54" s="34">
+        <v>44170.368610961108</v>
       </c>
     </row>
     <row r="55" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
   <si>
     <t>日期</t>
   </si>
@@ -681,6 +681,35 @@
   </si>
   <si>
     <t>金融数学5章，完成！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡了1天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学5章习题，40道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金融数学5章习题，剩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4道，做到凌晨</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融数学5章习题，剩的4道，一道都不会!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2965,7 +2994,7 @@
                   <c:v>16.747141041931386</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.739021329987455</c:v>
+                  <c:v>20.426599749058969</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>40</c:v>
@@ -4346,6 +4375,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44170.368610961108</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44169.056189380179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6044,7 +6076,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6073,23 +6105,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671469907305436</v>
+        <v>0.9167143518498051</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1349.3686109611106</v>
+        <v>1346.0561893801821</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6098,7 +6130,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44171.368610961108</v>
+        <v>44169.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6713,7 +6745,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6742,23 +6774,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671469907305436</v>
+        <v>0.9167143518498051</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1349.3686109611106</v>
+        <v>1346.0561893801821</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6767,7 +6799,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44171.368610961108</v>
+        <v>44169.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7313,11 +7345,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7345,7 +7377,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7374,23 +7406,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671469907305436</v>
+        <v>0.9167143518498051</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1349.3686109611106</v>
+        <v>1346.0561893801821</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7399,7 +7431,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44171.368610961108</v>
+        <v>44169.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7485,7 +7517,9 @@
         <f t="shared" si="2"/>
         <v>星期日</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
@@ -7500,7 +7534,9 @@
         <f t="shared" si="2"/>
         <v>星期一</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
@@ -7517,6 +7553,9 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
+      <c r="F14" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10">
@@ -7533,6 +7572,9 @@
         <v>星期三</v>
       </c>
       <c r="E15" s="11"/>
+      <c r="F15" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:10">
@@ -8025,7 +8067,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8054,23 +8096,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671469907305436</v>
+        <v>0.9167143518498051</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1349.3686109611106</v>
+        <v>1346.0561893801821</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8079,7 +8121,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44171.368610961108</v>
+        <v>44169.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8643,7 +8685,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8672,23 +8714,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671469907305436</v>
+        <v>0.9167143518498051</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1349.3686109611106</v>
+        <v>1346.0561893801821</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8697,7 +8739,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44171.368610961108</v>
+        <v>44169.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9273,7 +9315,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9302,23 +9344,23 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.91671469907305436</v>
+        <v>0.9167143518498051</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
-        <v>1349.3686109611106</v>
+        <v>1346.0561893801821</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-60</v>
+        <v>-61</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9327,7 +9369,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44171.368610961108</v>
+        <v>44169.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10412,11 +10454,11 @@
       </c>
       <c r="D29">
         <f>任务分解!D28</f>
-        <v>0.40652446675031367</v>
+        <v>0.48933500627352572</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>23.739021329987455</v>
+        <v>20.426599749058969</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25">
@@ -10898,8 +10940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11185,11 +11227,11 @@
         <v>71</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.92957746478873238</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11285,7 +11327,7 @@
     <row r="28" spans="1:5">
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
-        <v>0.40652446675031367</v>
+        <v>0.48933500627352572</v>
       </c>
     </row>
   </sheetData>
@@ -11319,7 +11361,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>
@@ -11753,6 +11795,9 @@
     <row r="55" spans="1:2">
       <c r="A55" s="32">
         <v>42823</v>
+      </c>
+      <c r="B55" s="34">
+        <v>44169.056189380179</v>
       </c>
     </row>
     <row r="56" spans="1:2">

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\git\plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitH\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="173">
   <si>
     <t>日期</t>
   </si>
@@ -710,6 +710,22 @@
   </si>
   <si>
     <t>金融数学5章习题，剩的4道，一道都不会!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体彩技术大会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python数据分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经网络</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1472,6 +1488,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3107,6 +3124,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6076,7 +6094,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6105,11 +6123,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167143518498051</v>
+        <v>0.93943923611368518</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6117,11 +6135,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6130,7 +6148,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.056189380179</v>
+        <v>44178.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -6745,7 +6763,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -6774,11 +6792,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167143518498051</v>
+        <v>0.93943923611368518</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -6786,11 +6804,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6799,7 +6817,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.056189380179</v>
+        <v>44178.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7346,10 +7364,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7377,7 +7395,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -7406,11 +7424,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167143518498051</v>
+        <v>0.93943923611368518</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -7418,11 +7436,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7431,7 +7449,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.056189380179</v>
+        <v>44178.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -7712,7 +7730,9 @@
         <f t="shared" si="2"/>
         <v>星期四</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="28" t="s">
+        <v>169</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7">
@@ -7728,7 +7748,9 @@
         <f t="shared" si="2"/>
         <v>星期五</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="38" t="s">
+        <v>169</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:7">
@@ -7747,9 +7769,7 @@
       <c r="D25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:7">
@@ -7768,9 +7788,7 @@
       <c r="D26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:7">
@@ -8067,7 +8085,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8096,11 +8114,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167143518498051</v>
+        <v>0.93943923611368518</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8108,11 +8126,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8121,7 +8139,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.056189380179</v>
+        <v>44178.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -8685,7 +8703,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -8714,11 +8732,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167143518498051</v>
+        <v>0.93943923611368518</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -8726,11 +8744,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8739,7 +8757,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.056189380179</v>
+        <v>44178.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42840</v>
@@ -9315,7 +9333,7 @@
       <c r="C2" s="50"/>
       <c r="D2" s="36">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>8</v>
@@ -9344,11 +9362,11 @@
       <c r="C3" s="50"/>
       <c r="D3" s="9">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.9167143518498051</v>
+        <v>0.93943923611368518</v>
       </c>
       <c r="E3" s="17">
         <f ca="1">E4-$D$2</f>
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(学习任务!E:E)</f>
@@ -9356,11 +9374,11 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>-61</v>
+        <v>-70</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9369,7 +9387,7 @@
       </c>
       <c r="F4" s="15">
         <f ca="1">$D$2+F3</f>
-        <v>44169.056189380179</v>
+        <v>44178.056189380179</v>
       </c>
       <c r="G4" s="16">
         <v>42762</v>
@@ -10938,10 +10956,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11328,6 +11346,21 @@
       <c r="D28">
         <f>SUM(C17:C27)/SUM(B17:B27)</f>
         <v>0.48933500627352572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="26" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -11361,7 +11394,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="D1" s="37">
         <v>17</v>

--- a/2017日记账.xlsx
+++ b/2017日记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18411" windowHeight="9925" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="18411" windowHeight="9574" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>日期</t>
   </si>
@@ -688,6 +688,15 @@
     <t>深度学习</t>
   </si>
   <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
     <t>指标日</t>
   </si>
   <si>
@@ -705,14 +714,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -783,36 +792,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,15 +820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -847,9 +835,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,14 +859,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -889,20 +883,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -912,7 +921,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,7 +966,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,25 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,67 +1056,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,37 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1128,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,20 +1253,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,32 +1313,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,28 +1333,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,10 +1358,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1361,16 +1370,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,115 +1388,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1507,13 +1516,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1522,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1593,7 +1602,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1640,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6000,7 +6009,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>1</v>
@@ -6029,11 +6038,11 @@
       <c r="C3" s="28"/>
       <c r="D3" s="32">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.991122685183655</v>
+        <v>0.388344907405553</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">E4-$D$2</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(学习任务!E:E)</f>
@@ -6041,11 +6050,11 @@
       </c>
       <c r="G3" s="33">
         <f ca="1" t="shared" ref="G3:H3" si="0">G4-$D$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="33">
         <f ca="1" t="shared" si="0"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -6054,7 +6063,7 @@
       </c>
       <c r="F4" s="35">
         <f ca="1">$D$2+F3</f>
-        <v>44180.0561893802</v>
+        <v>44181.0561893802</v>
       </c>
       <c r="G4" s="34">
         <v>42840</v>
@@ -6599,7 +6608,7 @@
   <sheetData>
     <row r="1" ht="28.3" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1">
         <v>300</v>
@@ -6613,7 +6622,7 @@
     </row>
     <row r="2" ht="28.3" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" s="3">
         <v>40</v>
@@ -6672,7 +6681,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>1</v>
@@ -6701,11 +6710,11 @@
       <c r="C3" s="28"/>
       <c r="D3" s="32">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.991122685183655</v>
+        <v>0.388344907405553</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">E4-$D$2</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(学习任务!E:E)</f>
@@ -6713,11 +6722,11 @@
       </c>
       <c r="G3" s="33">
         <f ca="1" t="shared" ref="G3:H3" si="0">G4-$D$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="33">
         <f ca="1" t="shared" si="0"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -6726,7 +6735,7 @@
       </c>
       <c r="F4" s="35">
         <f ca="1">$D$2+F3</f>
-        <v>44180.0561893802</v>
+        <v>44181.0561893802</v>
       </c>
       <c r="G4" s="34">
         <v>42840</v>
@@ -7273,7 +7282,7 @@
   <sheetPr/>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7306,7 +7315,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>1</v>
@@ -7335,11 +7344,11 @@
       <c r="C3" s="28"/>
       <c r="D3" s="32">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.991122685183655</v>
+        <v>0.388344907405553</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">E4-$D$2</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(学习任务!E:E)</f>
@@ -7347,11 +7356,11 @@
       </c>
       <c r="G3" s="33">
         <f ca="1" t="shared" ref="G3:H3" si="0">G4-$D$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="33">
         <f ca="1" t="shared" si="0"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -7360,7 +7369,7 @@
       </c>
       <c r="F4" s="35">
         <f ca="1">$D$2+F3</f>
-        <v>44180.0561893802</v>
+        <v>44181.0561893802</v>
       </c>
       <c r="G4" s="34">
         <v>42840</v>
@@ -8014,7 +8023,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>1</v>
@@ -8043,11 +8052,11 @@
       <c r="C3" s="28"/>
       <c r="D3" s="32">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.991122685183655</v>
+        <v>0.388344907405553</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">E4-$D$2</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(学习任务!E:E)</f>
@@ -8055,11 +8064,11 @@
       </c>
       <c r="G3" s="33">
         <f ca="1" t="shared" ref="G3:H3" si="0">G4-$D$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="33">
         <f ca="1" t="shared" si="0"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -8068,7 +8077,7 @@
       </c>
       <c r="F4" s="35">
         <f ca="1">$D$2+F3</f>
-        <v>44180.0561893802</v>
+        <v>44181.0561893802</v>
       </c>
       <c r="G4" s="34">
         <v>42840</v>
@@ -8636,7 +8645,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>1</v>
@@ -8665,11 +8674,11 @@
       <c r="C3" s="28"/>
       <c r="D3" s="32">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.991122685183655</v>
+        <v>0.388344907405553</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">E4-$D$2</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(学习任务!E:E)</f>
@@ -8677,11 +8686,11 @@
       </c>
       <c r="G3" s="33">
         <f ca="1" t="shared" ref="G3:H3" si="0">G4-$D$2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="33">
         <f ca="1" t="shared" si="0"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -8690,7 +8699,7 @@
       </c>
       <c r="F4" s="35">
         <f ca="1">$D$2+F3</f>
-        <v>44180.0561893802</v>
+        <v>44181.0561893802</v>
       </c>
       <c r="G4" s="34">
         <v>42840</v>
@@ -9268,7 +9277,7 @@
       <c r="C2" s="28"/>
       <c r="D2" s="29">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>1</v>
@@ -9297,11 +9306,11 @@
       <c r="C3" s="28"/>
       <c r="D3" s="32">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.991122685183655</v>
+        <v>0.388344907405553</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">E4-$D$2</f>
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(学习任务!E:E)</f>
@@ -9309,11 +9318,11 @@
       </c>
       <c r="G3" s="33">
         <f ca="1" t="shared" ref="G3:H3" si="0">G4-$D$2</f>
-        <v>-72</v>
+        <v>-73</v>
       </c>
       <c r="H3" s="33">
         <f ca="1" t="shared" si="0"/>
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="5:8">
@@ -9322,7 +9331,7 @@
       </c>
       <c r="F4" s="35">
         <f ca="1">$D$2+F3</f>
-        <v>44180.0561893802</v>
+        <v>44181.0561893802</v>
       </c>
       <c r="G4" s="34">
         <v>42762</v>
@@ -10894,10 +10903,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="4"/>
@@ -11391,6 +11400,19 @@
     <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -11418,14 +11440,14 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C1" s="8">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="D1" s="9">
         <v>17</v>
